--- a/server/train/data/datawithbiolabels.xlsx
+++ b/server/train/data/datawithbiolabels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,24 +451,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('488', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('221', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('215', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1015', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('128', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('317', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('529', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'O'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('627', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('217', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сои', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1907', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('299', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('488', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('221', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('215', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1015', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('128', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('317', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('123', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('529', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('627', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('217', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сои', 'B-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1907', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('45', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('299', 'O')]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 488
-отделение 12 площадь за день 26 площадь с начала операции 221
-предпосевная культура под озимая пшеница
-по пу площадь за день 215 площадь с начала операции 1015
-отделение 12 площадь за день 128 площадь с начала операции 317
-отделение 16 площадь за день 123 площадь с начала операции 529
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 22 площадь с начала операции 627
-отделение 11 площадь за день 22 площадь с начала операции 217
-второе дискование сои под озимая пшеница
-по пу площадь за день 45 площадь с начала операции 1907
-отделение 12 площадь за день 45 площадь с начала операции 299</t>
+          <t>пахота зяби под многолетние травы
+по пу день 26 от начала 488
+отделение 12 день 26 от начала 221
+предпосевная культура под озимая пшеница
+по пу день 215 от начала 1015
+отделение 12 день 128 от начала 317
+отделение 16 день 123 от начала 529
+второе дискование сахарная свекла под пшеница
+по пу день 22 от начала 627
+отделение 11 день 22 от начала 217
+второе дискование сои под озимая пшеница
+по пу день 45 от начала 1907
+отделение 12 день 45 от начала 299</t>
         </is>
       </c>
     </row>
@@ -478,29 +478,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('514', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('247', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1351', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('731', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1071', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('585', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('870', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('168', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('750', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('450', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сои', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1989', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('993', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('514', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('247', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1351', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('13', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('731', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1071', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('585', 'B-operation'), ('дискование', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('85', 'I-operation'), ('от', 'I-operation'), ('начала', 'O'), ('870', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('85', 'I-operation'), ('от', 'I-operation'), ('начала', 'O'), ('168', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-plant'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('123', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('750', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('123', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('450', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-plant'), ('сои', 'B-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('82', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1989', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('82', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('993', 'O')]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 514
-отделение 12 площадь за день 26 площадь с начала операции 247
-пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1351
-отделение 16 площадь за день 13 площадь с начала операции 731
-предпосевная культура под озимая пшеница
-по пу площадь за день 56 площадь с начала операции 1071
-отделение 16 площадь за день 56 площадь с начала операции 585
-дискование сахарная свекла
-по пу площадь за день 85 площадь с начала операции 870
-отделение 17 площадь за день 85 площадь с начала операции 168
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 123 площадь с начала операции 750
-отделение 12 площадь за день 123 площадь с начала операции 450
-второе дискование сои под озимая пшеница
-по пу площадь за день 82 площадь с начала операции 1989
-отделение 11 площадь за день 82 площадь с начала операции 993</t>
+          <t>пахота зяби под многолетние травы
+по пу день 26 от начала 514
+отделение 12 день 26 от начала 247
+пахота зяби под сою
+по пу день 13 от начала 1351
+отделение 16 день 13 от начала 731
+предпосевная культура под озимая пшеница
+по пу день 56 от начала 1071
+отделение 16 день 56 от начала 585
+дискование сахарная свекла
+по пу день 85 от начала 870
+отделение 17 день 85 от начала 168
+второе дискование сахарная свекла под пшеница
+по пу день 123 от начала 750
+отделение 12 день 123 от начала 450
+второе дискование сои под озимая пшеница
+по пу день 82 от начала 1989
+отделение 11 день 82 от начала 993</t>
         </is>
       </c>
     </row>
@@ -510,23 +510,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1367', 'B-perOperation'), ('отделение', 'B-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('760', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('146', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1217', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('146', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('233', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('934', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('232', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('775', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('475', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('29', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1367', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('29', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('760', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('146', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1217', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('146', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('233', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('934', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-department'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('25', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('775', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('25', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('475', 'O')]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 29 площадь с начала операции 1367
-отделение 16 площадь за день 29 площадь с начала операции 760
-предпосевная культура под озимая пшеница
-по пу площадь за день 146 площадь с начала операции 1217
-отделение 11 площадь за день 146 площадь с начала операции 233
-дискование сахарная свекла
-по пу площадь за день 64 площадь с начала операции 934
-отделение 17 площадь за день 64 площадь с начала операции 232
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 25 площадь с начала операции 775
-отделение 12 площадь за день 25 площадь с начала операции 475</t>
+          <t>пахота зяби под сою
+по пу день 29 от начала 1367
+отделение 16 день 29 от начала 760
+предпосевная культура под озимая пшеница
+по пу день 146 от начала 1217
+отделение 11 день 146 от начала 233
+дискование сахарная свекла
+по пу день 64 от начала 934
+отделение 17 день 64 от начала 232
+второе дискование сахарная свекла под пшеница
+по пу день 25 от начала 775
+отделение 12 день 25 от начала 475</t>
         </is>
       </c>
     </row>
@@ -536,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[('12.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('149', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('7264', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('149', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1443', 'O')]</t>
+          <t>[('12.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('149', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('7264', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('149', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1443', 'O')]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 149 площадь с начала операции 7264
-отделение 17-площадь за день 149 площадь с начала операции 1443</t>
+          <t>12.10
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг день 149 от начала 7264
+отделение 17 день 149 от начала 1443</t>
         </is>
       </c>
     </row>
@@ -553,29 +553,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('15', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1382', 'B-perOperation'), ('отделение', 'B-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('15', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('775', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('527', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('260', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сои', 'O'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('87', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2076', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('87', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('386', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'O'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('149', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('899', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('149', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('232', 'O'), ('3-е', 'B-operation'), ('дискование', 'I-operation'), ('подсол', 'O'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('949', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('47', 'I-perDay'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1312', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('328', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('15', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1382', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('15', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('775', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('527', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('13', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('260', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сои', 'B-plant'), ('под', 'O'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('87', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('2076', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('87', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('386', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'B-plant'), ('под', 'O'), ('пшеница', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('149', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('899', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('149', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'B-operation'), ('3', 'I-perOperation'), ('е', 'O'), ('дискование', 'I-operation'), ('подсол', 'B-plant'), ('под', 'O'), ('пшеница', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('47', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('949', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('47', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('47', 'O'), ('предпосевная', 'B-operation'), ('культура', 'B-plant'), ('под', 'O'), ('озимая', 'O'), ('пшеница', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('95', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1312', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('95', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('328', 'O')]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 15 площадь с начала операции 1382
-отделение 16 площадь за день 15 площадь с начала операции 775
-пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 527
-отделение 12 площадь за день 13 площадь с начала операции 260
-второе дискование сои под пшеница
-по пу площадь за день 87 площадь с начала операции 2076
-отделение 12 площадь за день 87 площадь с начала операции 386
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 149 площадь с начала операции 899
-отделение 17 площадь за день 149 площадь с начала операции 232
-3-е дискование подсол под пшеница
-по пу площадь за день 47 площадь с начала операции 949
-отделение 11 площадь за день 47 площадь с начала операции 47
-предпосевная культура под озимая пшеница
-по пу площадь за день 95 площадь с начала операции 1312
-отделение 11 площадь за день 95 площадь с начала операции 328</t>
+          <t>пахота зяби под сою
+по пу день 15 от начала 1382
+отделение 16 день 15 от начала 775
+пахота зяби под многолетние травы
+по пу день 13 от начала 527
+отделение 12 день 13 от начала 260
+второе дискование сои под пшеница
+по пу день 87 от начала 2076
+отделение 12 день 87 от начала 386
+второе дискование сахарная свекла под пшеница
+по пу день 149 от начала 899
+отделение 17 день 149 от начала 232
+3 е дискование подсол под пшеница
+по пу день 47 от начала 949
+отделение 11 день 47 от начала 47
+предпосевная культура под озимая пшеница
+по пу день 95 от начала 1312
+отделение 11 день 95 от начала 328</t>
         </is>
       </c>
     </row>
@@ -585,21 +585,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('540', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('273', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1004', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('302', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1403', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('373', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('46', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('363', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('540', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('273', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('70', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1004', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('70', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('302', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1403', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('373', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('46', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('363', 'O')]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 540
-отделение 12 площадь за день 13 площадь с начала операции 273
-дискование сахарная свекла
-по пу площадь за день 70 площадь с начала операции 1004
-отделение 17 площадь за день 70 площадь с начала операции 302
-предпосевная культура под озимая пшеница
-по пу площадь за день 91 площадь с начала операции 1403
-отделение 11 площадь за день 45 площадь с начала операции 373
-отделение 12 площадь за день 46 площадь с начала операции 363</t>
+          <t>пахота зяби под многолетние травы
+по пу день 13 от начала 540
+отделение 12 день 13 от начала 273
+дискование сахарная свекла
+по пу день 70 от начала 1004
+отделение 17 день 70 от начала 302
+предпосевная культура под озимая пшеница
+по пу день 91 от начала 1403
+отделение 11 день 45 от начала 373
+отделение 12 день 46 от начала 363</t>
         </is>
       </c>
     </row>
@@ -609,14 +609,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[('15.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('7381', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('117', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1560', 'O')]</t>
+          <t>[('15.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('117', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('7381', 'B-perOperation'), ('отделение', 'O'), ('17', 'I-perDay'), ('день', 'O'), ('117', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1560', 'O')]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 117 площадь с начала операции 7381
-отделение 17-площадь за день 117 площадь с начала операции 1560</t>
+          <t>15.10
+внесение минеральные удобрений под озимая пшеницу пу юг день 117 от начала 7381
+отделение 17 день 117 от начала 1560</t>
         </is>
       </c>
     </row>
@@ -626,14 +626,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[('15.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('88', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('384', 'B-perOperation'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('88', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('325', 'O')]</t>
+          <t>[('15.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('88', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('384', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('88', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('325', 'O')]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 88 площадь с начала операции 384
-отделение 12- площадь за день 88 площадь с начала операции 325</t>
+          <t>15.10
+внесение противозлакового гербецида на озимая рапсе пу юг день 88 от начала 384
+отделение 12 день 88 от начала 325</t>
         </is>
       </c>
     </row>
@@ -643,27 +643,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('566', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('299', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('247', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1650', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('161', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('534', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('86', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('449', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1051', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('349', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('922', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('255', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('48', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('337', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('48', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('70', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('566', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('299', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('247', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1650', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('161', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('534', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('86', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('449', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('47', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1051', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('47', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('349', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('922', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('23', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('255', 'B-operation'), ('выравнивание', 'O'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('48', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('337', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('48', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('70', 'O')]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 566
-отделение 12 площадь за день 26 площадь с начала операции 299
-предпосевная культура под озимая пшеница
-по пу площадь за день 247 площадь с начала операции 1650
-отделение 11 площадь за день 161 площадь с начала операции 534
-отделение 12 площадь за день 86 площадь с начала операции 449
-дискование сахарная свекла
-по пу площадь за день 47 площадь с начала операции 1051
-отделение 17 площадь за день 47 площадь с начала операции 349
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 23 площадь с начала операции 922
-отделение 17 площадь за день 23 площадь с начала операции 255
-выравнивание зяби под многолетние травы
-по пу площадь за день 48 площадь с начала операции 337
-отделение 12 площадь за день 48 площадь с начала операции 70</t>
+          <t>пахота зяби под многолетние травы
+по пу день 26 от начала 566
+отделение 12 день 26 от начала 299
+предпосевная культура под озимая пшеница
+по пу день 247 от начала 1650
+отделение 11 день 161 от начала 534
+отделение 12 день 86 от начала 449
+дискование сахарная свекла
+по пу день 47 от начала 1051
+отделение 17 день 47 от начала 349
+второе дискование сахарная свекла под пшеница
+по пу день 23 от начала 922
+отделение 17 день 23 от начала 255
+выравнивание зяби под многолетние травы
+по пу день 48 от начала 337
+отделение 12 день 48 от начала 70</t>
         </is>
       </c>
     </row>
@@ -673,20 +673,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('579', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('312', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('957', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('290', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('438', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('171', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('579', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('312', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('957', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('290', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('101', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('438', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('101', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('171', 'O')]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 579
-отделение 12 площадь за день 13 площадь с начала операции 312
-второе дискование сахарная свекла
-по пу площадь за день 35 площадь с начала операции 957
-отделение 17 площадь за день 35 площадь с начала операции 290
-выравнивание зяби под многолетние травы
-по пу площадь за день 101 площадь с начала операции 438
-отделение 12 площадь за день 101 площадь с начала операции 171</t>
+          <t>пахота зяби под многолетние травы
+по пу день 13 от начала 579
+отделение 12 день 13 от начала 312
+второе дискование сахарная свекла
+по пу день 35 от начала 957
+отделение 17 день 35 от начала 290
+выравнивание зяби под многолетние травы
+по пу день 101 от начала 438
+отделение 12 день 101 от начала 171</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[('16.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('444', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('119', 'O')]</t>
+          <t>[('16.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('60', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('444', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('119', 'O')]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 60 площадь с начала операции 444
-отделение 11-площадь за день 60 площадь с начала операции 119</t>
+          <t>16.10
+внесение противозлакового гербецида на озимая рапсе пу юг день 60 от начала 444
+отделение 11 день 60 от начала 119</t>
         </is>
       </c>
     </row>
@@ -713,23 +713,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('7', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1402', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('7', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('141', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('16', 'I-perDay'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('16', 'I-perDay'), ('выравнивание', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('912', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('376', 'O'), ('2-ое', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('59', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1041', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('59', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('349', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('7', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1402', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('7', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('141', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('16', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('16', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('16', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('16', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('912', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('376', 'B-operation'), ('2', 'O'), ('ое', 'I-operation'), ('дискование', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('59', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1041', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('59', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('349', 'O')]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>пахота зяби под сою 
-по пу площадь за день 7 площадь с начала операции 1402
-отделение 17 площадь за день 7 площадь с начала операции 141
-выравнивание зяби под кукурузный силос
-по пу площадь за день 16 площадь с начала операции 16
-отделение 12 площадь за день 16 площадь с начала операции 16
-выравнивание зяби под сахарная свекла
-по пу площадь за день 67 площадь с начала операции 912
-отделение 12 площадь за день 67 площадь с начала операции 376
-2-ое дискование сахарная свекла 
-по пу площадь за день 59 площадь с начала операции 1041
-отделение 17 площадь за день 59 площадь с начала операции 349</t>
+          <t>пахота зяби под сою 
+по пу день 7 от начала 1402
+отделение 17 день 7 от начала 141
+выравнивание зяби под кукурузный силос
+по пу день 16 от начала 16
+отделение 12 день 16 от начала 16
+выравнивание зяби под сахарная свекла
+по пу день 67 от начала 912
+отделение 12 день 67 от начала 376
+2 ое дискование сахарная свекла 
+по пу день 59 от начала 1041
+отделение 17 день 59 от начала 349</t>
         </is>
       </c>
     </row>
@@ -739,23 +739,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1427', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('166', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('445', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('180', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'O'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1142', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('450', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарная', 'O'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1269', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('400', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1427', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('166', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('445', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('26', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('180', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'O'), ('под', 'O'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('41', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1142', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('41', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('450', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'I-operation'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('35', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1269', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('35', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('400', 'O')]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 5 площадь с начала операции 1427
-отделение 17 площадь за день 5 площадь с начала операции 166
-пахота зяби под кукурузный силос
-по пу площадь за день 26 площадь с начала операции 445
-отделение 11 площадь за день 26 площадь с начала операции 180
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 41 площадь с начала операции 1142
-отделение 17 площадь за день 41 площадь с начала операции 450
-выравнивание зяби под сахарная свекла
-по пу площадь за день 35 площадь с начала операции 1269
-отделение 11 площадь за день 35 площадь с начала операции 400</t>
+          <t>пахота зяби под сою
+по пу день 5 от начала 1427
+отделение 17 день 5 от начала 166
+пахота зяби под кукурузный силос
+по пу день 26 от начала 445
+отделение 11 день 26 от начала 180
+второе дискование сахарная свекла под пшеница
+по пу день 41 от начала 1142
+отделение 17 день 41 от начала 450
+выравнивание зяби под сахарная свекла
+по пу день 35 от начала 1269
+отделение 11 день 35 от начала 400</t>
         </is>
       </c>
     </row>
@@ -765,26 +765,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1440', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('179', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('471', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('206', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1237', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('535', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1314', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('410', 'O'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('661', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('41', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1440', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('179', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('471', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('26', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('206', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('85', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1237', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('85', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('535', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1314', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('10', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('410', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('35', 'I-operation'), ('от', 'I-operation'), ('начала', 'O'), ('661', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнухи', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('41', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('41', 'O')]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1440
-отделение 17 площадь за день 13 площадь с начала операции 179
-пахота зяби под кукурузный силос
-по пу площадь за день 26 площадь с начала операции 471
-отделение 11 площадь за день 26 площадь с начала операции 206
-дискование сахарная свекла
-по пу площадь за день 85 площадь с начала операции 1237
-отделение 17 площадь за день 85 площадь с начала операции 535
-выравнивание зяби под сахарная свекла
-по пу площадь за день 45 площадь с начала операции 1314
-отделение 11 площадь за день 10 площадь с начала операции 410
-отделение 12 площадь за день 35 площадь с начала операции 661
-выравнивание зяби под подсолнухи
-отделение 11 площадь за день 41 площадь с начала операции 41</t>
+          <t>пахота зяби под сою
+по пу день 13 от начала 1440
+отделение 17 день 13 от начала 179
+пахота зяби под кукурузный силос
+по пу день 26 от начала 471
+отделение 11 день 26 от начала 206
+дискование сахарная свекла
+по пу день 85 от начала 1237
+отделение 17 день 85 от начала 535
+выравнивание зяби под сахарная свекла
+по пу день 45 от начала 1314
+отделение 11 день 10 от начала 410
+отделение 12 день 35 от начала 661
+выравнивание зяби под подсолнухи
+отделение 11 день 41 от начала 41</t>
         </is>
       </c>
     </row>
@@ -794,16 +794,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[('15.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('7', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('569', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('84%,', 'O'), ('103', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('50', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('849', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('75%,', 'O'), ('290', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('4', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('43', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('917', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('96', 'O'), ('%,', 'O'), ('35', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат.', 'O')]</t>
+          <t>[('15.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('7', 'O'), ('день,', 'O'), ('569', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('84', 'O'), (',', 'O'), ('103', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('50', 'O'), ('день,', 'O'), ('849', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('75', 'O'), (',', 'O'), ('290', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('4', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('43', 'O'), ('день,', 'O'), ('917', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('96', 'O'), (',', 'O'), ('35', 'O'), ('остаток.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат.', 'O')]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.11 мир
-пахота зяби под кукурузу 7 га день, 569 га от начала, 84%, 103 га остаток.
-пахота зяби под сою 50 га день, 849 га от начала, 75%, 290 га остаток.
-работало 4 агрегата.
-выравнивание зяби под сахарную свёклу 43 га день, 917 га от начала, 96 %, 35 га остаток.
+          <t>15.11 мир
+пахота зяби под кукурузу 7 день, 569 от начала, 84 , 103 остаток.
+пахота зяби под сою 50 день, 849 от начала, 75 , 290 остаток.
+работало 4 агрегата.
+выравнивание зяби под сахарную свёклу 43 день, 917 от начала, 96 , 35 остаток.
 работал 1 агрегат.</t>
         </is>
       </c>
@@ -814,14 +814,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[('тск', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('199', 'B-perDay'), ('га/', 'O'), ('с', 'O'), ('нарастающим', 'O'), ('533', 'B-perOperation'), ('га', 'O'), ('(8%)', 'O'), ('остаток', 'O'), ('5564', 'O'), ('га', 'O'), ('осадки', 'O'), ('2', 'O'), ('мм', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('11', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1451', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('11', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('190', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('118', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1355', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('118', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('653', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1177', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('485', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('51', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1365', 'O'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('51', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('461', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнухи', 'O'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('47', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('89', 'O')]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>тск 
-выравнивание зяби под сою 199 га/ с нарастающим 533 га (8%) остаток 5564 га
-осадки 2 мм</t>
+          <t>пахота зяби под сою
+по пу день 11 от начала 1451
+отделение 17 день 11 от начала 190
+дискование сахарная свекла
+по пу день 118 от начала 1355
+отделение 17 день 118 от начала 653
+второе дискование сахарная свекла под пшеница
+по пу день 35 от начала 1177
+отделение 17 день 35 от начала 485
+выравнивание зяби под сахарная свекла
+по пу день 51 от начала 1365
+отделение 11 день 51 от начала 461
+выравнивание зяби под подсолнухи
+отделение 11 день 47 от начала 89</t>
         </is>
       </c>
     </row>
@@ -831,25 +842,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1451', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('190', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1355', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('118', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('653', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1177', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('485', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1365', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('461', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('89', 'O')]</t>
+          <t>[('23.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('216', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('7698', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('216', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1877', 'O')]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 11 площадь с начала операции 1451
-отделение 17 площадь за день 11 площадь с начала операции 190
-дискование сахарная свекла
-по пу площадь за день 118 площадь с начала операции 1355
-отделение 17 площадь за день 118 площадь с начала операции 653
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 35 площадь с начала операции 1177
-отделение 17 площадь за день 35 площадь с начала операции 485
-выравнивание зяби под сахарная свекла
-по пу площадь за день 51 площадь с начала операции 1365
-отделение 11 площадь за день 51 площадь с начала операции 461
-выравнивание зяби под подсолнухи
-отделение 11 площадь за день 47 площадь с начала операции 89</t>
+          <t>23.10
+внесение минеральные удобрений под озимая пшеницу пу юг день 216 от начала 7698
+отделение 17 день 216 от начала 1877</t>
         </is>
       </c>
     </row>
@@ -859,14 +859,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[('23.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('216', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('7698', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('216', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1877', 'O')]</t>
+          <t>[('23.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('134', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('578', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('134', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('253', 'O')]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 216 площадь с начала операции 7698
-отделение 17-площадь за день 216 площадь с начала операции 1877</t>
+          <t>23.10
+внесение противозлакового гербецида на озимая рапсе пу юг день 134 от начала 578
+отделение 11 день 134 от начала 253</t>
         </is>
       </c>
     </row>
@@ -876,14 +876,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[('23.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('134', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('578', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('134', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('253', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1464', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('203', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('36', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1391', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('25', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('11', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('664', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('111', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1288', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('111', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('596', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('30', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('1395', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('491', 'O')]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 134 площадь с начала операции 578
-отделение 11-площадь за день 134 площадь с начала операции 253</t>
+          <t>пахота зяби под сою
+по пу день 13 от начала 1464
+отделение 17 день 13 от начала 203
+дискование сахарная свекла
+по пу день 36 от начала 1391
+отделение 16 день 25 от начала 25
+отделение 17 день 11 от начала 664
+второе дискование сахарная свекла под пшеница
+по пу день 111 от начала 1288
+отделение 17 день 111 от начала 596
+выравнивание зяби под сахарная свекла
+по пу день 30 от начала 1395
+отделение 11 день 30 от начала 491</t>
         </is>
       </c>
     </row>
@@ -893,24 +903,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1464', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('203', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('36', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1391', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('25', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('664', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('111', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1288', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('111', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('596', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1395', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('491', 'O')]</t>
+          <t>[('19.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('8', 'O'), ('день,', 'O'), ('672', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('100', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('70', 'O'), ('день,', 'O'), ('1009', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('89', 'O'), (',', 'O'), ('130', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('3', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('15', 'O'), ('день,', 'O'), ('15', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('2', 'O'), (',', 'O'), ('остаток', 'O'), ('691га.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O')]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1464
-отделение 17 площадь за день 13 площадь с начала операции 203
-дискование сахарная свекла
-по пу площадь за день 36 площадь с начала операции 1391
-отделение 16 площадь за день 25 площадь с начала операции 25
-отделение 17 площадь за день 11 площадь с начала операции 664
-второе дискование сахарная свекла под пшеница
-по пу площадь за день 111 площадь с начала операции 1288
-отделение 17 площадь за день 111 площадь с начала операции 596
-выравнивание зяби под сахарная свекла
-по пу площадь за день 30 площадь с начала операции 1395
-отделение 11 площадь за день 30 площадь с начала операции 491</t>
+          <t>19.11 мир
+пахота зяби под кукурузу 8 день, 672 от начала, 100 
+пахота зяби под сою 70 день, 1009 от начала, 89 , 130 остаток.
+работало 3 агрегата.
+выравнивание зяби под подсолнечник 15 день, 15 от начала, 2 , остаток 691га. работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -920,14 +922,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[('тск', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('187', 'B-perDay'), ('га/', 'O'), ('с', 'O'), ('нарастающим', 'O'), ('740', 'B-perOperation'), ('га', 'O'), ('(13%)', 'O'), ('остаток', 'O'), ('5357', 'O'), ('га', 'O'), ('осадки', 'O'), ('1', 'I-perDay'), ('мм', 'O')]</t>
+          <t>[('24.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('108', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('686', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('108', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('361', 'O')]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>тск 
-выравнивание зяби под сою 187 га/ с нарастающим 740 га (13%) остаток 5357 га
-осадки 1 мм</t>
+          <t>24.10
+внесение противозлакового гербецида на озимая рапсе пу юг день 108 от начала 686
+отделение 11 день 108 от начала 361</t>
         </is>
       </c>
     </row>
@@ -937,16 +939,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[('19.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('8', 'O'), ('га', 'O'), ('день,', 'O'), ('672', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('100%', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('70', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('1009', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('89%,', 'O'), ('130', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('3', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('15', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('15', 'I-perDay'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('2%,', 'O'), ('остаток', 'O'), ('691га.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O')]</t>
+          <t>[('24.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('123', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('7821', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('123', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1123', 'O')]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19.11 мир
-пахота зяби под кукурузу 8 га день, 672 га от начала, 100%
-пахота зяби под сою 70 га день, 1009 га от начала, 89%, 130 га остаток.
-работало 3 агрегата.
-выравнивание зяби под подсолнечник 15 га день, 15 га от начала, 2%, остаток 691га. работал 1 агрегат</t>
+          <t>24.10
+внесение минеральные удобрений под озимая пшеницу пу юг день 123 от начала 7821
+отделение 16 день 123 от начала 1123</t>
         </is>
       </c>
     </row>
@@ -956,14 +956,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[('24.10', 'B-data'), ('внесение', 'B-operation'), ('противозлакового', 'I-operation'), ('гербецида', 'I-operation'), ('на', 'O'), ('озимая', 'B-plant'), ('рапсе', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('108', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('686', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('108', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('361', 'O')]</t>
+          <t>[('17.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('206', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('319', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('119', 'O'), ('от', 'O'), ('начала', 'O'), ('119', 'O'), ('отделение', 'O'), ('17', 'I-data'), ('день', 'O'), ('87', 'O'), ('от', 'O'), ('начала', 'O'), ('87', 'O')]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 108 площадь с начала операции 686
-отделение 11-площадь за день 108 площадь с начала операции 361</t>
+          <t>17.07
+внесение минеральные удобрений под озимая рапс пу юг день 206 от начала 319
+отделение 16 день 119 от начала 119
+отделение 17 день 87 от начала 87</t>
         </is>
       </c>
     </row>
@@ -973,14 +974,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[('24.10', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеницу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('7821', 'O'), ('отделение', 'B-department'), ('16-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1123', 'O')]</t>
+          <t>[('17.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('83', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('739', 'B-perOperation'), ('отделение', 'O'), ('17', 'I-data'), ('день', 'O'), ('83', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('83', 'I-perDay'), ('внесение', 'I-operation'), ('минеральных', 'B-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'I-department'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('320', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('219', 'O')]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 123 площадь с начала операции 7821
-отделение 16-площадь за день 123 площадь с начала операции 1123</t>
+          <t>17.07
+внесение минеральные удобрений под сахарная свёклу пу юг день 83 от начала 739
+отделение 17 день 83 от начала 83
+внесение минеральных удобрений под озимая ячмень пу юг день 80 от начала 320
+отделение 12 день 80 от начала 219</t>
         </is>
       </c>
     </row>
@@ -990,15 +993,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[('17.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('206', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('319', 'B-perOperation'), ('отделение', 'B-department'), ('16-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('119', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('119', 'O'), ('отделение', 'I-department'), ('17-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('87', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('87', 'O')]</t>
+          <t>[('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('20', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('8497', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('20', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1793', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('112', 'O'), ('от', 'O'), ('начала', 'O'), ('817', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('112', 'O'), ('от', 'O'), ('начала', 'O'), ('594', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'B-department'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('61', 'O'), ('от', 'O'), ('начала', 'O'), ('352', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('32', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('29', 'O'), ('от', 'O'), ('начала', 'O'), ('219', 'B-operation'), ('дискование', 'I-operation'), ('кукурузы', 'B-plant'), ('силос', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('119', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('338', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('37', 'O'), ('от', 'O'), ('начала', 'O'), ('37', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('82', 'O'), ('от', 'O'), ('начала', 'O'), ('301', 'B-operation'), ('выравнивание', 'I-operation'), ('многолетние', 'O'), ('травы', 'B-plant'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('пшеница', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('44', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('99', 'B-plant'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('многолетние', 'O'), ('травы', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('16', 'O'), ('от', 'O'), ('начала', 'O'), ('340', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('16', 'O'), ('от', 'O'), ('начала', 'O'), ('169', 'B-plant'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('22', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('59', 'I-operation'), ('чизлование', 'O'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'I-department'), ('дракула', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'O'), ('начала', 'O'), ('222', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'O'), ('начала', 'O'), ('91', 'O'), ('прикат', 'O'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'I-department'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('49', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('141', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('40', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('9', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('101', 'O')]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17.07
-внесение минеральные удобрений под озимая рапс пу юг площадь за день 206 площадь с начала операции 319
-отделение 16- площадь за день 119 площадь с начала операции 119
-отделение 17-площадь за день 87 площадь с начала операции 87</t>
+          <t>дискование озимая пшеницы 
+по пу день 20 от начала 8497
+отделение 17 день 20 от начала 1793
+второе дискование под сахарная свекла
+по пу день 112 от начала 817
+отделение 16 день 112 от начала 594
+второе дискование под озимая ячмень 
+по пу день 61 от начала 352
+отделение 11 день 32 от начала 32
+отделение 12 день 29 от начала 219
+дискование кукурузы силос
+по пу день 119 от начала 338
+отделение 12 день 37 от начала 37
+отделение 17 день 82 от начала 301
+выравнивание многолетние травы под озимая пшеница
+отделение 11 день 44 от начала 99
+пахота под многолетние травы
+по пу день 16 от начала 340
+отделение 11 день 16 от начала 169
+пахота под сахарная свекла
+отделение 12 день 22 от начала 59
+чизлование под озимая ячмень
+ дракула 
+по пу день 91 от начала 222
+отделение 12 день 91 от начала 91
+прикат под озимая ячмень
+по пу день 49 от начала 141 
+отделение 12 день 40 от начала 40
+отделение 16 день 9 от начала 101</t>
         </is>
       </c>
     </row>
@@ -1008,16 +1036,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[('17.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('739', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('83', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('83', 'I-perDay'), ('внесение', 'I-operation'), ('минеральных', 'B-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('320', 'B-perOperation'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('80', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O')]</t>
+          <t>[('19.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('120', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('857', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('120', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('551', 'O')]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 83 площадь с начала операции 739
-отделение 17-площадь за день 83 площадь с начала операции 83
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 80 площадь с начала операции 320
-отделение 12-площадь за день 80 площадь с начала операции 219</t>
+          <t>19.07
+внесение минеральные удобрений под сахарная свёклу пу юг день 120 от начала 857
+отделение 16 день 120 от начала 551</t>
         </is>
       </c>
     </row>
@@ -1027,40 +1053,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8497', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1793', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('112', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('817', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('112', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('594', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('61', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('32', 'O'), ('отделение', 'I-department'), ('12', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('119', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('338', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('37', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('37', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('301', 'O'), ('выравнивание', 'B-operation'), ('многолетние', 'I-operation'), ('травы', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('44', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'I-operation'), ('травы', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('340', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('169', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'I-department'), ('12', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('59', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('222', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('91', 'I-perDay'), ('прикат', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('49', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('141', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('40', 'I-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('9', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('101', 'O')]</t>
+          <t>[('19.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('562', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('242', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('242', 'I-perDay')]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 20 площадь с начала операции 8497
-отделение 17 площадь за день 20 площадь с начала операции 1793
-второе дискование под сахарная свекла
-по пу площадь за день 112 площадь с начала операции 817
-отделение 16 площадь за день 112 площадь с начала операции 594
-второе дискование под озимая ячмень 
-по пу площадь за день 61 площадь с начала операции 352
-отделение 11 площадь за день 32 площадь с начала операции 32
-отделение 12 площадь за день 29 площадь с начала операции 219
-дискование кукурузный силос
-по пу площадь за день 119 площадь с начала операции 338
-отделение 12 площадь за день 37 площадь с начала операции 37
-отделение 17 площадь за день 82 площадь с начала операции 301
-выравнивание многолетние травы под озимая пшеница
-отделение 11 площадь за день 44 площадь с начала операции 99
-пахота под многолетние травы
-по пу площадь за день 16 площадь с начала операции 340
-отделение 11 площадь за день 16 площадь с начала операции 169
-пахота под сахарная свекла
-отделение 12 площадь за день 22 площадь с начала операции 59
-чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 91 площадь с начала операции 222
-отделение 12 площадь за день 91 площадь с начала операции 91
-прикат под озимая ячмень
-по пу площадь за день 49 площадь с начала операции 141 
-отделение 12 площадь за день 40 площадь с начала операции 40
-отделение 16 площадь за день 9 площадь с начала операции 101</t>
+          <t>19.07
+внесение минеральных удобрений под озимая ячмень пу юг день 242 от начала 562
+отделение 11 день 242 от начала 242</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1070,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[('19.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('120', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('857', 'B-perOperation'), ('отделение', 'B-department'), ('16-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('120', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('551', 'O')]</t>
+          <t>[('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('8532', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1828', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('97', 'O'), ('от', 'O'), ('начала', 'O'), ('914', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('97', 'O'), ('от', 'O'), ('начала', 'O'), ('691', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'B-department'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('117', 'O'), ('от', 'O'), ('начала', 'O'), ('469', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('117', 'O'), ('от', 'O'), ('начала', 'O'), ('149', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('рапс', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('29', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('142', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('29', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('29', 'I-perOperation'), ('дискование', 'I-operation'), ('кукурузы', 'B-department'), ('силос', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('142', 'O'), ('от', 'O'), ('начала', 'O'), ('480', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('75', 'O'), ('от', 'O'), ('начала', 'O'), ('112', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('67', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('368', 'B-plant'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('многолетние', 'O'), ('травы', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('21', 'O'), ('от', 'O'), ('начала', 'O'), ('361', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('18', 'O'), ('от', 'O'), ('начала', 'O'), ('187', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('3', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('3', 'I-perDay'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'O'), ('начала', 'O'), ('81', 'B-plant'), ('чизлование', 'O'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'I-department'), ('дракула', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'O'), ('начала', 'O'), ('286', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'O'), ('начала', 'O'), ('155', 'O')]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 120 площадь с начала операции 857
-отделение 16- площадь за день 120 площадь с начала операции 551</t>
+          <t>дискование озимая пшеницы 
+по пу день 35 от начала 8532
+отделение 17 день 35 от начала 1828
+второе дискование под сахарная свекла
+по пу день 97 от начала 914
+отделение 16 день 97 от начала 691
+второе дискование под озимая ячмень 
+по пу день 117 от начала 469
+отделение 11 день 117 от начала 149
+второе дискование под рапс
+по пу день 29 от начала 142
+отделение 16 день 29 от начала 29
+дискование кукурузы силос
+по пу день 142 от начала 480
+отделение 12 день 75 от начала 112
+отделение 17 день 67 от начала 368
+пахота под многолетние травы
+по пу день 21 от начала 361
+отделение 11 день 18 от начала 187
+отделение 17 день 3 от начала 3
+пахота под сахарная свекла
+отделение 12 день 22 от начала 81
+чизлование под озимая ячмень
+ дракула 
+по пу день 64 от начала 286
+отделение 12 день 64 от начала 155</t>
         </is>
       </c>
     </row>
@@ -1087,14 +1110,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[('19.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('562', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('242', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('242', 'I-perDay')]</t>
+          <t>[('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('95', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('8627', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('95', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1923', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('151', 'O'), ('от', 'O'), ('начала', 'O'), ('1065', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('151', 'O'), ('от', 'O'), ('начала', 'O'), ('842', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'B-department'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('136', 'O'), ('от', 'O'), ('начала', 'O'), ('605', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('70', 'O'), ('от', 'O'), ('начала', 'O'), ('219', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('66', 'O'), ('от', 'O'), ('начала', 'O'), ('285', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('рапс', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('202', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('89', 'B-plant'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('многолетние', 'O'), ('травы', 'B-perDay'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('386', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('28', 'I-operation'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('12', 'B-perOperation'), ('день', 'O'), ('24', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('105', 'B-plant'), ('чизлование', 'I-plant'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'I-department'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'O'), ('начала', 'O'), ('350', 'O'), ('отделение', 'O'), ('12', 'I-perOperation'), ('день', 'O'), ('64', 'O'), ('от', 'O'), ('начала', 'O'), ('219', 'O')]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 242 площадь с начала операции 562
-отделение 11-площадь за день 242 площадь с начала операции 242</t>
+          <t>дискование озимая пшеницы 
+по пу день 95 от начала 8627
+отделение 17 день 95 от начала 1923
+второе дискование под сахарная свекла
+по пу день 151 от начала 1065
+отделение 16 день 151 от начала 842
+второе дискование под озимая ячмень 
+по пу день 136 от начала 605
+отделение 11 день 70 от начала 219
+отделение 11 день 66 от начала 285
+второе дискование под рапс
+по пу день 60 от начала 202
+отделение 16 день 60 от начала 89
+пахота под многолетние травы
+по пу день 25 от начала 386
+отделение 17 день 25 от начала 28
+пахота под сахарная свекла
+отделение 12 день 24 от начала 105
+чизлование под озимая ячмень
+по пу день 64 от начала 350
+отделение 12 день 64 от начала 219</t>
         </is>
       </c>
     </row>
@@ -1104,20 +1145,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[('север', 'B-department'), ('отд7', 'B-department'), ('пахота', 'B-operation'), ('с', 'I-department'), ('свекла', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('501', 'B-perOperation'), ('отд20', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('61', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('793', 'B-perOperation'), ('отделение', 'O'), ('3', 'I-perOperation'), ('пахота', 'I-operation'), ('подс.площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('231', 'B-perOperation'), ('по', 'O'), ('пу', 'O'), ('231', 'I-perOperation'), ('дискование', 'B-operation'), ('к.', 'B-plant'), ('сил', 'I-plant'), ('отделение', 'O'), ('7.', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('пу-', 'O'), ('484', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('езубов', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('с.', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('10', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('203', 'B-perOperation'), ('пу-1065га', 'O')]</t>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('640', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('297', 'O')]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>север 
-отд7 пахота с свекла площадь за день 41 площадь с начала операции 501
-отд20 площадь за день 20 площадь с начала операции 281 по пу площадь за день 61 площадь с начала операции 793
-отделение 3 пахота подс.площадь за день 60 площадь с начала операции 231
-по пу 231
-дискование к. сил отделение 7. площадь за день 32 площадь с начала операции 352
-пу- 484
-дискование под озимая пшеница езубов площадь за день 20 площадь с начала операции 281
-дискование под с. свекла отделение 10 площадь за день 83 площадь с начала операции 203 пу-1065га</t>
+          <t>21.07
+внесение минеральных удобрений под озимая ячмень пу юг день 78 от начала 640
+отделение 12 день 78 от начала 297</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1162,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[('внесение', 'B-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('рапс', 'O'), ('отделение', 'B-department'), ('7', 'I-department'), ('-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('138', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('270', 'B-perOperation'), ('дисклвание', 'O'), ('под', 'O'), ('рапс', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('172', 'O'), ('дискование', 'B-operation'), ('после', 'O'), ('кукурузный', 'B-plant'), ('сил', 'I-plant'), ('отделение', 'I-department'), ('7-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('по', 'O'), ('пу', 'O'), ('484га', 'O')]</t>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('220', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1077', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('118', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('102', 'O'), ('от', 'O'), ('начала', 'O'), ('653', 'O')]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>внесение удобрений под рапс отделение 7 -площадь за день 138 площадь с начала операции 270
-дисклвание под рапс площадь за день 40 площадь с начала операции 172
-дискование после кукурузный сил отделение 7-площадь за день 32 площадь с начала операции 352 по пу 484га</t>
+          <t>21.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 220 от начала 1077
+отделение 12 день 118 от начала 234
+отделение 16 день 102 от начала 653</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1180,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8532', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1828', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('914', 'B-perOperation'), ('отделение', 'O'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('691', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('469', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('149', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('142', 'B-perOperation'), ('отделение', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('29', 'I-perDay'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('142', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('480', 'B-perOperation'), ('отделение', 'O'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('112', 'O'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('368', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('361', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('187', 'O'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('3', 'I-perDay'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('81', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('286', 'B-perOperation'), ('отделение', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('155', 'B-perOperation')]</t>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('103', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('422', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('103', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('222', 'O')]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 35 площадь с начала операции 8532
-отделение 17 площадь за день 35 площадь с начала операции 1828
-второе дискование под сахарная свекла
-по пу площадь за день 97 площадь с начала операции 914
-отделение 16 площадь за день 97 площадь с начала операции 691
-второе дискование под озимая ячмень 
-по пу площадь за день 117 площадь с начала операции 469
-отделение 11 площадь за день 117 площадь с начала операции 149
-второе дискование под рапс
-по пу площадь за день 29 площадь с начала операции 142
-отделение 16 площадь за день 29 площадь с начала операции 29
-дискование кукурузный силос
-по пу площадь за день 142 площадь с начала операции 480
-отделение 12 площадь за день 75 площадь с начала операции 112
-отделение 17 площадь за день 67 площадь с начала операции 368
-пахота под многолетние травы
-по пу площадь за день 21 площадь с начала операции 361
-отделение 11 площадь за день 18 площадь с начала операции 187
-отделение 17 площадь за день 3 площадь с начала операции 3
-пахота под сахарная свекла
-отделение 12 площадь за день 22 площадь с начала операции 81
-чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 64 площадь с начала операции 286
-отделение 12 площадь за день 64 площадь с начала операции 155</t>
+          <t>21.07
+внесение минеральные удобрений под озимая рапс пу юг день 103 от начала 422
+отделение 16 день 103 от начала 222</t>
         </is>
       </c>
     </row>
@@ -1184,33 +1197,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8627', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1923', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('151', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1065', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('151', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('842', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('136', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('605', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('66', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('285', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('202', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('89', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('386', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('28', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('105', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('350', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O')]</t>
+          <t>[('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('640', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('297', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('54', 'O'), ('от', 'O'), ('начала', 'O'), ('1119', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('54', 'O'), ('от', 'O'), ('начала', 'O'), ('170', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('рапс', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('262', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('149', 'B-operation'), ('дискование', 'I-operation'), ('кукурузы', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('30', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('510', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('30', 'I-perOperation'), ('пахота', 'B-plant'), ('под', 'O'), ('многолетние', 'O'), ('травы', 'B-perDay'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('26', 'O'), ('от', 'O'), ('начала', 'O'), ('412', 'O'), ('отделение', 'O'), ('17', 'I-operation'), ('день', 'O'), ('26', 'O'), ('от', 'O'), ('начала', 'O'), ('54', 'O'), ('пахота', 'I-plant'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('13', 'O'), ('от', 'O'), ('начала', 'O'), ('118', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('13', 'O'), ('от', 'O'), ('начала', 'O'), ('13', 'O'), ('чизлование', 'B-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('дракула', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('389', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('258', 'B-operation'), ('прикат', 'B-plant'), ('многолетние', 'O'), ('травы', 'I-perDay'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('60', 'O')]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 95 площадь с начала операции 8627
-отделение 17 площадь за день 95 площадь с начала операции 1923
-второе дискование под сахарная свекла
-по пу площадь за день 151 площадь с начала операции 1065
-отделение 16 площадь за день 151 площадь с начала операции 842
-второе дискование под озимая ячмень 
-по пу площадь за день 136 площадь с начала операции 605
-отделение 11 площадь за день 70 площадь с начала операции 219
-отделение 11 площадь за день 66 площадь с начала операции 285
-второе дискование под рапс
-по пу площадь за день 60 площадь с начала операции 202
-отделение 16 площадь за день 60 площадь с начала операции 89
-пахота под многолетние травы
-по пу площадь за день 25 площадь с начала операции 386
-отделение 17 площадь за день 25 площадь с начала операции 28
-пахота под сахарная свекла
-отделение 12 площадь за день 24 площадь с начала операции 105
-чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 64 площадь с начала операции 350
-отделение 12 площадь за день 64 площадь с начала операции 219</t>
+          <t>второе дискование под озимая ячмень
+по пу день 35 от начала 640
+отделение 11 день 23 от начала 242
+отделение 12 день 12 от начала 297
+второе дискование под сахарная свекла
+по пу день 54 от начала 1119
+отделение 12 день 54 от начала 170
+второе дискование под озимая рапс
+по пу день 60 от начала 262
+отделение 16 день 60 от начала 149
+дискование кукурузы силос
+по пу день 30 от начала 510
+отделение 11 день 30 от начала 30
+пахота под многолетние травы
+по пу день 26 от начала 412
+отделение 17 день 26 от начала 54
+пахота под сахарная свекла
+по пу день 13 от начала 118
+отделение 11 день 13 от начала 13
+чизлование под озимая ячмень
+ дракула 
+по пу день 39 от начала 389
+отделение 12 день 39 от начала 258
+прикат многолетние травы под озимая пшеница
+отделение 11 день 60 от начала 60</t>
         </is>
       </c>
     </row>
@@ -1220,14 +1236,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O')]</t>
+          <t>[('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('19', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('8646', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1942', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('1179', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('230', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('рапс', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('102', 'O'), ('от', 'O'), ('начала', 'O'), ('364', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('102', 'O'), ('от', 'O'), ('начала', 'O'), ('251', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('644', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('4', 'I-perOperation'), ('дискование', 'I-operation'), ('кукурузы', 'B-department'), ('силос', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('70', 'O'), ('от', 'O'), ('начала', 'O'), ('580', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('70', 'O'), ('от', 'O'), ('начала', 'O'), ('100', 'O'), ('чизлование', 'B-plant'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'O'), ('начала', 'O'), ('456', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('28', 'O'), ('от', 'O'), ('начала', 'O'), ('28', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('39', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('297', 'B-plant'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('многолетние', 'O'), ('травы', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('2', 'O'), ('от', 'O'), ('начала', 'O'), ('414', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('2', 'O'), ('от', 'O'), ('начала', 'O'), ('56', 'O'), ('пахота', 'I-plant'), ('под', 'I-plant'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('137', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('8', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('21', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('11', 'O'), ('от', 'O'), ('начала', 'O'), ('116', 'O'), ('прикат', 'O'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('ячмень', 'O'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('179', 'O'), ('от', 'O'), ('начала', 'O'), ('320', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('179', 'O'), ('от', 'O'), ('начала', 'O'), ('219', 'B-plant'), ('прикат', 'O'), ('многолетние', 'O'), ('травы', 'O'), ('под', 'I-plant'), ('озимая', 'I-plant'), ('пшеница', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('39', 'I-operation'), ('от', 'O'), ('начала', 'O'), ('99', 'O')]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 78 площадь с начала операции 640
-отделение 12-площадь за день 78 площадь с начала операции 297</t>
+          <t>дискование озимая пшеницы 
+по пу день 19 от начала 8646
+отделение 17 день 19 от начала 1942
+второе дискование под сахарная свекла
+по пу день 60 от начала 1179
+отделение 12 день 60 от начала 230
+второе дискование под озимая рапс
+по пу день 102 от начала 364
+отделение 16 день 102 от начала 251
+второе дискование под озимая ячмень
+по пу день 4 от начала 644
+отделение 17 день 4 от начала 4
+дискование кукурузы силос
+по пу день 70 от начала 580
+отделение 11 день 70 от начала 100
+чизлование под озимая ячмень
+по пу день 67 от начала 456
+отделение 11 день 28 от начала 28
+отделение 12 день 39 от начала 297
+пахота под многолетние травы
+по пу день 2 от начала 414
+отделение 17 день 2 от начала 56
+пахота под сахарная свекла
+по пу день 19 от начала 137
+отделение 11 день 8 от начала 21
+отделение 12 день 11 от начала 116
+прикат под озимая ячмень
+по пу день 179 от начала 320
+отделение 12 день 179 от начала 219
+прикат многолетние травы под озимая пшеница
+отделение 11 день 39 от начала 99</t>
         </is>
       </c>
     </row>
@@ -1237,15 +1281,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('220', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1077', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('118', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('234', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-data'), ('за', 'O'), ('день', 'O'), ('102', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('653', 'O')]</t>
+          <t>[('25.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('день', 'O'), ('69', 'O'), ('от', 'O'), ('начала', 'O'), ('819', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('110', 'O'), ('от', 'O'), ('начала', 'O'), ('179', 'O')]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 220 площадь с начала операции 1077
-отделение 12-площадь за день 118 площадь с начала операции 234
-отделение 16-площадь за день 102 площадь с начала операции 653</t>
+          <t>25.07
+внесение минеральных удобрений под озимая ячмень пу юг день 69 от начала 819
+отделение 17 день 110 от начала 179</t>
         </is>
       </c>
     </row>
@@ -1255,14 +1298,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('422', 'B-perOperation'), ('отделение', 'B-department'), ('16-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('103', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('222', 'O')]</t>
+          <t>[('26.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('80', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1157', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('80', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('314', 'O')]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21.07
-внесение минеральные удобрений под озимая рапс пу юг площадь за день 103 площадь с начала операции 422
-отделение 16-площадь за день 103 площадь с начала операции 222</t>
+          <t>26.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 80 от начала 1157
+отделение 12 день 80 от начала 314</t>
         </is>
       </c>
     </row>
@@ -1272,36 +1315,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[('2-е', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('242', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1119', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('262', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('149', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('510', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('30', 'I-perDay'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('412', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('54', 'I-perDay'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('118', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('13', 'I-perDay'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('389', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('258', 'O'), ('прикат', 'B-operation'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('60', 'I-perDay')]</t>
+          <t>[('пу', 'O'), ('юг', 'B-department'), ('3.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('2657', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('31', 'O'), ('от', 'O'), ('начала', 'O'), ('705', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('99', 'O'), ('от', 'O'), ('начала', 'O'), ('687', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('599', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('50', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('167', 'O'), ('от', 'O'), ('начала', 'O'), ('399', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('73', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('117', 'O'), ('от', 'O'), ('начала', 'O'), ('156', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-perDay'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('399', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('334', 'B-department'), ('посев', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('94', 'O'), ('от', 'O'), ('начала', 'O'), ('99', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('94', 'O'), ('от', 'O'), ('начала', 'O'), ('99', 'O'), ('закончили', 'B-operation'), ('прокатывание', 'B-plant'), ('посевов', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('94', 'O'), ('от', 'O'), ('начала', 'O'), ('99', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('94', 'O'), ('от', 'O'), ('начала', 'O'), ('99', 'O'), ('закончили', 'I-operation')]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2-е дискование под озимая ячмень
-по пу площадь за день 35 площадь с начала операции 640
-отделение 11 площадь за день 23 площадь с начала операции 242
-отделение 12 площадь за день 12 площадь с начала операции 297
-второе дискование под сахарная свекла
-по пу площадь за день 54 площадь с начала операции 1119
-отделение 12 площадь за день 54 площадь с начала операции 170
-второе дискование под озимая рапс
-по пу площадь за день 60 площадь с начала операции 262
-отделение 16 площадь за день 60 площадь с начала операции 149
-дискование кукурузный силос
-по пу площадь за день 30 площадь с начала операции 510
-отделение 11 площадь за день 30 площадь с начала операции 30
-пахота под многолетние травы
-по пу площадь за день 26 площадь с начала операции 412
-отделение 17 площадь за день 26 площадь с начала операции 54
-пахота под сахарная свекла
-по пу площадь за день 13 площадь с начала операции 118
-отделение 11 площадь за день 13 площадь с начала операции 13
-чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 39 площадь с начала операции 389
-отделение 12 площадь за день 39 площадь с начала операции 258
-прикат многолетние травы под озимая пшеница
-отделение 11 площадь за день 60 площадь с начала операции 60</t>
+          <t>пу юг 3.03
+выравнивание зяби под сахарная свекла
+по пу день 130 от начала 2657
+отделение 11 день 31 от начала 705
+отделение 17 день 99 от начала 687
+выравнивание зяби под подсолнечник
+по пу день 50 от начала 599
+отделение 11 день 50 от начала 50
+выравнивание зяби по кукурузный силос
+по пу день 167 от начала 399
+отделение 11 день 50 от начала 73
+отделение 17 день 117 от начала 156
+выравнивание зяби под сою 
+по пу день 45 от начала 399
+отделение 16 день 45 от начала 334
+посев овса 
+по пу день 94 от начала 99
+отделение 11 день 94 от начала 99 закончили
+прокатывание посевов овса 
+по пу день 94 от начала 99
+отделение 11 день 94 от начала 99 закончили</t>
         </is>
       </c>
     </row>
@@ -1311,42 +1350,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8646', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1942', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1179', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('230', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('102', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('364', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('102', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('251', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('644', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('4', 'I-perOperation'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('580', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('100', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('456', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('28', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('414', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('56', 'I-perOperation'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('137', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('8', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('21', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('116', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('179', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('320', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('179', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O'), ('прикат', 'I-operation'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('99', 'B-perOperation')]</t>
+          <t>[('пу', 'O'), ('юг', 'B-department'), ('4.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('92', 'O'), ('от', 'O'), ('начала', 'O'), ('2749', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('92', 'O'), ('от', 'O'), ('начала', 'O'), ('779', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('125', 'O'), ('от', 'O'), ('начала', 'O'), ('724', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('83', 'O'), ('от', 'O'), ('начала', 'O'), ('133', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('42', 'O'), ('от', 'O'), ('начала', 'O'), ('42', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('86', 'O'), ('от', 'O'), ('начала', 'O'), ('485', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('33', 'O'), ('от', 'O'), ('начала', 'O'), ('106', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('53', 'O'), ('от', 'O'), ('начала', 'O'), ('209', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'O'), ('зерно', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('17', 'O'), ('от', 'O'), ('начала', 'O'), ('588', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('17', 'O'), ('от', 'O'), ('начала', 'O'), ('108', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('459', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'O'), ('начала', 'O'), ('394', 'O')]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 19 площадь с начала операции 8646
-отделение 17 площадь за день 19 площадь с начала операции 1942
-второе дискование под сахарная свекла
-по пу площадь за день 60 площадь с начала операции 1179
-отделение 12 площадь за день 60 площадь с начала операции 230
-второе дискование под озимая рапс
-по пу площадь за день 102 площадь с начала операции 364
-отделение 16 площадь за день 102 площадь с начала операции 251
-второе дискование под озимая ячмень
-по пу площадь за день 4 площадь с начала операции 644
-отделение 17 площадь за день 4 площадь с начала операции 4
-дискование кукурузный силос
-по пу площадь за день 70 площадь с начала операции 580
-отделение 11 площадь за день 70 площадь с начала операции 100
-чизлование под озимая ячмень
-по пу площадь за день 67 площадь с начала операции 456
-отделение 11 площадь за день 28 площадь с начала операции 28
-отделение 12 площадь за день 39 площадь с начала операции 297
-пахота под многолетние травы
-по пу площадь за день 2 площадь с начала операции 414
-отделение 17 площадь за день 2 площадь с начала операции 56
-пахота под сахарная свекла
-по пу площадь за день 19 площадь с начала операции 137
-отделение 11 площадь за день 8 площадь с начала операции 21
-отделение 12 площадь за день 11 площадь с начала операции 116
-прикат под озимая ячмень
-по пу площадь за день 179 площадь с начала операции 320
-отделение 12 площадь за день 179 площадь с начала операции 219
-прикат многолетние травы под озимая пшеница
-отделение 11 площадь за день 39 площадь с начала операции 99</t>
+          <t>пу юг 4.03 
+выравнивание зяби под сахарная свекла
+по пу день 92 от начала 2749
+отделение 17 день 92 от начала 779 
+выравнивание зяби под подсолнечник
+по пу день 125 от начала 724
+отделение 11 день 83 от начала 133
+отделение 17 день 42 от начала 42
+выравнивание зяби по кукурузный силос
+по пу день 86 от начала 485
+отделение 11 день 33 от начала 106
+отделение 17 день 53 от начала 209
+выравнивание зяби под кукурузное зерно
+по пу день 17 от начала 588
+отделение 11 день 17 от начала 108
+выравнивание зяби под сою 
+по пу день 60 от начала 459
+отделение 16 день 60 от начала 394</t>
         </is>
       </c>
     </row>
@@ -1356,30 +1382,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('183', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('24', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('146', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('13', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('417', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('59', 'O'), ('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8686', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2542', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1183', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('234', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('679', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-plant'), ('формирование', 'I-operation'), ('подготовка', 'I-operation'), ('грунта', 'I-operation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсол', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('199', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('923', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('108', 'O'), ('от', 'O'), ('начала', 'O'), ('241', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'O'), ('начала', 'O'), ('133', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('2827', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('857', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('121', 'O'), ('от', 'O'), ('начала', 'O'), ('580', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('80', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('41', 'O'), ('от', 'O'), ('начала', 'O'), ('381', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('528', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('149', 'O')]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>пахота под сахарная свекла
-по пу площадь за день 40 площадь с начала операции 183
-отделение 11 площадь за день 3 площадь с начала операции 24
-отделение 12 площадь за день 24 площадь с начала операции 146
-отделение 16 площадь за день 13 площадь с начала операции 13
-пахота под многолетние травы
-по пу площадь за день 3 площадь с начала операции 417
-отделение 17 площадь за день 3 площадь с начала операции 59
-дискование озимая пшеницы
-по пу площадь за день 40 площадь с начала операции 8686
-отделение 12 площадь за день 40 площадь с начала операции 2542
-второе дискование под сахарная свекла
-по пу площадь за день 4 площадь с начала операции 1183
-отделение 12 площадь за день 4 площадь с начала операции 234
-второе дискование под озимая ячмень
-по пу площадь за день 35 площадь с начала операции 679
-отделение 17 площадь за день 35 площадь с начала операции 39
-выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 2 площадь с начала операции 2</t>
+          <t>выравнивание зяби под подсол
+по пу день 199 от начала 923
+отделение 11 день 108 от начала 241
+отделение 17 день 91 от начала 133
+выравнивание зяби под сах свекла
+по пу день 78 от начала 2827
+отделение 17 день 78 от начала 857
+выравнивание зяби под сою
+по пу день 121 от начала 580
+отделение 11 день 80 от начала 80
+отделение 16 день 41 от начала 381
+выравнивание зяби под кукурузный силос
+по пу день 43 от начала 528
+отделение 11 день 43 от начала 149</t>
         </is>
       </c>
     </row>
@@ -1389,14 +1410,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[('25.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('69', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('819', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('179', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2851', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('881', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('71', 'O'), ('от', 'O'), ('начала', 'O'), ('994', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('37', 'O'), ('от', 'O'), ('начала', 'O'), ('278', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('34', 'O'), ('от', 'O'), ('начала', 'O'), ('167', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('560', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('241', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('74', 'O'), ('от', 'O'), ('начала', 'O'), ('662', 'O'), ('отделение', 'O'), ('16', 'I-operation'), ('день', 'O'), ('18', 'O'), ('от', 'O'), ('начала', 'O'), ('18', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'O'), ('начала', 'O'), ('124', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('133', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('713', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('113', 'O'), ('от', 'O'), ('начала', 'O'), ('193', 'O'), ('отделение', 'O'), ('16', 'I-operation'), ('день', 'O'), ('20', 'B-operation'), ('от', 'O'), ('начала', 'O'), ('401', 'I-operation'), ('второе', 'I-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'I-plant'), ('зерно', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'O'), ('начала', 'O'), ('56', 'O')]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>25.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 69 площадь с начала операции 819
-отделение 17-площадь за день 110 площадь с начала операции 179</t>
+          <t>выравнивание зяби под сахарная свекла
+по пу день 24 от начала 2851
+отделение 17 день 24 от начала 881
+выравнивание зяби под подсолнухи
+по пу день 71 от начала 994
+отделение 11 день 37 от начала 278
+отделение 17 день 34 от начала 167
+выравнивание под кукурузный силос
+по пу день 32 от начала 560
+отделение 17 день 32 от начала 241
+выравнивание под кукурузное зерно
+по пу день 74 от начала 662
+отделение 16 день 18 от начала 18
+отделение 17 день 56 от начала 124
+выравнивание под сою
+по пу день 133 от начала 713
+отделение 11 день 113 от начала 193
+отделение 16 день 20 от начала 401
+второе выравнивание под кукурузное зерно
+отделение 17 день 56 от начала 56</t>
         </is>
       </c>
     </row>
@@ -1406,39 +1444,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('58', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('37', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('34', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('428', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('70', 'O'), ('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8717', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2573', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('607', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('138', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('386', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('273', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('722', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('82', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('12', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('457', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('59', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('398', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('297', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('153', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('822', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('122', 'O'), ('от', 'O'), ('начала', 'O'), ('352', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('31', 'O'), ('от', 'O'), ('начала', 'O'), ('300', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('73', 'O'), ('от', 'O'), ('начала', 'O'), ('930', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('28', 'O'), ('от', 'O'), ('начала', 'O'), ('327', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('83', 'O')]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>пахота под сахарная свекла
-по пу площадь за день 58 площадь с начала операции 241
-отделение 11 площадь за день 13 площадь с начала операции 37
-отделение 12 площадь за день 24 площадь с начала операции 170
-отделение 16 площадь за день 21 площадь с начала операции 34
-пахота под многолетние травы
-по пу площадь за день 11 площадь с начала операции 428
-отделение 17 площадь за день 11 площадь с начала операции 70
-дискование озимая пшеницы
-по пу площадь за день 31 площадь с начала операции 8717
-отделение 12 площадь за день 31 площадь с начала операции 2573
-дискование кукурузный силос
-по пу площадь за день 26 площадь с начала операции 607
-отделение 12 площадь за день 26 площадь с начала операции 138
-второе дискование под рапс
-по пу площадь за день 22 площадь с начала операции 386
-отделение 16 площадь за день 22 площадь с начала операции 273
-второе дискование под озимая ячмень
-по пу площадь за день 43 площадь с начала операции 722
-отделение 17 площадь за день 43 площадь с начала операции 82
-выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 10 площадь с начала операции 12
-чизлование под озимая ячмень
-по пу площадь за день 30 площадь с начала операции 457
-отделение 11 площадь за день 30 площадь с начала операции 59
-прикат под озимая ячмень 
-по пу площадь за день 78 площадь с начала операции 398
-отделение 12 площадь за день 78 площадь с начала операции 297</t>
+          <t>выравнивание под кукурузный силос
+по пу день 153 от начала 822
+отделение 11 день 122 от начала 352
+отделение 17 день 31 от начала 300
+выравнивание под сою
+по пу день 73 от начала 930
+отделение 11 день 28 от начала 327
+отделение 17 день 45 от начала 83</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1466,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[('26.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1157', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('80', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('314', 'O')]</t>
+          <t>[('10.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('1749', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2559', 'B-perOperation'), ('в', 'I-operation'), ('т.ч', 'O'), ('амазон', 'O'), ('день', 'O'), ('1082', 'O'), ('от', 'O'), ('начала', 'O'), ('1371', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('667', 'O'), ('от', 'O'), ('начала', 'O'), ('1188', 'O'), ('отд11', 'O'), ('день', 'O'), ('307', 'O'), ('от', 'O'), ('начала', 'O'), ('307', 'O'), ('амазон', 'O'), ('день', 'O'), ('307', 'O'), ('от', 'O'), ('начала', 'O'), ('307', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('671', 'O'), ('от', 'O'), ('начала', 'O'), ('671', 'O'), ('амазон', 'O'), ('день', 'O'), ('318', 'O'), ('от', 'O'), ('начала', 'O'), ('318', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('353', 'O'), ('от', 'O'), ('начала', 'O'), ('353', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('462', 'O'), ('от', 'O'), ('начала', 'O'), ('1272', 'O'), ('амазон', 'O'), ('день', 'O'), ('148', 'O'), ('от', 'O'), ('начала', 'O'), ('437', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('314', 'O'), ('от', 'O'), ('начала', 'O'), ('835', 'O'), ('отделение', 'O'), ('17', 'I-perDay'), ('день', 'O'), ('309', 'O'), ('от', 'O'), ('начала', 'O'), ('309', 'O'), ('амазон', 'O'), ('день', 'O'), ('309', 'O'), ('от', 'O'), ('начала', 'O'), ('309', 'O')]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 80 площадь с начала операции 1157
-отделение 12-площадь за день 80 площадь с начала операции 314</t>
+          <t xml:space="preserve">10.03 день
+вторая подкормка озимых, пу юг день 1749 от начала 2559
+ в т.ч амазон день 1082 от начала 1371
+пневмоход день 667 от начала 1188 
+отд11 день 307 от начала 307 амазон день 307 от начала 307 
+отделение 12 день 671 от начала 671 амазон день 318 от начала 318 пневмоход день 353 от начала 353 
+отделение 16 день 462 от начала 1272 амазон день 148 от начала 437 пневмоход день 314 от начала 835 
+отделение 17 день 309 от начала 309 амазон день 309 от начала 309 </t>
         </is>
       </c>
     </row>
@@ -1465,32 +1488,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[('пу', 'O'), ('«юг»', 'O'), ('3.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2657', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('705', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('99', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('687', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('599', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('50', 'I-perDay'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('167', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('399', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('73', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('156', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('399', 'I-perOperation'), ('отделение', 'I-department'), ('16', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('334', 'O'), ('посев', 'B-operation'), ('овса', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('закончили', 'O'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('отделение', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('закончили', 'O')]</t>
+          <t>[('16.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('30', 'B-perDay'), ('день,', 'O'), ('599', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('89', 'O'), (',', 'O'), ('73', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('30', 'I-perDay'), ('день,', 'O'), ('879', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('77', 'O'), (',', 'O'), ('260', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'O'), ('агрегата.', 'O')]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>пу «юг» 3.03
-выравнивание зяби под сахарная свекла
-по пу площадь за день 130 площадь с начала операции 2657
-отделение 11 площадь за день 31 площадь с начала операции 705
-отделение 17 площадь за день 99 площадь с начала операции 687
-выравнивание зяби под подсолнечник
-по пу площадь за день 50 площадь с начала операции 599
-отделение 11 площадь за день 50 площадь с начала операции 50
-выравнивание зяби по кукурузный силос
-по пу площадь за день 167 площадь с начала операции 399
-отделение 11 площадь за день 50 площадь с начала операции 73
-отделение 17 площадь за день 117 площадь с начала операции 156
-выравнивание зяби под сою 
-по пу площадь за день 45 площадь с начала операции 399
-отделение 16 площадь за день 45 площадь с начала операции 334
-посев овса 
-по пу площадь за день 94 площадь с начала операции 99
-отделение 11 площадь за день 94 площадь с начала операции 99 закончили
-прокатывание посевов овса 
-по пу площадь за день 94 площадь с начала операции 99
-отделение площадь за день 94 площадь с начала операции 99 закончили</t>
+          <t>16.11 мир
+пахота зяби под кукурузу 30 день, 599 от начала, 89 , 73 остаток.
+пахота зяби под сою 30 день, 879 от начала, 77 , 260 остаток.
+работало 2 агрегата.</t>
         </is>
       </c>
     </row>
@@ -1500,29 +1506,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[('пу', 'O'), ('«юг»', 'O'), ('4.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('92', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2749', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('92', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('779', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('125', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('724', 'O'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('42', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('42', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('86', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('485', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('33', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('106', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('108', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('459', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('394', 'O')]</t>
+          <t>[('17.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('40', 'B-perDay'), ('день,', 'O'), ('639', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('95', 'O'), (',', 'O'), ('33', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('20', 'O'), ('день,', 'O'), ('899', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('79', 'O'), (',', 'O'), ('240', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'O'), ('агрегата.', 'O')]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>пу «юг» 4.03 
-выравнивание зяби под сахарная свекла
-по пу площадь за день 92 площадь с начала операции 2749
-отделение 17 площадь за день 92 площадь с начала операции 779 
-выравнивание зяби под подсолнечник
-по пу площадь за день 125 площадь с начала операции 724
-отделение 11 площадь за день 83 площадь с начала операции 133
-отделение 17 площадь за день 42 площадь с начала операции 42
-выравнивание зяби по кукурузный силос
-по пу площадь за день 86 площадь с начала операции 485
-отделение 11 площадь за день 33 площадь с начала операции 106
-отделение 17 площадь за день 53 площадь с начала операции 209
-выравнивание зяби под кукурузное зерно
-по пу площадь за день 17 площадь с начала операции 588
-отделение 11 площадь за день 17 площадь с начала операции 108
-выравнивание зяби под сою 
-по пу площадь за день 60 площадь с начала операции 459
-отделение 16 площадь за день 60 площадь с начала операции 394</t>
+          <t>17.11 мир
+пахота зяби под кукурузу 40 день, 639 от начала, 95 , 33 остаток.
+пахота зяби под сою 20 день, 899 от начала, 79 , 240 остаток.
+работало 2 агрегата.</t>
         </is>
       </c>
     </row>
@@ -1532,25 +1524,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[('вырав', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсол', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('199', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('923', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('108', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах/', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2827', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('857', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('121', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('580', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'I-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('381', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('528', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('149', 'O')]</t>
+          <t>[('18.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('25', 'B-perDay'), ('день,', 'O'), ('664', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('99', 'O'), (',', 'O'), ('8', 'I-data'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('40', 'O'), ('день,', 'O'), ('939', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('83', 'O'), (',', 'O'), ('200', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('3', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('45', 'O'), ('день,', 'O'), ('952', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('100', 'O'), ('.', 'I-data'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O')]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>вырав зяби под подсол
-по пу площадь за день 199 площадь с начала операции 923
-отделение 11 площадь за день 108 площадь с начала операции 241
-отделение 17 площадь за день 91 площадь с начала операции 133
-выравнивание зяби под сах/ свекла
-по пу площадь за день 78 площадь с начала операции 2827
-отделение 17 площадь за день 78 площадь с начала операции 857
-выравнивание зяби под сою
-по пу площадь за день 121 площадь с начала операции 580
-отделение 11 площадь за день 80 площадь с начала операции 80
-отделение 16 площадь за день 41 площадь с начала операции 381
-выравнивание зяби под кукурузный силос
-по пу площадь за день 43 площадь с начала операции 528
-отделение 11 площадь за день 43 площадь с начала операции 149</t>
+          <t>18.11 мир
+пахота зяби под кукурузу 25 день, 664 от начала, 99 , 8 остаток.
+пахота зяби под сою 40 день, 939 от начала, 83 , 200 остаток.
+работало 3 агрегата.
+выравнивание зяби под сахарную свёклу 45 день, 952 от начала, 100 . работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -1560,31 +1543,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2851', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('881', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('994', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('37', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('278', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('167', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('560', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('74', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('662', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('18', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('124', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('133', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('713', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('113', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('193', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('второе', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'I-plant'), ('зерно', 'I-plant'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('56', 'I-perOperation')]</t>
+          <t>[('11.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('1606', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('6182', 'B-perOperation'), ('в', 'I-operation'), ('т.ч', 'O'), ('амазон', 'O'), ('день', 'O'), ('1048', 'O'), ('от', 'O'), ('начала', 'O'), ('3682', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('558', 'O'), ('от', 'O'), ('начала', 'O'), ('2500', 'O'), ('отд11', 'O'), ('день', 'O'), ('486', 'O'), ('от', 'O'), ('начала', 'O'), ('1130', 'O'), ('амазон', 'O'), ('день', 'O'), ('356', 'O'), ('от', 'O'), ('начала', 'O'), ('1000', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('130', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('778', 'O'), ('от', 'O'), ('начала', 'O'), ('2216', 'O'), ('амазон', 'O'), ('день', 'O'), ('350', 'O'), ('от', 'O'), ('начала', 'O'), ('952', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('428', 'O'), ('от', 'O'), ('начала', 'O'), ('1264', 'O'), ('отделение', 'O'), ('16', 'I-perDay'), ('день', 'O'), ('0', 'I-data'), ('от', 'O'), ('начала', 'O'), ('1765', 'O'), ('амазон', 'O'), ('день', 'O'), ('0', 'I-data'), ('от', 'O'), ('начала', 'O'), ('659', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('0', 'I-data'), ('от', 'O'), ('начала', 'O'), ('1106', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('1071', 'O'), ('амазон', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('1071', 'O')]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>выравн зяби под сахарная свекла
-по пу площадь за день 24 площадь с начала операции 2851
-отделение 17 площадь за день 24 площадь с начала операции 881
-выравнивание зяби под подсолнухи
-по пу площадь за день 71 площадь с начала операции 994
-отделение 11 площадь за день 37 площадь с начала операции 278
-отделение 17 площадь за день 34 площадь с начала операции 167
-выравнивание под кукурузный силос
-по пу площадь за день 32 площадь с начала операции 560
-отделение 17 площадь за день 32 площадь с начала операции 241
-выравнивание под кукурузное зерно
-по пу площадь за день 74 площадь с начала операции 662
-отделение 16 площадь за день 18 площадь с начала операции 18
-отделение 17 площадь за день 56 площадь с начала операции 124
-выравнивание под сою
-по пу площадь за день 133 площадь с начала операции 713
-отделение 11 площадь за день 113 площадь с начала операции 193
-отделение 16 площадь за день 20 площадь с начала операции 401
-второе выравнивание под кукурузное зерно
-отделение 17 площадь за день 56 площадь с начала операции 56</t>
+          <t xml:space="preserve">11.03 день
+вторая подкормка озимых, пу юг день 1606 от начала 6182
+ в т.ч амазон день 1048 от начала 3682
+пневмоход день 558 от начала 2500 
+отд11 день 486 от начала 1130 амазон день 356 от начала 1000 пневмоход день 130 от начала 130 
+отделение 12 день 778 от начала 2216 амазон день 350 от начала 952 пневмоход день 428 от начала 1264 
+отделение 16 день 0 от начала 1765 амазон день 0 от начала 659 пневмоход день 0 от начала 1106 
+отделение 17 день 342 от начала 1071 амазон день 342 от начала 1071 </t>
         </is>
       </c>
     </row>
@@ -1594,19 +1565,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('153', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('822', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('122', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('352', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('300', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('73', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('930', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('327', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('83', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1096', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('549', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1106', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('503', 'O')]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>выравн под кукурузный силос
-попу площадь за день 153 площадь с начала операции 822
-отделение 11 площадь за день 122 площадь с начала операции 352
-отделение 17 площадь за день 31 площадь с начала операции 300
-выравнивание под сою
-попу площадь за день 73 площадь с начала операции 930
-отделение 11 площадь за день 28 площадь с начала операции 327
-отделение 17 площадь за день 45 площадь с начала операции 83</t>
+          <t>пахота под кукурузы зерно
+по пу день 6 от начала 1096
+отделение 12 день 6 от начала 549
+выравнивание под сою
+по пу день 45 от начала 1106
+отделение 11 день 45 от начала 503</t>
         </is>
       </c>
     </row>
@@ -1616,19 +1585,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[('10.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1749', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2559', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1082', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1371', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('667', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1188)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('307', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('307', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('307', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('307)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('671', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('671(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('318', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('318;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('353', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('353)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('462', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1272(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('148', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('437;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('314', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('835)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('309', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('309(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('309', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('309)', 'O')]</t>
+          <t>[('12.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('129', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('6700', 'B-perOperation'), ('в', 'I-operation'), ('т.ч', 'O'), ('амазон', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('4200', 'O'), ('пневмоход', 'O'), ('день', 'O'), ('0', 'I-data'), ('от', 'O'), ('начала', 'O'), ('2500', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1589', 'O'), ('амазон', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('1589', 'O'), ('вымочки', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('56', 'O')]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 1749 площадь с начала операции 2559
-(в т.ч амазон-площадь за день 1082 площадь с начала операции 1371
-пневмоход-площадь за день 667 площадь с начала операции 1188)
-отд11- площадь за день 307 площадь с начала операции 307 (амазон площадь за день 307 площадь с начала операции 307) 
-отделение 12- площадь за день 671 площадь с начала операции 671( амазон площадь за день 318 площадь с начала операции 318; пневмоход площадь за день 353 площадь с начала операции 353) 
-отделение 16- площадь за день 462 площадь с начала операции 1272( амазон площадь за день 148 площадь с начала операции 437; пневмоход площадь за день 314 площадь с начала операции 835) 
-отделение 17- площадь за день 309 площадь с начала операции 309( амазон площадь за день 309 площадь с начала операции 309)</t>
+          <t xml:space="preserve">12.03 день
+вторая подкормка озимых, пу юг день 129 от начала 6700
+ в т.ч амазон день 129 от начала 4200
+пневмоход день 0 от начала 2500 
+отделение 17 день 129 от начала 1589 амазон день 129 от начала 1589 
+вымочки по пу 56 </t>
         </is>
       </c>
     </row>
@@ -1638,15 +1605,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[('16.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('30', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('599', 'O'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('89%,', 'O'), ('73', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('30', 'I-perDay'), ('га', 'O'), ('день,', 'O'), ('879', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('77%,', 'O'), ('260', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'O'), ('агрегата.', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('14', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1664', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('14', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('897', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('164', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1270', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('95', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('598', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('154', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('34', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('117', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('119', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('119', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('39', 'O'), ('отделение', 'O'), ('16', 'I-perOperation'), ('день', 'O'), ('80', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('80', 'O')]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16.11 мир
-пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
-пахота зяби под сою 30 га день, 879 га от начала, 77%, 260 га остаток.
-работало 2 агрегата.</t>
+          <t>пахота под сою
+по пу день 14 от начала 1664
+отделение 11 день 14 от начала 897
+выравнивание под сою
+по пу день 164 от начала 1270
+отделение 11 день 95 от начала 598
+отделение 12 день 35 от начала 154
+отделение 17 день 34 от начала 117
+предпосевная культура под сахарная свекла
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80</t>
         </is>
       </c>
     </row>
@@ -1656,15 +1631,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[('17.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('40', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('639', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('95%,', 'O'), ('33', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('20', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('899', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('79%,', 'O'), ('240', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'I-perDay'), ('агрегата.', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1388', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('51', 'O'), ('от', 'O'), ('начала', 'O'), ('649', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'O'), ('начала', 'O'), ('221', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('906', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('437', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('265', 'O'), ('от', 'O'), ('начала', 'O'), ('384', 'O'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('47', 'O'), ('от', 'O'), ('начала', 'O'), ('47', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('65', 'O'), ('от', 'O'), ('начала', 'O'), ('104', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('103', 'O'), ('от', 'O'), ('начала', 'O'), ('183', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('50', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свеклы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('107', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('107', 'I-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('29', 'O'), ('от', 'O'), ('начала', 'O'), ('29', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('78', 'O')]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17.11 мир
-пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
-пахота зяби под сою 20 га день, 899 га от начала, 79%, 240 га остаток.
-работало 2 агрегата.</t>
+          <t>выравнивание под сою
+по пу день 118 от начала 1388
+отделение 11 день 51 от начала 649
+отделение 12 день 67 от начала 221
+выравнивание под кукурузы зерно
+по пу день 25 от начала 906
+отделение 12 день 25 от начала 437
+предпосевная культура под сахарная свекла
+по пу день 265 от начала 384
+отделение 11 день 47 от начала 47
+отделение 12 день 65 от начала 104
+отделение 16 день 103 от начала 183
+отделение 17 день 50 от начала 50
+посев сахарная свеклы
+по пу день 107 от начала 107
+отделение 12 день 29 от начала 29
+отделение 16 день 78 от начала 78</t>
         </is>
       </c>
     </row>
@@ -1674,16 +1662,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[('18.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('25', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('664', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('99%,', 'O'), ('8', 'I-data'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('40', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('939', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('83%,', 'O'), ('200', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('3', 'I-perOperation'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('45', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('952', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('100%.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1441', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('672', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('251', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'O'), ('начала', 'O'), ('871', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'O'), ('начала', 'O'), ('401', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'O'), ('начала', 'O'), ('406', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('20', 'O'), ('от', 'O'), ('начала', 'O'), ('67', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('2', 'O'), ('от', 'O'), ('начала', 'O'), ('106', 'B-plant'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('15', 'O'), ('от', 'O'), ('начала', 'O'), ('122', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('5', 'I-perDay'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('10', 'I-plant'), ('от', 'O'), ('начала', 'O'), ('88', 'O')]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18.11 мир
-пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
-пахота зяби под сою 40 га день, 939 га от начала, 83%, 200 га остаток.
-работало 3 агрегата.
-выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. работал 1 агрегат</t>
+          <t>выравнивание под сою
+по пу день 53 от начала 1441
+отделение 11 день 23 от начала 672
+отделение 12 день 30 от начала 251
+выравнивание под кукурузы силос
+по пу день 6 от начала 871
+отделение 11 день 6 от начала 401
+предпосевная культура под сахарная свекла
+по пу день 22 от начала 406
+отделение 11 день 20 от начала 67
+отделение 12 день 2 от начала 106
+посев сахарная свекла
+по пу день 15 от начала 122
+отделение 11 день 5 от начала 5
+отделение 16 день 10 от начала 88</t>
         </is>
       </c>
     </row>
@@ -1693,19 +1691,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[('11.03', 'B-data'), ('ночь', 'B-department'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2017', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('4576', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1263', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2634', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('754', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1942)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('337', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('644', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('337', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('644)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('767', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1438(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('284', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('602;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('483', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('836)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('493', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1765(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('222', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('659;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('271', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('420', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('729(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('420', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('729)', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('куклы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('960', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('24', 'O'), ('от', 'O'), ('начала', 'O'), ('166', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('467', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('877', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('407', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('247', 'O'), ('от', 'O'), ('начала', 'O'), ('653', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('27', 'O'), ('от', 'O'), ('начала', 'O'), ('94', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('101', 'O'), ('от', 'O'), ('начала', 'O'), ('207', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('64', 'O'), ('от', 'O'), ('начала', 'O'), ('247', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('55', 'O'), ('от', 'O'), ('начала', 'O'), ('105', 'B-plant'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('100', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('222', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('17', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('16', 'O'), ('от', 'O'), ('начала', 'O'), ('45', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('62', 'O'), ('от', 'O'), ('начала', 'O'), ('150', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('10', 'O'), ('от', 'O'), ('начала', 'O'), ('10', 'O')]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11.03 ночь
-вторая подкормка озимых, пу "юг" - площадь за день 2017 площадь с начала операции 4576
-(в т.ч амазон-площадь за день 1263 площадь с начала операции 2634
-пневмоход-площадь за день 754 площадь с начала операции 1942)
-отд11- площадь за день 337 площадь с начала операции 644 (амазон площадь за день 337 площадь с начала операции 644) 
-отделение 12- площадь за день 767 площадь с начала операции 1438( амазон площадь за день 284 площадь с начала операции 602; пневмоход площадь за день 483 площадь с начала операции 836) 
-отделение 16- площадь за день 493 площадь с начала операции 1765( амазон площадь за день 222 площадь с начала операции 659; пневмоход площадь за день 271 площадь с начала операции 1106) 
-отделение 17- площадь за день 420 площадь с начала операции 729( амазон площадь за день 420 площадь с начала операции 729)</t>
+          <t>выравнивание под куклы зерно
+по пу день 54 от начала 960
+отделение 11 день 24 от начала 166
+отделение 12 день 30 от начала 467
+выравнивание под кукурузы силос
+по пу день 6 от начала 877
+отделение 11 день 6 от начала 407
+предпосевная культура под сахарная свекла
+по пу день 247 от начала 653
+отделение 11 день 27 от начала 94
+отделение 12 день 101 от начала 207
+отделение 16 день 64 от начала 247
+отделение 17 день 55 от начала 105
+посев сахарная свекла
+по пу день 100 от начала 222
+отделение 11 день 12 от начала 17
+отделение 12 день 16 от начала 45
+отделение 16 день 62 от начала 150
+отделение 17 день 10 от начала 10</t>
         </is>
       </c>
     </row>
@@ -1715,19 +1724,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[('11.03', 'B-data'), ('день', 'B-department'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-perDay'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('1606', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('6182', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('1048', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('3682', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('558', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2500)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('486', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1130', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('356', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1000;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('130', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('130)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('778', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2216(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('350', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('952;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('428', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1264)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1765(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('659;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('342', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1071(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('342', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1071)', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('82', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1042', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('82', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('549', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('907', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('437', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('531', 'O'), ('от', 'O'), ('начала', 'O'), ('1184', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('174', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('260', 'O'), ('от', 'O'), ('начала', 'O'), ('467', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('101', 'O'), ('от', 'O'), ('начала', 'O'), ('348', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('90', 'O'), ('от', 'O'), ('начала', 'O'), ('195', 'B-plant'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('357', 'O'), ('от', 'O'), ('начала', 'O'), ('579', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('97', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('85', 'O'), ('от', 'O'), ('начала', 'O'), ('130', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('81', 'O'), ('от', 'O'), ('начала', 'O'), ('231', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('111', 'O'), ('от', 'O'), ('начала', 'O'), ('121', 'O')]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 1606 площадь с начала операции 6182
-(в т.ч амазон-площадь за день 1048 площадь с начала операции 3682
-пневмоход-площадь за день 558 площадь с начала операции 2500)
-отд11- площадь за день 486 площадь с начала операции 1130 (амазон площадь за день 356 площадь с начала операции 1000; пневмоход площадь за день 130 площадь с начала операции 130) 
-отделение 12- площадь за день 778 площадь с начала операции 2216( амазон площадь за день 350 площадь с начала операции 952; пневмоход площадь за день 428 площадь с начала операции 1264) 
-отделение 16- площадь за день 0 площадь с начала операции 1765( амазон площадь за день 0 площадь с начала операции 659; пневмоход площадь за день 0 площадь с начала операции 1106) 
-отделение 17- площадь за день 342 площадь с начала операции 1071( амазон площадь за день 342 площадь с начала операции 1071)</t>
+          <t>выравнивание под кукурузы зерно
+по пу день 82 от начала 1042
+отделение 12 день 82 от начала 549
+выравнивание под кукурузы силос
+по пу день 30 от начала 907
+отделение 11 день 30 от начала 437
+предпосевная культура под сахарная свекла
+по пу день 531 от начала 1184
+отделение 11 день 80 от начала 174
+отделение 12 день 260 от начала 467
+отделение 16 день 101 от начала 348
+отделение 17 день 90 от начала 195
+посев сахарная свекла
+по пу день 357 от начала 579
+отделение 11 день 80 от начала 97
+отделение 12 день 85 от начала 130
+отделение 16 день 81 от начала 231
+отделение 17 день 111 от начала 121</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1756,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1096', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('549', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('503', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('932', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('462', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('452', 'O'), ('от', 'O'), ('начала', 'O'), ('1636', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('252', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('143', 'O'), ('от', 'O'), ('начала', 'O'), ('610', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('121', 'O'), ('от', 'O'), ('начала', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('110', 'O'), ('от', 'O'), ('начала', 'O'), ('305', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('403', 'O'), ('от', 'O'), ('начала', 'O'), ('982', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('73', 'O'), ('от', 'O'), ('начала', 'O'), ('170', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('139', 'O'), ('от', 'O'), ('начала', 'O'), ('269', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('65', 'O'), ('от', 'O'), ('начала', 'O'), ('296', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('126', 'O'), ('от', 'O'), ('начала', 'O'), ('247', 'O')]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>пахота под кукурузный зерно
-попу площадь за день 6 площадь с начала операции 1096
-отделение 12 площадь за день 6 площадь с начала операции 549
-выравнивание под сою
-попу площадь за день 45 площадь с начала операции 1106
-отделение 11 площадь за день 45 площадь с начала операции 503</t>
+          <t>выравнивание под кукурузы силос
+по пу день 25 от начала 932
+отделение 11 день 25 от начала 462
+предпосевная культура под сахарная свекла
+по пу день 452 от начала 1636
+отделение 11 день 78 от начала 252
+отделение 12 день 143 от начала 610
+отделение 16 день 121 от начала 469 5га вымочки
+отделение 17 день 110 от начала 305
+посев сахарная свекла
+по пу день 403 от начала 982
+отделение 11 день 73 от начала 170
+отделение 12 день 139 от начала 269
+отделение 16 день 65 от начала 296
+отделение 17 день 126 от начала 247</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1785,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[('12.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('6700', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('4200', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2500)', 'O'), ('отделение', 'B-department'), ('17-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1589(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1589)', 'O'), ('вымочки', 'O'), ('попу', 'O'), ('56', 'O'), ('га', 'O')]</t>
+          <t>[('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('211', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1847', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('81', 'O'), ('от', 'O'), ('начала', 'O'), ('333', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('268', 'O'), ('от', 'O'), ('начала', 'O'), ('1250', 'O'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('100', 'O'), ('от', 'O'), ('начала', 'O'), ('270', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('36', 'O'), ('от', 'O'), ('начала', 'O'), ('305', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('132', 'O'), ('от', 'O'), ('начала', 'O'), ('379', 'O')]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 129 площадь с начала операции 6700
-(в т.ч амазон- площадь за день 129 площадь с начала операции 4200
-пневмоход-площадь за день 0 площадь с начала операции 2500)
-отделение 17- площадь за день 129 площадь с начала операции 1589( амазон площадь за день 129 площадь с начала операции 1589)
-вымочки попу 56 га</t>
+          <t>предпосевная культура под сахарная свекла
+по пу день 211 от начала 1847
+отделение 11 день 81 от начала 333
+отделение 17 день 130 от начала 435
+посев сахарная свекла
+по пу день 268 от начала 1250
+отделение 11 день 100 от начала 270
+отделение 12 день 36 от начала 305
+отделение 17 день 132 от начала 379</t>
         </is>
       </c>
     </row>
@@ -1777,23 +1808,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1664', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('897', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('164', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1270', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('598', 'O'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('154', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('117', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('119', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('119', 'I-perDay'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('51', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1093', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('51', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('217', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('288', 'O'), ('от', 'O'), ('начала', 'O'), ('2135', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('411', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('87', 'O'), ('от', 'O'), ('начала', 'O'), ('697', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('123', 'O'), ('от', 'O'), ('начала', 'O'), ('558', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('398', 'O'), ('от', 'O'), ('начала', 'O'), ('1648', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('89', 'O'), ('от', 'O'), ('начала', 'O'), ('359', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('98', 'O'), ('от', 'O'), ('начала', 'O'), ('403', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('84', 'O'), ('от', 'O'), ('начала', 'O'), ('380', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('127', 'O'), ('от', 'O'), ('начала', 'O'), ('506', 'B-operation'), ('внесен', 'O'), ('кас', 'B-plant'), ('под', 'O'), ('озимая', 'O'), ('пшеница', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('63', 'O'), ('от', 'O'), ('начала', 'O'), ('63', 'O')]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>пахота под сою
-попу площадь за день 14 площадь с начала операции 1664
-отделение 11 площадь за день 14 площадь с начала операции 897
-выравнивание под сою
-попу площадь за день 164 площадь с начала операции 1270
-отделение 11 площадь за день 95 площадь с начала операции 598
-отделение 12 площадь за день 35 площадь с начала операции 154
-отделение 17 площадь за день 34 площадь с начала операции 117
-предпосевная культура под сахарная свекла
-попу площадь за день 119 площадь с начала операции 119
-отделение 12 площадь за день 39 площадь с начала операции 39
-отделение 16 площадь за день 80 площадь с начала операции 80</t>
+          <t>выравнивание под кукурузы зерно
+по пу день 51 от начала 1093
+отделение 11 день 51 от начала 217
+предпосевная культура под сахарная свекла
+по пу день 288 от начала 2135
+отделение 11 день 78 от начала 411
+отделение 12 день 87 от начала 697
+отделение 17 день 123 от начала 558
+посев сахарная свекла
+по пу день 398 от начала 1648
+отделение 11 день 89 от начала 359
+отделение 12 день 98 от начала 403
+отделение 16 день 84 от начала 380
+отделение 17 день 127 от начала 506
+внесен кас под озимая пшеница
+отделение 16 день 63 от начала 63</t>
         </is>
       </c>
     </row>
@@ -1803,28 +1838,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1388', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('649', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('221', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('906', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('437', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('265', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('384', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('47', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('104', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('183', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('50', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свеклы', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('107', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('107', 'I-perDay'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('29', 'O'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('78', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1457', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('688', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('152', 'O'), ('от', 'O'), ('начала', 'O'), ('2287', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('483', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('747', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('588', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('284', 'O'), ('от', 'O'), ('начала', 'O'), ('1932', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('42', 'O'), ('от', 'O'), ('начала', 'O'), ('401', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('123', 'O'), ('от', 'O'), ('начала', 'O'), ('526', 'O'), ('отделение', 'O'), ('16', 'I-perDay'), ('день', 'O'), ('89', 'O'), ('от', 'O'), ('начала', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('536', 'O')]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>выравн под сою
-попу площадь за день 118 площадь с начала операции 1388
-отделение 11 площадь за день 51 площадь с начала операции 649
-отделение 12 площадь за день 67 площадь с начала операции 221
-выравнивание под кукурузный зерно
-попу площадь за день 25 площадь с начала операции 906
-отделение 12 площадь за день 25 площадь с начала операции 437
-предпосевная культура под сахарная свекла
-попу площадь за день 265 площадь с начала операции 384
-отделение 11 площадь за день 47 площадь с начала операции 47
-отделение 12 площадь за день 65 площадь с начала операции 104
-отделение 16 площадь за день 103 площадь с начала операции 183
-отделение 17 площадь за день 50 площадь с начала операции 50
-посев сахарная свеклы
-попу площадь за день 107 площадь с начала операции 107
-отделение 12 площадь за день 29 площадь с начала операции 29
-отделение 16 площадь за день 78 площадь с начала операции 78</t>
+          <t>выравнивание под сою
+по пу день 16 от начала 1457
+отделение 11 день 16 от начала 688
+предпосевная культура под сахарная свекла
+по пу день 152 от начала 2287
+отделение 11 день 72 от начала 483
+отделение 12 день 50 от начала 747
+отделение 17 день 30 от начала 588
+посев сахарная свекла
+по пу день 284 от начала 1932
+отделение 11 день 42 от начала 401
+отделение 12 день 123 от начала 526
+отделение 16 день 89 от начала 469 5га вымочки
+отделение 17 день 30 от начала 536</t>
         </is>
       </c>
     </row>
@@ -1834,18 +1866,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('886', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10224/91%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('551', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10793/96%', 'B-perOperation'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('32231', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('100%', 'O'), ('герб.', 'B-operation'), ('обработка', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('285', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('928/3%', 'B-perOperation'), ('пред.культ.', 'B-operation'), ('подсол.площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('32', 'I-perDay'), ('посев', 'I-operation'), ('подсол.', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10', 'I-perOperation')]</t>
+          <t>[('подкормка', 'B-operation'), ('кас', 'I-operation'), ('32', 'I-operation'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('99', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('162', 'B-perOperation'), ('отделение', 'O'), ('16', 'I-perOperation'), ('день', 'O'), ('99', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('162', 'I-perOperation')]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>рассвет
-посев сахарная свеклы площадь за день 886 площадь с начала операции 10224/91%
-культура. сахарная свёкла площадь за день 551 площадь с начала операции 10793/96%
-2-подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100%
-герб. обработка озимая пшеницы площадь за день 285 площадь с начала операции 928/3%
-пред.культ. подсол.площадь за день 32 площадь с начала операции 32
-посев подсол. площадь за день 10 площадь с начала операции 10</t>
+          <t>подкормка кас 32 по оз.пшенице пу юг день 99 от начала 162
+отделение 16 день 99 от начала 162</t>
         </is>
       </c>
     </row>
@@ -1855,26 +1882,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1441', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('672', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('251', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('871', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('406', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('67', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('106', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('15', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('122', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('88', 'O')]</t>
+          <t>[('30.03.25г', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('50', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('97', 'B-perOperation'), ('609', 'O'), ('14', 'O'), ('посев', 'I-operation'), ('подсолнечника', 'O'), ('день', 'O'), ('17', 'O'), ('от', 'O'), ('начала', 'O'), ('47', 'O'), ('659', 'O'), ('6', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('371', 'O'), ('от', 'O'), ('начала', 'O'), ('5118', 'B-perOperation'), ('166', 'O'), ('97', 'I-perOperation'), ('на', 'I-operation'), ('данный', 'O'), ('момент', 'O'), ('осадки', 'O'), ('в', 'I-operation'), ('2х', 'O'), ('районах', 'O'), ('до', 'O'), ('3мм', 'O')]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>выравн под сою
-попу площадь за день 53 площадь с начала операции 1441
-отделение 11 площадь за день 23 площадь с начала операции 672
-отделение 12 площадь за день 30 площадь с начала операции 251
-выравнивание под кукурузный силос
-попу площадь за день 6 площадь с начала операции 871
-отделение 11 площадь за день 6 площадь с начала операции 401
-предпосевная культура под сахарная свекла
-попу площадь за день 22 площадь с начала операции 406
-отделение 11 площадь за день 20 площадь с начала операции 67
-отделение 12 площадь за день 2 площадь с начала операции 106
-посев сахарная свекла
-попу площадь за день 15 площадь с начала операции 122
-отделение 11 площадь за день 5 площадь с начала операции 5
-отделение 16 площадь за день 10 площадь с начала операции 88</t>
+          <t>30.03.25г мир.
+предпосевная культивация под подсолнечник день 50 от начала 97 609 14 
+посев подсолнечника день 17 от начала 47 659 6 
+вторая подкормка озимой пшеницы день 371 от начала 5118 166 97 
+на данный момент осадки в 2х районах до 3мм</t>
         </is>
       </c>
     </row>
@@ -1884,30 +1901,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('куклы', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('960', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('166', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('467', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('877', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('407', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('247', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('653', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('27', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('94', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('207', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('247', 'I-perDay'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('55', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('105', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('222', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('17', 'I-department'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('45', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('62', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('150', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('10', 'O')]</t>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('30.03.2024', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('504', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('7758', 'B-perOperation'), ('посев', 'B-operation'), ('сах.свеклы', 'B-plant'), ('день', 'O'), ('241', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1806', 'B-perOperation'), ('87', 'O'), ('7ед', 'O'), ('осталось', 'O'), ('335га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('день', 'O'), ('70', 'O'), ('от', 'I-department'), ('начала', 'O'), ('2874', 'B-operation'), ('предпосевная', 'I-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('70', 'O'), ('от', 'I-department'), ('начала', 'O'), ('70', 'O')]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>выравн под куклы зерно
-попу площадь за день 54 площадь с начала операции 960
-отделение 11 площадь за день 24 площадь с начала операции 166
-отделение 12 площадь за день 30 площадь с начала операции 467
-выравнивание под кукурузный силос
-попу площадь за день 6 площадь с начала операции 877
-отделение 11 площадь за день 6 площадь с начала операции 407
-предпосевная культура под сахарная свекла
-попу площадь за день 247 площадь с начала операции 653
-отделение 11 площадь за день 27 площадь с начала операции 94
-отделение 12 площадь за день 101 площадь с начала операции 207
-отделение 16 площадь за день 64 площадь с начала операции 247
-отделение 17 площадь за день 55 площадь с начала операции 105
-посев сахарная свекла
-попу площадь за день 100 площадь с начала операции 222
-отделение 11 площадь за день 12 площадь с начала операции 17
-отделение 12 площадь за день 16 площадь с начала операции 45
-отделение 16 площадь за день 62 площадь с начала операции 150
-отделение 17 площадь за день 10 площадь с начала операции 10</t>
+          <t>ао кропоткинское
+30.03.2024
+2 подкормка озимой пшеницы день 504 от начала 7758
+посев сах.свеклы день 241 от начала 1806 87 7ед 
+осталось 335га
+выравнивание зяби под кукурузу день 70 от начала 2874
+предпосевная культивация под подсолнечник день 70 от начала 70</t>
         </is>
       </c>
     </row>
@@ -1917,29 +1922,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1042', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('549', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'I-plant'), ('силос', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('907', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('437', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('531', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1184', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('174', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('260', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('467', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('348', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('90', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('195', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('357', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('579', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('97', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('130', 'O'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('81', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('231', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('111', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('121', 'O')]</t>
+          <t>[('27.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('454', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1715', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('102', 'O'), ('от', 'O'), ('начала', 'O'), ('209', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('175', 'O'), ('от', 'O'), ('начала', 'O'), ('593', 'O'), ('отделение', 'O'), ('17', 'I-perOperation'), ('день', 'O'), ('177', 'O'), ('от', 'O'), ('начала', 'O'), ('260', 'O')]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>выравн под кукурузный зерно
-попу площадь за день 82 площадь с начала операции 1042
-отделение 12 площадь за день 82 площадь с начала операции 549
-выравнивание под кукурузный силос
-попу площадь за день 30 площадь с начала операции 907
-отделение 11 площадь за день 30 площадь с начала операции 437
-предпосевная культура под сахарная свекла
-попу площадь за день 531 площадь с начала операции 1184
-отделение 11 площадь за день 80 площадь с начала операции 174
-отделение 12 площадь за день 260 площадь с начала операции 467
-отделение 16 площадь за день 101 площадь с начала операции 348
-отделение 17 площадь за день 90 площадь с начала операции 195
-посев сахарная свекла
-попу площадь за день 357 площадь с начала операции 579
-отделение 11 площадь за день 80 площадь с начала операции 97
-отделение 12 площадь за день 85 площадь с начала операции 130
-отделение 16 площадь за день 81 площадь с начала операции 231
-отделение 17 площадь за день 111 площадь с начала операции 121</t>
+          <t>27.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 454 от начала 1715
+отделение 11 день 102 от начала 209
+отделение 12 день 175 от начала 593
+отделение 17 день 177 от начала 260</t>
         </is>
       </c>
     </row>
@@ -1949,26 +1941,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('932', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('462', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('452', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1636', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('252', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('143', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('610', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('121', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('305', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('403', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('982', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('73', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('139', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('269', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('296', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('126', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('247', 'O')]</t>
+          <t>[('пу', 'O'), ('юг', 'B-department'), ('2.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('105', 'O'), ('от', 'O'), ('начала', 'O'), ('2527', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('674', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('75', 'O'), ('от', 'O'), ('начала', 'O'), ('588', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('571', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('412', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('62', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('39', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-perDay'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('354', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('289', 'B-department'), ('посев', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('прокатывание', 'B-plant'), ('посевов', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('1', 'O'), ('я', 'I-operation'), ('затравка', 'B-plant'), ('мыш', 'O'), ('грызунов', 'B-department'), ('по', 'O'), ('озимым', 'O'), ('кол.', 'O'), ('пу', 'O'), ('юг', 'I-department'), ('день', 'O'), ('100', 'O'), ('от', 'O'), ('начала', 'O'), ('8804,', 'O'), (',12', 'O'), ('человек', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('100', 'O'), ('от', 'O'), ('начала', 'O'), ('2194', 'O')]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>выравн под кукурузный силос
-попу площадь за день 25 площадь с начала операции 932
-отделение 11 площадь за день 25 площадь с начала операции 462
-предпосевная культура под сахарная свекла
-попу площадь за день 452 площадь с начала операции 1636
-отделение 11 площадь за день 78 площадь с начала операции 252
-отделение 12 площадь за день 143 площадь с начала операции 610
-отделение 16 площадь за день 121 площадь с начала операции 469 5га вымочки
-отделение 17 площадь за день 110 площадь с начала операции 305
-посев сахарная свекла
-попу площадь за день 403 площадь с начала операции 982
-отделение 11 площадь за день 73 площадь с начала операции 170
-отделение 12 площадь за день 139 площадь с начала операции 269
-отделение 16 площадь за день 65 площадь с начала операции 296
-отделение 17 площадь за день 126 площадь с начала операции 247</t>
+          <t>пу юг 2.03
+выравнивание зяби под сахарная свекла
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
+выравнивание зяби под кукурузное зерно 
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
+выравнивание зяби по кукурузный силос
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
+выравнивание зяби под сою 
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
+посев овса 
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
+прокатывание посевов овса 
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+1 я затравка мыш грызунов по озимым кол. пу юг день 100 от начала 8804, ,12 человек
+отделение 16 день 100 от начала 2194</t>
         </is>
       </c>
     </row>
@@ -1978,20 +1978,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[('предп', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('211', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1847', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('81', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('333', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('435', 'O'), ('посев', 'B-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('268', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1250', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('270', 'O'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('36', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('305', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('132', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('379', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1481', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('712', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('369', 'O'), ('от', 'O'), ('начала', 'O'), ('2656', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('156', 'O'), ('от', 'O'), ('начала', 'O'), ('639', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('48', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('795', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('163', 'O'), ('от', 'O'), ('начала', 'O'), ('751', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('355', 'O'), ('от', 'O'), ('начала', 'O'), ('2287', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('481', 'I-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('133', 'O'), ('от', 'O'), ('начала', 'O'), ('659', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('142', 'O'), ('от', 'O'), ('начала', 'O'), ('678', 'O')]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>предп культура под сахарная свекла
-попу площадь за день 211 площадь с начала операции 1847
-отделение 11 площадь за день 81 площадь с начала операции 333
-отделение 17 площадь за день 130 площадь с начала операции 435
-посев сахарная свекла
-попу площадь за день 268 площадь с начала операции 1250
-отделение 11 площадь за день 100 площадь с начала операции 270
-отделение 12 площадь за день 36 площадь с начала операции 305
-отделение 17 площадь за день 132 площадь с начала операции 379</t>
+          <t>выравнивание под сою
+по пу день 24 от начала 1481
+отделение 11 день 24 от начала 712
+предпосевная культура под сахарная свекла
+по пу день 369 от начала 2656
+отделение 11 день 156 от начала 639
+отделение 12 день 48 от начала 795
+отделение 17 день 163 от начала 751
+посев сахарная свекла
+по пу день 355 от начала 2287
+отделение 11 день 80 от начала 481
+отделение 12 день 133 от начала 659
+отделение 17 день 142 от начала 678</t>
         </is>
       </c>
     </row>
@@ -2001,27 +2005,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[('вырав', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1093', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('217', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('288', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2135', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('411', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('87', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('697', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('558', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('398', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1648', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('89', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('359', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('98', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('403', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('84', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('380', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('127', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('506', 'O'), ('внесен', 'O'), ('кас', 'O'), ('под', 'O'), ('озимая', 'O'), ('пшеница', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('63', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('63', 'O')]</t>
+          <t>[('22.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('320', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('474', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('95', 'O'), ('от', 'O'), ('начала', 'O'), ('174', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('150', 'O'), ('от', 'O'), ('начала', 'O'), ('150', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('75', 'O'), ('от', 'O'), ('начала', 'O'), ('150', 'O')]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>вырав под кукурузный зерно
-попу площадь за день 51 площадь с начала операции 1093
-отделение 11 площадь за день 51 площадь с начала операции 217
-предпосевная культура под сахарная свекла
-попу площадь за день 288 площадь с начала операции 2135
-отделение 11 площадь за день 78 площадь с начала операции 411
-отделение 12 площадь за день 87 площадь с начала операции 697
-отделение 17 площадь за день 123 площадь с начала операции 558
-посев сахарная свекла
-попу площадь за день 398 площадь с начала операции 1648
-отделение 11 площадь за день 89 площадь с начала операции 359
-отделение 12 площадь за день 98 площадь с начала операции 403
-отделение 16 площадь за день 84 площадь с начала операции 380
-отделение 17 площадь за день 127 площадь с начала операции 506
-внесен кас под озимая пшеница
-отделение 16 площадь за день 63 площадь с начала операции 63</t>
+          <t>22.03 внесение гербицидов по оз.рапсу пу юг день 320 от начала 474
+отделение 11 день 95 от начала 174
+отделение 12 день 150 от начала 150
+отделение 16 день 75 от начала 150</t>
         </is>
       </c>
     </row>
@@ -2031,25 +2023,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[('вырав', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1457', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('688', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('152', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2287', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('483', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('747', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('284', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1932', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('42', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('526', 'O'), ('отделение', 'I-department'), ('16', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('89', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('536', 'O')]</t>
+          <t>[('подкормка', 'B-operation'), ('кас', 'I-operation'), ('32', 'I-operation'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('400', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('562', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('241', 'O'), ('от', 'O'), ('начала', 'O'), ('241', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('159', 'O'), ('от', 'O'), ('начала', 'O'), ('321', 'O')]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>вырав под сою
-попу площадь за день 16 площадь с начала операции 1457
-отделение 11 площадь за день 16 площадь с начала операции 688
-предпосевная культура под сахарная свекла
-попу площадь за день 152 площадь с начала операции 2287
-отделение 11 площадь за день 72 площадь с начала операции 483
-отделение 12 площадь за день 50 площадь с начала операции 747
-отделение 17 площадь за день 30 площадь с начала операции 588
-посев сахарная свекла
-попу площадь за день 284 площадь с начала операции 1932
-отделение 11 площадь за день 42 площадь с начала операции 401
-отделение 12 площадь за день 123 площадь с начала операции 526
-отделение 16 площадь за день 89 площадь с начала операции 469 5га вымочки
-отделение 17 площадь за день 30 площадь с начала операции 536</t>
+          <t>подкормка кас 32 по оз.пшенице пу юг день 400 от начала 562
+отделение 12 день 241 от начала 241
+отделение 16 день 159 от начала 321</t>
         </is>
       </c>
     </row>
@@ -2059,13 +2040,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[('подкормка', 'B-operation'), ('кас-32', 'O'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('99', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('162', 'B-perOperation'), ('отделение', 'B-department'), ('16-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('99', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('162', 'I-perOperation')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1497', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('728', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('2706', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('689', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'O'), ('начала', 'O'), ('2378', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('21', 'O'), ('от', 'O'), ('начала', 'O'), ('502', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('704', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('703', 'O')]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 99 площадь с начала операции 162
-отделение 16-площадь за день 99 площадь с начала операции 162</t>
+          <t>выравнивание под сою
+по пу день 16 от начала 1497
+отделение 11 день 16 от начала 728
+предпосевная культура под сахарная свекла
+по пу день 50 от начала 2706
+отделение 11 день 50 от начала 689
+посев сахарная свекла
+по пу день 91 от начала 2378
+отделение 11 день 21 от начала 502
+отделение 12 день 45 от начала 704
+отделение 17 день 25 от начала 703</t>
         </is>
       </c>
     </row>
@@ -2075,16 +2065,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[('30.03.25г', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('97/609', 'O'), ('-', 'O'), ('14%', 'O'), ('посев', 'I-operation'), ('подсолнечника', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('47/659', 'O'), ('-', 'O'), ('6%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('371', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('5118/166', 'B-perOperation'), ('-', 'O'), ('97%', 'O'), ('на', 'I-operation'), ('данный', 'O'), ('момент', 'O'), ('осадки', 'O'), ('в', 'I-operation'), ('2х', 'O'), ('районах', 'O'), ('до', 'O'), ('3мм', 'O')]</t>
+          <t>[('23.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('71', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('545', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('71', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('245', 'O')]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>30.03.25г мир.
-предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97/609 - 14%
-посев подсолнечника площадь за день 17 площадь с начала операции 47/659 - 6%
-вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118/166 - 97%
-на данный момент осадки в 2х районах до 3мм</t>
+          <t>23.03 внесение гербицидов по оз.рапсу пу юг день 71 от начала 545
+отделение 11 день 71 от начала 245</t>
         </is>
       </c>
     </row>
@@ -2094,18 +2081,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[('ао', 'O'), ('кропоткинское', 'O'), ('30.03.2024', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('504', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('7758', 'B-perOperation'), ('посев', 'B-operation'), ('сах.свеклы', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('241', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1806', 'B-perOperation'), ('87%', 'O'), ('(7ед)', 'O'), ('осталось', 'O'), ('335га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2874', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('подсолнечник', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('70', 'I-perDay')]</t>
+          <t>[('24.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('445', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('990', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('138', 'O'), ('от', 'O'), ('начала', 'O'), ('383', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('110', 'O'), ('от', 'O'), ('начала', 'O'), ('260', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('97', 'O'), ('от', 'O'), ('начала', 'O'), ('247', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('100', 'O'), ('от', 'O'), ('начала', 'O'), ('100', 'O')]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ао кропоткинское
-30.03.2024
-2 подкормка озимой пшеницы площадь за день 504 площадь с начала операции 7758
-посев сах.свеклы площадь за день 241 площадь с начала операции 1806 87% (7ед)
-осталось 335га
-выравнивание зяби под кукурузу площадь за день 70 площадь с начала операции 2874
-предпосевная культивация под подсолнечник площадь за день 70 площадь с начала операции 70</t>
+          <t>24.03 внесение гербицидов по оз.рапсу пу юг день 445 от начала 990
+отделение 11 день 138 от начала 383
+отделение 12 день 110 от начала 260
+отделение 16 день 97 от начала 247
+отделение 17 день 100 от начала 100</t>
         </is>
       </c>
     </row>
@@ -2115,16 +2100,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[('27.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('454', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1715', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('102', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('175', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('593', 'O'), ('отделение', 'I-department'), ('17-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('177', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('260', 'O')]</t>
+          <t>[('уборка', 'B-operation'), ('свеклы', 'B-plant'), ('27.10.день', 'B-data'), ('отд10', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('216', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('1569', 'B-perOperation'), ('валовый', 'O'), ('день', 'O'), ('1259680', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('6660630', 'B-grosPerOperation'), ('урожайность', 'O'), ('279,день', 'O'), ('9', 'O'), ('от', 'O'), ('начала', 'O'), ('308,3', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('1259680', 'I-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('41630600', 'O'), ('на', 'O'), ('завод', 'O'), ('день', 'O'), ('1811630', 'O'), ('от', 'O'), ('начала', 'O'), ('6430580', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('1811630', 'O'), ('от', 'O'), ('начала', 'O'), ('41400550', 'O'), ('положено', 'O'), ('в', 'I-plant'), ('кагат', 'O'), ('399400', 'O'), ('вввезено', 'O'), ('с', 'I-plant'), ('кагата', 'O'), ('951340', 'O'), ('остаток', 'O'), ('230060', 'O'), ('оз', 'O'), ('9,день', 'O'), ('04', 'O'), ('от', 'O'), ('начала', 'O'), ('12,58', 'O'), ('дигестия', 'O'), ('14,день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('15,05', 'O')]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>27.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 454 площадь с начала операции 1715
-отделение 11-площадь за день 102 площадь с начала операции 209
-отделение 12-площадь за день 175 площадь с начала операции 593
-отделение 17-площадь за день 177 площадь с начала операции 260</t>
+          <t>уборка свеклы 27.10.день
+отд10 день 45 от начала 216
+по пу день 45 от начала 1569
+валовый день 1259680 от начала 6660630
+урожайность 279,день 9 от начала 308,3
+по пу день 1259680 от начала 41630600
+на завод день 1811630 от начала 6430580
+по пу день 1811630 от начала 41400550
+положено в кагат 399400
+вввезено с кагата 951340
+остаток 230060
+оз 9,день 04 от начала 12,58
+дигестия 14,день 50 от начала 15,05</t>
         </is>
       </c>
     </row>
@@ -2134,33 +2127,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('379', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('36', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('240', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('79', 'I-perOperation'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('190', 'B-perOperation'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1393', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('130', 'I-perDay'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('207', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('857', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('66', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('199', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('141', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('289', 'O'), ('дискование', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('57', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8743', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('57', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1999', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('24', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('458', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('60', 'I-perDay')]</t>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('77', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('518', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('46', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('298', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('21', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('143', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('10', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('17', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('640', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('242', 'B-operation'), ('чизлование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('зел', 'O'), ('корм', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('40', 'O'), ('дискование', 'B-plant'), ('озимая', 'I-plant'), ('пшеницы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('28', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('8872', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('28', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('2097', 'B-operation'), ('второе', 'O'), ('дискование', 'I-plant'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('189', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1763', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('209', 'I-operation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('122', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('540', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('7', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('172', 'B-plant'), ('дискование', 'I-plant'), ('кукурузы', 'O'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('904', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('229', 'B-plant'), ('прикат', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('498', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('100', 'O'), ('уборка', 'O'), ('сои', 'O'), ('семенной', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('65', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('65', 'O'), ('валовый', 'O'), ('58720', 'O'), ('урожайность', 'O'), ('9', 'O')]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>пахота под сахарная свекла
-по пу площадь за день 50 площадь с начала операции 379
-отделение 12 площадь за день 36 площадь с начала операции 240
-отделение 16 площадь за день 14 площадь с начала операции 79
-чизлование под озимая ячмень
-по пу площадь за день 60 площадь с начала операции 588
-отделение 11 площадь за день 60 площадь с начала операции 190
-второе дискование под сахарная свекла
-по пу площадь за день 130 площадь с начала операции 1393
-отделение 17 площадь за день 130 площадь с начала операции 130
-дискование кукурузный силос
-по пу площадь за день 207 площадь с начала операции 857
-отделение 11 площадь за день 66 площадь с начала операции 199
-отделение 12 площадь за день 141 площадь с начала операции 289 
-дискование озимая пшеницы 
-по пу площадь за день 57 площадь с начала операции 8743
-отделение 17 площадь за день 57 площадь с начала операции 1999
-выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 2 площадь с начала операции 24
-прикат под озимая ячмень
-по пу площадь за день 60 площадь с начала операции 458
-отделение 11 площадь за день 60 площадь с начала операции 60</t>
+          <t>пахота под сахарная свекла
+по пу день 77 от начала 518
+отделение 12 день 46 от начала 298
+отделение 16 день 21 от начала 143
+отделение 17 день 10 от начала 17
+чизлование под озимая ячмень 
+по пу день 22 от начала 640
+отделение 11 день 22 от начала 242
+чизлование под озимая зел корм
+отделение 11 день 40 от начала 40
+дискование озимая пшеницы
+по пу день 28 от начала 8872
+отделение 17 день 28 от начала 2097
+второе дискование под сахарная свекла
+по пу день 189 от начала 1763
+отделение 11 день 60 от начала 209
+отделение 12 день 122 от начала 540
+отделение 17 день 7 от начала 172
+дискование кукурузы силос
+по пу день 6 от начала 904
+отделение 11 день 6 от начала 229
+прикат под озимая ячмень
+по пу день 40 от начала 498
+отделение 11 день 40 от начала 100
+уборка сои семенной 
+отделение 11 день 65 от начала 65
+валовый 58720
+урожайность 9</t>
         </is>
       </c>
     </row>
@@ -2170,34 +2169,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[('пу', 'O'), ('«юг»', 'O'), ('2.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('105', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2527', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('674', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('571', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('412', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('62', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('232', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('23', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('354', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('289', 'O'), ('посев', 'B-operation'), ('овса', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('1-я', 'B-operation'), ('затравка', 'I-operation'), ('мыш', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('озимым', 'B-plant'), ('кол.', 'O'), ('пу"юг"', 'O'), ('-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8804,', 'B-perOperation'), (',12', 'O'), ('человек', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('100', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2194', 'O')]</t>
+          <t>[('20.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('100', 'B-perDay'), ('день,', 'O'), ('1109', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('97', 'O'), (',', 'O'), ('30', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('4', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('47', 'O'), ('день,', 'O'), ('141', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('29', 'O'), (',', 'O'), ('остаток', 'O'), ('565', 'O'), ('.', 'I-data'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O'), ('осадки', 'O'), ('бригада', 'O'), ('1', 'I-data'), ('воронежская', 'O'), ('6', 'O'), ('мм', 'O')]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>пу «юг» 2.03
-выравнивание зяби под сахарная свекла
-по пу площадь за день 105 площадь с начала операции 2527
-отделение 11 площадь за день 30 площадь с начала операции 674
-отделение 17 площадь за день 75 площадь с начала операции 588
-выравнивание зяби под кукурузное зерно 
-по пу площадь за день 40 площадь с начала операции 571
-отделение 12 площадь за день 40 площадь с начала операции 412
-выравнивание зяби по кукурузный силос
-по пу площадь за день 62 площадь с начала операции 232
-отделение 11 площадь за день 23 площадь с начала операции 23
-отделение 17 площадь за день 39 площадь с начала операции 39
-выравнивание зяби под сою 
-по пу площадь за день 72 площадь с начала операции 354
-отделение 16 площадь за день 72 площадь с начала операции 289
-посев овса 
-по пу площадь за день 5 площадь с начала операции 5
-отделение 11 площадь за день 5 площадь с начала операции 5
-прокатывание посевов овса 
-по пу площадь за день 5 площадь с начала операции 5
-отделение площадь за день 5 площадь с начала операции 5
-1-я затравка мыш грызунов по озимым кол. пу"юг" -площадь за день 100 площадь с начала операции 8804, ,12 человек
-отделение 16-площадь за день 100 площадь с начала операции 2194</t>
+          <t>20.11 мир
+пахота зяби под сою 100 день, 1109 от начала, 97 , 30 остаток.
+работало 4 агрегата.
+выравнивание зяби под подсолнечник 47 день, 141 от начала, 29 , остаток 565 . работал 1 агрегат
+осадки 
+бригада 1 воронежская 6 мм</t>
         </is>
       </c>
     </row>
@@ -2207,24 +2189,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[('вырав', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1481', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('712', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('369', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2656', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('156', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('639', 'O'), ('отделение', 'I-department'), ('12', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('48', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('795', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('163', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('751', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('355', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2287', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('481', 'I-perOperation'), ('отделение', 'I-department'), ('12', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('133', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('659', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('142', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('678', 'O')]</t>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('26.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('862', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('5519', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('274', 'O'), ('от', 'I-department'), ('начала', 'O'), ('896', 'O'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('день', 'O'), ('276', 'O'), ('от', 'I-department'), ('начала', 'O'), ('666', 'O'), ('31', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1475га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('день', 'O'), ('295', 'O'), ('от', 'I-department'), ('начала', 'O'), ('2348', 'O')]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>вырав под сою
-попу площадь за день 24 площадь с начала операции 1481
-отделение 11 площадь за день 24 площадь с начала операции 712
-предпосевная культура под сахарная свекла
-попу площадь за день 369 площадь с начала операции 2656
-отделение 11 площадь за день 156 площадь с начала операции 639
-отделение 12 площадь за день 48 площадь с начала операции 795
-отделение 17 площадь за день 163 площадь с начала операции 751
-посев сахарная свекла
-попу площадь за день 355 площадь с начала операции 2287
-отделение 11 площадь за день 80 площадь с начала операции 481
-отделение 12 площадь за день 133 площадь с начала операции 659
-отделение 17 площадь за день 142 площадь с начала операции 678</t>
+          <t>ао кропоткинское
+26.03.25
+2 подкормка озимой пшеницы день 862 от начала 5519
+предпосевная культивация под сахарную свеклу день 274 от начала 896
+посев сах.свеклы день 276 от начала 666 31 7ед.
+осталось 1475га
+выравнивание зяби под кукурузу день 295 от начала 2348</t>
         </is>
       </c>
     </row>
@@ -2234,15 +2210,18 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[('22.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('320', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('474', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('95', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('174', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('150', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('150', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('150', 'O')]</t>
+          <t>[('27.03.25', 'B-data'), ('мир.', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('53', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1153', 'B-perOperation'), ('20', 'O'), ('98', 'O'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою', 'I-plant'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('140', 'B-perOperation'), ('447', 'O'), ('24', 'O'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('85', 'O'), ('от', 'O'), ('начала', 'O'), ('702', 'O'), ('246', 'O'), ('74', 'O'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('день', 'O'), ('135', 'O'), ('от', 'O'), ('начала', 'O'), ('655', 'O'), ('293', 'O'), ('69', 'B-operation'), ('вторая', 'I-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('1047', 'O'), ('от', 'O'), ('начала', 'O'), ('2205', 'O'), ('3079', 'O'), ('42', 'O'), ('на', 'O'), ('север', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед', 'I-operation')]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>22.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 320 площадь с начала операции 474
-отделение 11-площадь за день 95 площадь с начала операции 174
-отделение 12-площадь за день 150 площадь с начала операции 150
-отделение 16-площадь за день 75 площадь с начала операции 150</t>
+          <t>27.03.25 мир.
+выравнивание зяби под сою день 53 от начала 1153 20 98 
+сплошная культивация под сою день 50 от начала 140 447 24 
+предпосевная культивация под сахарную свеклу день 85 от начала 702 246 74 
+посев сахарной свеклы день 135 от начала 655 293 69 
+вторая подкормка озимой пшеницы день 1047 от начала 2205 3079 42 
+на север работало 5 ед</t>
         </is>
       </c>
     </row>
@@ -2252,14 +2231,18 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[('подкормка', 'B-operation'), ('кас-32', 'I-operation'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('400', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('562', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('241', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('159', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('321', 'O')]</t>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('27.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('834', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('6353', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('306', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1202', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('день', 'O'), ('278', 'O'), ('от', 'I-department'), ('начала', 'O'), ('944', 'O'), ('44', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1197га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('день', 'O'), ('295', 'O'), ('от', 'I-department'), ('начала', 'O'), ('2643', 'O')]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 400 площадь с начала операции 562
-отделение 12-площадь за день 241 площадь с начала операции 241
-отделение 16-площадь за день 159 площадь с начала операции 321</t>
+          <t>ао кропоткинское
+27.03.25
+2 подкормка озимой пшеницы день 834 от начала 6353
+предпосевная культивация под сахарную свеклу день 306 от начала 1202
+посев сах.свеклы день 278 от начала 944 44 7ед.
+осталось 1197га
+выравнивание зяби под кукурузу день 295 от начала 2643</t>
         </is>
       </c>
     </row>
@@ -2269,22 +2252,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1497', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('728', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2706', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('689', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2378', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('502', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('704', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('703', 'O')]</t>
+          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день', 'O'), ('28', 'O'), ('всего', 'O'), ('524га,', 'O'), ('100', 'O')]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>выравн под сою
-по пу площадь за день 16 площадь с начала операции 1497
-отделение 11 площадь за день 16 площадь с начала операции 728
-предпосевная культура под сахарная свекла
-попу площадь за день 50 площадь с начала операции 2706
-отделение 11 площадь за день 50 площадь с начала операции 689
-посев сахарная свекла
-попу площадь за день 91 площадь с начала операции 2378
-отделение 11 площадь за день 21 площадь с начала операции 502
-отделение 12 площадь за день 45 площадь с начала операции 704
-отделение 17 площадь за день 25 площадь с начала операции 703</t>
+          <t xml:space="preserve">восход
+посев подсолнечника
+день 28
+всего 524га, 100 </t>
         </is>
       </c>
     </row>
@@ -2294,13 +2270,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[('23.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('545', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('71', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('245', 'O')]</t>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'B-operation'), ('химпрополка', 'I-operation'), ('оз.пшеницы', 'B-plant'), ('за', 'O'), ('день', 'O'), ('185', 'B-perDay'), (',', 'O'), ('всего', 'O'), ('185', 'I-perDay'), ('13', 'O'), (',', 'O'), ('остаток', 'O'), ('1212', 'O')]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 71 площадь с начала операции 545
-отделение 11-площадь за день 71 площадь с начала операции 245</t>
+          <t xml:space="preserve">колхоз прогресс химпрополка оз.пшеницы за день 185 , всего 185 13 , остаток 1212 </t>
         </is>
       </c>
     </row>
@@ -2310,25 +2285,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[('выравн', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1515', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('746', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('175//2881', 'B-perDay'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('734', 'O'), ('отделение', 'I-department'), ('17', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('881', 'B-perOperation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('333', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2711', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('113', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('615', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('795', 'O'), ('отделение', 'I-department'), ('17', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('832', 'O'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('подсо', 'B-plant'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('90', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('90', 'O')]</t>
+          <t>[('28.03.25', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('178', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('880', 'B-perOperation'), ('68', 'O'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('день', 'O'), ('150', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('805', 'B-perOperation'), ('143', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('995', 'O'), ('от', 'O'), ('начала', 'O'), ('3200', 'B-perOperation'), ('2084', 'O'), ('на', 'I-operation'), ('север', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед.', 'O')]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>выравн зяби под сою
-попу площадь за день 18 площадь с начала операции 1515
-отделение 11 площадь за день 18 площадь с начала операции 746
-предпосевная культура под сахарная свекла
-попу 175//2881
-отделение 11 площадь за день 45 площадь с начала операции 734
-отделение 17 площадь за день 130 площадь с начала операции 881
-посев сахарная свекла
-попу площадь за день 333 площадь с начала операции 2711
-отделение 11 площадь за день 113 площадь с начала операции 615
-отделение 12 площадь за день 91 площадь с начала операции 795
-отделение 17 площадь за день 129 площадь с начала операции 832
-предпосевная культура под подсо
-отделение 16 площадь за день 90 площадь с начала операции 90</t>
+          <t>28.03.25 мир.
+предпосевная культивация под сахарную свеклу день 178 от начала 880 68
+посев сахарной свеклы день 150 от начала 805 143
+вторая подкормка озимой пшеницы день 995 от начала 3200 2084
+на север работало 5 ед.</t>
         </is>
       </c>
     </row>
@@ -2338,16 +2304,18 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[('24.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('445', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('990', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('138', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('383', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('260', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('97', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('247', 'O'), ('отделение', 'I-department'), ('17-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('100', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('100', 'O')]</t>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('28.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('622', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('6975', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('426', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1628', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('день', 'O'), ('285', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1229', 'O'), ('57', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('912га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('день', 'O'), ('161', 'O'), ('от', 'I-department'), ('начала', 'O'), ('2804', 'O')]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>24.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 445 площадь с начала операции 990
-отделение 11-площадь за день 138 площадь с начала операции 383
-отделение 12-площадь за день 110 площадь с начала операции 260
-отделение 16-площадь за день 97 площадь с начала операции 247
-отделение 17-площадь за день 100 площадь с начала операции 100</t>
+          <t>ао кропоткинское
+28.03.25
+2 подкормка озимой пшеницы день 622 от начала 6975
+предпосевная культивация под сахарную свеклу день 426 от начала 1628
+посев сах.свеклы день 285 от начала 1229 57 7ед.
+осталось 912га
+выравнивание зяби под кукурузу день 161 от начала 2804</t>
         </is>
       </c>
     </row>
@@ -2357,39 +2325,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('77', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('518', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('46', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('298', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('143', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('17', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('242', 'O'), ('чизлование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('зел', 'O'), ('корм', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('40', 'I-perOperation'), ('дискование', 'B-operation'), ('озимая', 'I-plant'), ('пшеницы', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8872', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2097', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('189', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1763', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('122', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('540', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('7', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('172', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('904', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('229', 'O'), ('прик', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('498', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('100', 'O'), ('уборка', 'B-operation'), ('сои', 'B-plant'), ('(семенной)', 'I-plant'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('65', 'I-perDay'), ('валовый', 'O'), ('58720', 'O'), ('урожайность', 'O'), ('9', 'O')]</t>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('29.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('день', 'O'), ('279', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('7254', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('241', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1869', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('день', 'O'), ('336', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1565', 'O'), ('73', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('576га', 'O')]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>пахота под сахарная свекла
-по пу площадь за день 77 площадь с начала операции 518
-отделение 12 площадь за день 46 площадь с начала операции 298
-отделение 16 площадь за день 21 площадь с начала операции 143
-отделение 17 площадь за день 10 площадь с начала операции 17
-чизлование под озимая ячмень 
-по пу площадь за день 22 площадь с начала операции 640
-отделение 11 площадь за день 22 площадь с начала операции 242
-чизлование под озимая зел корм
-отделение 11 площадь за день 40 площадь с начала операции 40
-дискование озимая пшеницы
-по пу площадь за день 28 площадь с начала операции 8872
-отделение 17 площадь за день 28 площадь с начала операции 2097
-второе дискование под сахарная свекла
-по пу площадь за день 189 площадь с начала операции 1763
-отделение 11 площадь за день 60 площадь с начала операции 209
-отделение 12 площадь за день 122 площадь с начала операции 540
-отделение 17 площадь за день 7 площадь с начала операции 172
-дискование кукурузный силос
-по пу площадь за день 6 площадь с начала операции 904
-отделение 11 площадь за день 6 площадь с начала операции 229
-прик под озимая ячмень
-по пу площадь за день 40 площадь с начала операции 498
-отделение 11 площадь за день 40 площадь с начала операции 100
-уборка сои (семенной)
-отделение 11 площадь за день 65 площадь с начала операции 65
-валовый 58720
-урожайность 9</t>
+          <t>ао кропоткинское
+29.03.25
+2 подкормка озимой пшеницы день 279 от начала 7254
+предпосевная культивация под сахарную свеклу день 241 от начала 1869
+посев сах.свеклы день 336 от начала 1565 73 7ед.
+осталось 576га</t>
         </is>
       </c>
     </row>
@@ -2399,40 +2345,44 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('88', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('329', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('60', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('204', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('65', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('438', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('528', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('130', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1263', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('314', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('819', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('179', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('650', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('33', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('148', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('22', 'O'), ('уборка', 'B-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('16', 'I-department'), ('валовый', 'O'), ('473920', 'O'), ('урожайность', 'O'), ('296,2', 'O'), ('диг', 'O'), ('-', 'O'), ('19,19', 'O'), ('озимая', 'I-plant'), ('-', 'O'), ('5,33', 'O')]</t>
+          <t>[('полевые', 'B-department'), ('работы', 'I-department'), ('аор,', 'I-department'), ('13.11.2024.', 'B-operation'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'I-plant'), ('зерно', 'I-plant'), ('день', 'O'), ('86', 'O'), ('от', 'I-department'), ('начала', 'O'), ('3905', 'B-perOperation'), ('95', 'O'), ('остаток', 'O'), ('192', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('260', 'O'), ('от', 'I-department'), ('начала', 'O'), ('6509', 'O'), ('75', 'O'), ('остаток', 'O'), ('2169', 'B-operation'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'I-plant'), ('силос', 'O'), ('день', 'O'), ('156', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1657', 'O'), ('54', 'O'), ('остаток', 'O'), ('1429', 'B-operation'), ('чизелевание', 'B-plant'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('54', 'O'), ('от', 'I-department'), ('начала', 'O'), ('768', 'O'), ('остаток', 'O'), ('от', 'I-department'), ('плана', 'B-operation'), ('38', 'I-operation'), ('выравнивание', 'O'), ('зяби', 'B-plant'), ('под', 'O'), ('сахарную', 'O'), ('свеклу', 'O'), ('день', 'O'), ('312', 'O'), ('от', 'I-department'), ('начала', 'O'), ('7498', 'O'), ('67', 'B-operation'), ('остаток', 'O'), ('3752', 'I-operation'), ('2', 'I-operation'), ('следующий', 'I-operation'), ('выравнивания', 'B-plant'), ('зяби', 'I-plant'), ('под', 'O'), ('сах.свеклу', 'O'), ('день', 'O'), ('101', 'O'), ('от', 'I-department'), ('начала', 'O'), ('425', 'B-operation'), ('4', 'I-operation'), ('остаток', 'O'), ('10825', 'I-operation'), ('затравка', 'O'), ('мышевидных', 'B-plant'), ('грызунов', 'O'), ('по', 'I-department'), ('мн.травам', 'B-perOperation'), ('день', 'O'), ('88', 'O'), ('от', 'I-department'), ('начала', 'O'), ('965', 'B-plant'), ('55', 'I-plant'), ('остаток', 'O'), ('524', 'I-plant'), ('посев', 'B-perDay'), ('озимой', 'O'), ('пшеницы', 'O'), ('товарной', 'O'), ('день', 'O'), ('85', 'O'), ('от', 'I-department'), ('начала', 'O'), ('28416', 'O'), ('100', 'O'), ('посев', 'I-perDay'), ('озимых', 'O'), ('зерновых', 'O'), ('по', 'I-department'), ('аор', 'I-department'), ('завершен.', 'O')]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>пахота под сахарная свекла
-по пу площадь за день 88 площадь с начала операции 329
-отделение 11 площадь за день 23 площадь с начала операции 60
-отделение 12 площадь за день 34 площадь с начала операции 204
-отделение 16 площадь за день 31 площадь с начала операции 65
-пахота под многолетние травы
-по пу площадь за день 10 площадь с начала операции 438
-отделение 17 площадь за день 10 площадь с начала операции 80
-чизлование под озимая ячмень
-по пу площадь за день 71 площадь с начала операции 528
-отделение 11 площадь за день 71 площадь с начала операции 130
-второе дискование под сахарная свекла
-по пу площадь за день 80 площадь с начала операции 1263
-отделение 12 площадь за день 80 площадь с начала операции 314
-второе дискование под озимая ячмень
-по пу площадь за день 97 площадь с начала операции 819
-отделение 17 площадь за день 97 площадь с начала операции 179
-дискование кукурузный силос
-по пу площадь за день 43 площадь с начала операции 650
-отделение 11 площадь за день 33 площадь с начала операции 133
-отделение 12 площадь за день 10 площадь с начала операции 148
-выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 10 площадь с начала операции 22
-уборка сахарная свекла
-отделение 12 площадь за день 16 площадь с начала операции 16
-валовый 473920
-урожайность 296,2
-диг - 19,19
-озимая - 5,33</t>
+          <t>полевые работы аор, 13.11.2024.
+пахота под кукурузу на зерно 
+день 86 
+от начала 3905 95 
+остаток 192 
+пахота под сою 
+день 260 
+от начала 6509 75 
+остаток 2169 
+пахота под кукурузу на силос 
+день 156 
+от начала 1657 54 
+остаток 1429 
+чизелевание под сою 
+день 54 
+от начала 768 
+остаток от плана 38 
+выравнивание зяби под сахарную свеклу 
+день 312 
+от начала 7498 67 
+остаток 3752 
+2 следующий выравнивания зяби под сах.свеклу 
+день 101 
+от начала 425 4 
+остаток 10825 
+затравка мышевидных грызунов по мн.травам 
+день 88 
+от начала 965 55 
+остаток 524 
+посев озимой пшеницы товарной 
+день 85 
+от начала 28416 100 
+посев озимых зерновых по аор завершен.</t>
         </is>
       </c>
     </row>
@@ -2442,22 +2392,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('кук-площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('252га', 'B-perOperation'), ('24%', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('кук-площадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('94', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('490га46%', 'B-perOperation'), ('сзроз', 'O'), ('пш-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('557га', 'O'), ('25%', 'O'), ('подкормка', 'B-operation'), ('озимая', 'B-plant'), ('рапс-', 'I-plant'), ('152га', 'B-perDay'), (',', 'O'), ('100%,', 'O'), ('подкормка', 'I-operation'), ('овса-97га,', 'O'), ('50%', 'O'), ('довсходовое', 'O'), ('боронование', 'O'), ('подсолнечника-524', 'O'), ('га,', 'O'), ('100%.', 'O')]</t>
+          <t>[('14.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('57', 'B-perDay'), ('день,', 'O'), ('562', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('83', 'O'), (',', 'O'), ('110', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('60', 'O'), ('день,', 'O'), ('799', 'B-perOperation'), ('от', 'I-operation'), ('начала,', 'O'), ('70', 'O'), (',', 'O'), ('340', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('5', 'I-perDay'), ('агрегатов.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('130', 'O'), ('день,', 'O'), ('874', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('92', 'O'), (',', 'O'), ('78', 'O'), ('остаток.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат.', 'O')]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>восход
-посев кук-площадь за день 24 площадь с начала операции 252га
-24%
-предпосевная культура
-под кук-площадь за день 94 площадь с начала операции 490га46%
-сзроз пш-площадь за день 103 площадь с начала операции 557га
-25%
-подкормка озимая рапс-
-152га , 100%, подкормка овса-97га, 50%
-довсходовое боронование подсолнечника-524
-га, 100%.</t>
+          <t>14.11 мир
+пахота зяби под кукурузу 57 день, 562 от начала, 83 , 110 остаток.
+пахота зяби под сою 60 день, 799 от начала, 70 , 340 остаток.
+работало 5 агрегатов.
+выравнивание зяби под сахарную свёклу 130 день, 874 от начала, 92 , 78 остаток.
+работал 1 агрегат.</t>
         </is>
       </c>
     </row>
@@ -2467,15 +2412,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[('тск', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('25', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('765', 'B-perOperation'), ('га', 'O'), ('(', 'O'), ('13%)', 'O'), ('остаток', 'O'), ('5332', 'O'), ('га', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('131га', 'B-perDay'), ('(3%)', 'O'), ('остаток', 'O'), ('4486', 'B-perOperation'), ('га', 'O'), ('осадки', 'O'), ('1мм', 'O')]</t>
+          <t>[('тск', 'B-department'), ('вспашка', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('70', 'B-perDay'), ('с', 'I-department'), ('нарастающим', 'O'), ('1377', 'B-perOperation'), ('100', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('155', 'B-perDay'), ('с', 'I-department'), ('нарастающим', 'O'), ('334', 'B-perOperation'), ('5', 'O'), ('остаток', 'O'), ('5763', 'O'), ('осадки', 'O'), ('2', 'O'), ('мм', 'O')]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>тск
-выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) остаток 5332 га
-выравнивание зяби под кукурузу 131га (3%) остаток 4486 га
-осадки 1мм</t>
+          <t>тск
+вспашка под кукурузу 70 с нарастающим 1377 100 
+выравнивание зяби под сою 155 с нарастающим 334 5 остаток 5763 
+осадки 2 мм</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2430,47 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[('20.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('100', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('1109', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('97%,', 'O'), ('30', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('4', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('47', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('141', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('29', 'O'), ('%,', 'O'), ('остаток', 'O'), ('565', 'O'), ('га.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O'), ('осадки:', 'O'), ('бригада', 'O'), ('1', 'I-data'), ('воронежская', 'O'), ('-', 'O'), ('6', 'O'), ('мм', 'O')]</t>
+          <t>[('полевые', 'B-department'), ('работы', 'I-department'), ('аор,', 'I-department'), ('14.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'I-plant'), ('зерно', 'I-plant'), ('день', 'O'), ('26', 'O'), ('от', 'I-department'), ('начала', 'O'), ('3931', 'B-perOperation'), ('96', 'O'), ('остаток', 'O'), ('166', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('295', 'O'), ('от', 'I-department'), ('начала', 'O'), ('6804', 'O'), ('79', 'O'), ('остаток', 'O'), ('1774', 'B-operation'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'I-plant'), ('силос', 'O'), ('день', 'O'), ('128', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1881', 'O'), ('61', 'O'), ('остаток', 'O'), ('1205', 'B-operation'), ('чизелевание', 'B-plant'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('73', 'O'), ('от', 'I-department'), ('начала', 'O'), ('841', 'B-operation'), ('выравнивание', 'O'), ('зяби', 'B-plant'), ('под', 'O'), ('сахарную', 'O'), ('свеклу', 'O'), ('день', 'O'), ('384', 'O'), ('от', 'I-department'), ('начала', 'O'), ('7882', 'O'), ('70', 'B-operation'), ('остаток', 'O'), ('3368', 'I-operation'), ('выравнивание', 'O'), ('зяби', 'I-plant'), ('под', 'O'), ('подсолнечник', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1260', 'B-operation'), ('30', 'I-operation'), ('остаток', 'O'), ('2923', 'I-operation'), ('2', 'I-data'), ('следующий', 'O'), ('выравнивания', 'B-plant'), ('зяби', 'I-plant'), ('под', 'O'), ('сах.свеклу', 'O'), ('день', 'O'), ('44', 'O'), ('от', 'I-department'), ('начала', 'O'), ('469', 'B-operation'), ('4', 'I-data'), ('остаток', 'O'), ('10781', 'I-operation'), ('затравка', 'B-plant'), ('мышевидных', 'O'), ('грызунов', 'O'), ('по', 'I-department'), ('мн.травам', 'O'), ('день', 'O'), ('53', 'O'), ('от', 'I-department'), ('начала', 'O'), ('1018', 'B-operation'), ('58', 'I-operation'), ('остаток', 'O'), ('471', 'B-plant'), ('затравка', 'I-plant'), ('мышевидных', 'O'), ('грызунов', 'O'), ('по', 'I-department'), ('озимому', 'O'), ('ячменю', 'O'), ('день', 'O'), ('186', 'O'), ('от', 'I-department'), ('начала', 'O'), ('186', 'O'), ('остаток', 'O'), ('2086', 'O')]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>20.11 мир
-пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
-работало 4 агрегата.
-выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. работал 1 агрегат
-осадки:
-бригада 1 воронежская - 6 мм</t>
+          <t xml:space="preserve">полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно 
+день 26 
+от начала 3931 96 
+остаток 166 
+пахота под сою 
+день 295 
+от начала 6804 79 
+остаток 1774 
+пахота под кукурузу на силос 
+день 128 
+от начала 1881 61 
+остаток 1205 
+чизелевание под сою 
+день 73 
+от начала 841 
+выравнивание зяби под сахарную свеклу 
+день 384 
+от начала 7882 70 
+остаток 3368 
+выравнивание зяби под подсолнечник 
+день 50 
+от начала 1260 30 
+остаток 2923 
+2 следующий выравнивания зяби под сах.свеклу 
+день 44 
+от начала 469 4 
+остаток 10781 
+затравка мышевидных грызунов по мн.травам 
+день 53 
+от начала 1018 58 
+остаток 471 
+затравка мышевидных грызунов по озимому ячменю 
+день 186 
+от начала 186 
+остаток 2086 </t>
         </is>
       </c>
     </row>
@@ -2505,18 +2480,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('26.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('862', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('5519', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('274', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('896', 'B-perDay'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('276', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('666', 'B-perOperation'), ('(31%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1475га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('295', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2348', 'B-perOperation')]</t>
+          <t>[('второе', 'B-operation'), ('дискование', 'I-operation'), ('рапс', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('34', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('746', 'B-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('324', 'O'), ('дискование', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'O'), ('начала', 'O'), ('212', 'O'), ('отделение', 'O'), ('14', 'O'), ('день', 'O'), ('89', 'O'), ('от', 'O'), ('начала', 'O'), ('121', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('рапс', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('34', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('746', 'I-perOperation'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('324', 'O'), ('пахота', 'O'), ('сои', 'B-plant'), ('под', 'O'), ('кук', 'O'), ('свёкл', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('143', 'O'), ('от', 'O'), ('начала', 'O'), ('192', 'O')]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ао кропоткинское
-26.03.25
-2 подкормка озимой пшеницы - площадь за день 862 площадь с начала операции 5519
-предпосевная культивация под сах.свеклу - площадь за день 274 площадь с начала операции 896
-посев сах.свеклы - площадь за день 276 площадь с начала операции 666 (31%) 7ед.
-осталось 1475га
-выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2348</t>
+          <t>второе дискование рапс под сахарная свекла
+по пу день 34 от начала 746
+отделение 16 день 45 от начала 324
+дискование сахарная свекла под озимая пшеница
+по пу день 56 от начала 212
+отделение 14 день 89 от начала 121
+второе дискование рапс под сахарная свекла
+по пу день 34 от начала 746
+отделение 16 день 45 от начала 324
+пахота сои под кук свёкл
+по пу день 45 от начала 433
+отделение 17 день 143 от начала 192</t>
         </is>
       </c>
     </row>
@@ -2526,20 +2506,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день-149га', 'O'), ('всего-351га,67%', 'O'), ('химпрополка', 'B-operation'), ('рапса', 'B-plant'), ('152га,', 'B-perDay'), ('100%', 'O'), ('первая', 'B-operation'), ('культивация', 'I-operation'), ('зябис', 'B-plant'), ('день-180га', 'O'), ('всего-1430га,', 'O'), ('76,2%.', 'O')]</t>
+          <t>[('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('45', 'I-perDay'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('121', 'O'), ('от', 'O'), ('начала', 'O'), ('879', 'O'), ('пахота', 'B-operation'), ('сои', 'O'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('151', 'O'), ('от', 'O'), ('начала', 'O'), ('353', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('121', 'O'), ('от', 'O'), ('начала', 'O'), ('5663', 'B-operation'), ('выравнивание', 'I-operation'), ('силос', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('432', 'O'), ('от', 'O'), ('начала', 'O'), ('352', 'O')]</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>восход
-посев подсолнечника
-день-149га
-всего-351га,67%
-химпрополка рапса
-152га, 100%
-первая культивация
-зябис день-180га
-всего-1430га, 76,2%.</t>
+          <t>предпосевная культура под кукурузный силос
+по пу день 45 от начала 343
+отделение 45 день 232 от начала 234
+отделение 12 день 121 от начала 879
+пахота сои под озимая пшеница
+по пу день 151 от начала 353
+отделение 17 день 121 от начала 5663
+выравнивание силос
+по пу день 342 от начала 232
+отделение 12 день 432 от начала 352</t>
         </is>
       </c>
     </row>
@@ -2549,18 +2530,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[('27.03.25', 'B-data'), ('мир.', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1153/20', 'B-perOperation'), ('-', 'O'), ('98%', 'O'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('140/447', 'B-perOperation'), ('-', 'O'), ('24%', 'O'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('702/246', 'B-perOperation'), ('-', 'O'), ('74%', 'O'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('135', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('655/293', 'B-perOperation'), ('-', 'O'), ('69%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1047', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2205/3079', 'O'), ('-', 'O'), ('42%', 'O'), ('на', 'O'), ('севе', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед', 'I-operation')]</t>
+          <t>[('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('233', 'B-perOperation'), ('отделение', 'O'), ('23', 'I-perOperation'), ('день', 'O'), ('4', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('6', 'O'), ('отделение', 'O'), ('55', 'O'), ('день', 'O'), ('2', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('43', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('11', 'O'), ('от', 'O'), ('начала', 'O'), ('545', 'O')]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>27.03.25 мир.
-выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153/20 - 98%
-сплошная культивация под сою площадь за день 50 площадь с начала операции 140/447 - 24%
-предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702/246 - 74%
-посев сахарной свеклы площадь за день 135 площадь с начала операции 655/293 - 69%
-вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205/3079 - 42%
-на севе работало 5 ед</t>
+          <t>чизлование под озимая пшеница
+по пу день 45 от начала 233
+отделение 23 день 4 от начала 6
+отделение 55 день 2 от начала 43
+отделение 12 день 11 от начала 545</t>
         </is>
       </c>
     </row>
@@ -2570,29 +2549,18 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[('27.03.25г.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('-под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('19га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('314га(100%)', 'B-perOperation'), ('-под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('20га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('20га(10%)', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы:', 'I-plant'), ('день', 'O'), ('30га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('265га(84%)', 'B-perOperation'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('по', 'I-operation'), ('озимой', 'B-plant'), ('пшенице,2', 'I-plant'), ('след:', 'O'), ('день', 'O'), ('139га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1015га(100%)', 'B-perOperation'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('51га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('145га', 'B-perOperation'), ('(71%)', 'O')]</t>
+          <t>[('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('12', 'B-perDay'), ('от', 'I-plant'), ('начала', 'O'), ('43', 'B-perOperation'), ('отделение', 'O'), ('12', 'I-perDay'), ('день', 'O'), ('43', 'I-perOperation'), ('от', 'I-plant'), ('начала', 'O'), ('54', 'O'), ('выкашивание', 'B-operation'), ('с', 'I-plant'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('34', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('56', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('12', 'I-perDay'), ('от', 'I-plant'), ('начала', 'O'), ('45', 'O'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('32', 'O')]</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27.03.25г.
-сп коломейцево
-предпосевная культивация  
- -под сахарную свеклу: 
-   день 19га
-  от начала 314га(100%)
-  -под подсолнечник
-    день 20га
-    от начала 20га(10%)
-посев сахарной свеклы: 
-день 30га
-от начала 265га(84%)
- внесение минеральных удобрений по озимой пшенице,2 след: 
-день 139га
-от начала 1015га(100%)
-сплошная культивация под сою:
-  день 51га 
-  от начала 145га (71%)</t>
+          <t>уборка пшеница под отцовские травы травы
+по пу день 12 от начала 43
+отделение 12 день 43 от начала 54
+выкашивание с свекла под кукурузный силос
+по пу день 34 от начала 56
+отделение 45 день 12 от начала 45
+отделение 34 день 23 от начала 32</t>
         </is>
       </c>
     </row>
@@ -2602,18 +2570,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('27.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('834', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('6353', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('306', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1202', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('278', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('944', 'B-perOperation'), ('(44%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1197га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('295', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2643', 'B-perOperation')]</t>
+          <t>[('выкашивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('травы', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('54', 'B-operation'), ('от', 'I-operation'), ('начала', 'O'), ('65', 'B-plant'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('323', 'O'), ('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('454', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('45', 'O'), ('пахота', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('травы', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('34', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('567', 'O'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('235', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('876', 'O')]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ао кропоткинское
-27.03.25
-2 подкормка озимой пшеницы - площадь за день 834 площадь с начала операции 6353
-предпосевная культивация под сах.свеклу - площадь за день 306 площадь с начала операции 1202
-посев сах.свеклы - площадь за день 278 площадь с начала операции 944 (44%) 7ед.
-осталось 1197га
-выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2643</t>
+          <t>выкашивание отцовские травы травы под сахарная свекла
+по пу день 54 от начала 65
+отделение 34 день 232 от начала 323
+уборка пшеница под кукурузный силос
+по пу день 232 от начала 454
+отделение 45 день 32 от начала 45
+пахота отцовские травы травы под озимая ячмень
+по пу день 67 от начала 34
+отделение 45 день 232 от начала 567
+отделение 34 день 235 от начала 876</t>
         </is>
       </c>
     </row>
@@ -2623,15 +2594,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1139', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('8218/73%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1225', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('9228/82%', 'O'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('1898', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('30547/95%', 'B-perOperation')]</t>
+          <t>[('посев', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('221', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('455', 'O'), ('отделение', 'O'), ('68', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('243', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('143', 'O'), ('от', 'O'), ('начала', 'O'), ('1113', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('9', 'O'), ('от', 'O'), ('начала', 'O'), ('322', 'O'), ('отделение', 'O'), ('92', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('424', 'O')]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>рассвет
-посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218/73%
-культура. сахарная свёкла площадь за день 1225 площадь с начала операции 9228/82%
-2-подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547/95%</t>
+          <t>посев сахарная свекла под ячмень
+по пу день 118 от начала 221
+отделение 12 день 434 от начала 455
+отделение 68 день 342 от начала 243
+выравнивание под сою
+по пу день 143 от начала 1113
+отделение 12 день 45 от начала 232
+предпосевная культура под отцовские травы травы
+по пу день 9 от начала 322
+отделение 92 день 323 от начала 424</t>
         </is>
       </c>
     </row>
@@ -2641,15 +2618,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день-28', 'O'), ('всего-524га,', 'O'), ('100%', 'O')]</t>
+          <t>[('посев', 'B-operation'), ('травы', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('1141', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1241', 'B-perOperation'), ('отделение', 'O'), ('9', 'O'), ('день', 'O'), ('567', 'O'), ('от', 'O'), ('начала', 'O'), ('455', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('143', 'O'), ('от', 'O'), ('начала', 'O'), ('1113', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('48', 'O'), ('от', 'O'), ('начала', 'O'), ('454', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-operation'), ('травы', 'I-operation'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('148', 'O'), ('от', 'O'), ('начала', 'O'), ('565', 'O'), ('отделение', 'O'), ('92', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('940', 'O'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('565', 'O'), ('от', 'O'), ('начала', 'O'), ('356', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('985', 'O'), ('от', 'O'), ('начала', 'O'), ('363', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('567', 'O'), ('от', 'O'), ('начала', 'O'), ('383', 'B-operation'), ('посев', 'I-operation'), ('пшеница', 'I-operation'), ('озимая', 'B-plant'), ('под', 'O'), ('ячмень', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('543', 'O'), ('от', 'O'), ('начала', 'O'), ('323', 'O'), ('отделение', 'O'), ('63', 'O'), ('день', 'O'), ('923', 'O'), ('от', 'O'), ('начала', 'O'), ('230', 'O')]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>восход
-посев подсолнечника
-день-28
-всего-524га, 100%</t>
+          <t>посев травы под сахарная свекла
+по пу день 1141 от начала 1241
+отделение 9 день 567 от начала 455
+вторая подкормка под сахарная свекла
+по пу день 143 от начала 1113
+отделение 17 день 48 от начала 454
+предпосевная культура под отцовские травы травы
+по пу день 148 от начала 565
+отделение 92 день 323 от начала 940
+отделение 8 день 565 от начала 356
+отделение 7 день 985 от начала 363
+отделение 43 день 567 от начала 383
+посев пшеница озимая под ячмень
+по пу день 543 от начала 323
+отделение 63 день 923 от начала 230</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2647,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[('колхоз', 'B-department'), ('прогресс:', 'I-department'), ('химпрополка', 'B-operation'), ('оз.пшеницы', 'B-plant'), ('за', 'O'), ('день', 'O'), ('185', 'B-perDay'), ('га', 'O'), (',', 'O'), ('всего', 'O'), ('185', 'I-perDay'), ('га', 'O'), ('(13%),', 'O'), ('остаток', 'O'), ('1212', 'O'), ('га', 'O')]</t>
+          <t>[('четвертая', 'B-operation'), ('подкормка', 'I-operation'), ('ячмень', 'I-operation'), ('под', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('123', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('650', 'B-perOperation'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('33', 'O'), ('от', 'O'), ('начала', 'O'), ('5749', 'O'), ('пахота', 'B-operation'), ('под', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('142', 'O'), ('от', 'O'), ('начала', 'O'), ('830', 'O'), ('отделение', 'O'), ('9', 'I-operation'), ('день', 'O'), ('293', 'O'), ('от', 'O'), ('начала', 'O'), ('194', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('472', 'O'), ('от', 'O'), ('начала', 'O'), ('4639', 'O'), ('отделение', 'O'), ('47', 'O'), ('день', 'O'), ('573', 'O'), ('от', 'O'), ('начала', 'O'), ('124', 'B-operation'), ('дискование', 'I-operation'), ('кукурузы', 'I-operation'), ('силос', 'O'), ('под', 'I-operation'), ('рапс', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('241', 'O'), ('от', 'O'), ('начала', 'O'), ('730', 'O'), ('отделение', 'O'), ('47', 'O'), ('день', 'O'), ('422', 'O'), ('от', 'O'), ('начала', 'O'), ('649', 'O'), ('отделение', 'O'), ('37', 'O'), ('день', 'O'), ('736', 'O'), ('от', 'O'), ('начала', 'O'), ('839', 'O')]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>колхоз прогресс: химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
+          <t>четвертая подкормка ячмень под озимая пшеница
+по пу день 123 от начала 650
+отделение 8 день 33 от начала 5749
+пахота под сахарная свекла
+по пу день 142 от начала 830
+отделение 9 день 293 от начала 194
+отделение 17 день 472 от начала 4639
+отделение 47 день 573 от начала 124
+дискование кукурузы силос под рапс
+по пу день 241 от начала 730
+отделение 47 день 422 от начала 649
+отделение 37 день 736 от начала 839</t>
         </is>
       </c>
     </row>
@@ -2674,16 +2673,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[('28.03.25', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('178', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('880/68', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('150', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('805/143', 'B-perOperation'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('995', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('3200/2084', 'B-perOperation'), ('на', 'I-operation'), ('севе', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед.', 'O')]</t>
+          <t>[('дискование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('491', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('832', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('492', 'O'), ('от', 'O'), ('начала', 'O'), ('993', 'O'), ('отделение', 'O'), ('9', 'I-perDay'), ('день', 'O'), ('743', 'O'), ('от', 'O'), ('начала', 'O'), ('890', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('7309', 'O'), ('от', 'O'), ('начала', 'O'), ('790', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('464', 'O'), ('от', 'O'), ('начала', 'O'), ('5793', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('638', 'O'), ('от', 'O'), ('начала', 'O'), ('378', 'O'), ('отделение', 'O'), ('47', 'O'), ('день', 'O'), ('538', 'O'), ('от', 'O'), ('начала', 'O'), ('638', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('492', 'O'), ('от', 'O'), ('начала', 'O'), ('824', 'O'), ('отделение', 'O'), ('10', 'O'), ('день', 'O'), ('492', 'O'), ('от', 'O'), ('начала', 'O'), ('824', 'O'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('291', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('832', 'I-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('432', 'O'), ('от', 'O'), ('начала', 'O'), ('909', 'O'), ('отделение', 'O'), ('9', 'I-perDay'), ('день', 'O'), ('743', 'O'), ('от', 'O'), ('начала', 'O'), ('890', 'O')]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>28.03.25 мир.
-предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880/68
-посев сахарной свеклы площадь за день 150 площадь с начала операции 805/143
-вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200/2084
-на севе работало 5 ед.</t>
+          <t>дискование под озимая пшеница
+по пу день 491 от начала 832
+отделение 12 день 492 от начала 993
+отделение 9 день 743 от начала 890
+выравнивание зяби под подсолнухи
+по пу день 7309 от начала 790
+отделение 16 день 464 от начала 5793
+выравнивание под сахарная свекла
+по пу день 638 от начала 378
+отделение 47 день 538 от начала 638
+отделение 11 день 492 от начала 824
+отделение 10 день 492 от начала 824
+дискование под рапс
+по пу день 291 от начала 832
+отделение 12 день 432 от начала 909
+отделение 9 день 743 от начала 890</t>
         </is>
       </c>
     </row>
@@ -2693,26 +2703,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[('28.03.25г.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('-под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('40га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('60га(29%)', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы:', 'I-plant'), ('день', 'O'), ('30га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('295га(94%)', 'B-perOperation'), ('посев', 'I-operation'), ('подсолнечника', 'B-plant'), ('день', 'O'), ('25га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('25га(12%)', 'B-perOperation'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('55га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('200га', 'B-perOperation'), ('(80%)', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('146', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('9212', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('93', 'O'), ('от', 'O'), ('начала', 'O'), ('422', 'O'), ('отделение', 'O'), ('12', 'I-perOperation'), ('день', 'O'), ('36', 'O'), ('от', 'O'), ('начала', 'O'), ('134', 'O'), ('отделение', 'O'), ('19', 'O'), ('день', 'O'), ('84', 'O'), ('от', 'O'), ('начала', 'O'), ('119', 'B-operation'), ('пахота', 'I-operation'), ('ячмень', 'I-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('19', 'O'), ('от', 'O'), ('начала', 'O'), ('732', 'O'), ('отделение', 'O'), ('19', 'O'), ('день', 'O'), ('13', 'O'), ('от', 'O'), ('начала', 'O'), ('807', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('119', 'I-operation'), ('от', 'O'), ('начала', 'O'), ('119', 'I-operation'), ('отделение', 'O'), ('12', 'I-perOperation'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('39', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('80', 'I-operation'), ('от', 'O'), ('начала', 'O'), ('80', 'I-operation')]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>28.03.25г.
-сп коломейцево
-предпосевная культивация  
-  -под подсолнечник
-    день 40га
-    от начала 60га(29%)
-посев сахарной свеклы: 
-день 30га
-от начала 295га(94%)
-посев подсолнечника 
-  день 25га
-  от начала 25га(12%)
-сплошная культивация под сою:
-  день 55га 
-  от начала 200га (80%)</t>
+          <t>выравнивание под сахарная свекла
+по пу день 146 от начала 9212
+отделение 11 день 93 от начала 422
+отделение 12 день 36 от начала 134
+отделение 19 день 84 от начала 119
+пахота ячмень под сою
+по пу день 19 от начала 732
+отделение 19 день 13 от начала 807
+выравнивание под кукурузы зерно
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80</t>
         </is>
       </c>
     </row>
@@ -2722,18 +2729,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('28.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('622', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('6975', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('426', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1628', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('285', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1229', 'B-perOperation'), ('(57%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('912га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('161', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2804', 'B-perOperation')]</t>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('432', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('740', 'B-perOperation'), ('отделение', 'O'), ('39', 'O'), ('день', 'O'), ('364', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('394', 'O'), ('отделение', 'O'), ('19', 'O'), ('день', 'O'), ('1232', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('32539', 'O'), ('отделение', 'O'), ('7', 'I-perOperation'), ('день', 'O'), ('52', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('134', 'B-operation'), ('выравнивание', 'I-operation'), ('кукурузы', 'I-operation'), ('силос', 'I-plant'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('729', 'O'), ('отделение', 'O'), ('47', 'O'), ('день', 'O'), ('432', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('909', 'O'), ('отделение', 'O'), ('37', 'O'), ('день', 'O'), ('712', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('839', 'B-operation'), ('внесение', 'I-operation'), ('минеральные', 'I-operation'), ('удобрений', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('532', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('322', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('343', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('212', 'O')]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ао кропоткинское
-28.03.25
-2 подкормка озимой пшеницы - площадь за день 622 площадь с начала операции 6975
-предпосевная культивация под сах.свеклу - площадь за день 426 площадь с начала операции 1628
-посев сах.свеклы - площадь за день 285 площадь с начала операции 1229 (57%) 7ед.
-осталось 912га
-выравнивание зяби под кукурузу - площадь за день 161 площадь с начала операции 2804</t>
+          <t>пахота под кукурузный силос
+по пу день 432 от начала 740
+отделение 39 день 364 от начала 394
+отделение 19 день 1232 от начала 32539
+отделение 7 день 52 от начала 134
+выравнивание кукурузы силос под озимая пшеница
+по пу день 78 от начала 729
+отделение 47 день 432 от начала 909
+отделение 37 день 712 от начала 839
+внесение минеральные удобрений под сахарная свёклу
+по пу день 532 от начала 322
+отделение 43 день 343 от начала 212</t>
         </is>
       </c>
     </row>
@@ -2743,17 +2755,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1200', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('9359/83%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1014', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10241/91%', 'O'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('1753', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('31924/99%', 'B-perOperation'), ('герб.', 'B-operation'), ('обработка', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('643', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('643/2%', 'B-perOperation'), ('герб.', 'I-operation'), ('почвен.', 'B-operation'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('100га', 'B-perOperation')]</t>
+          <t>[('дискование', 'B-operation'), ('кукурузы', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4321', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('420', 'B-perOperation'), ('отделение', 'O'), ('39', 'O'), ('день', 'O'), ('3232', 'O'), ('от', 'O'), ('начала', 'O'), ('324', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('52', 'O'), ('от', 'O'), ('начала', 'O'), ('134', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('343', 'O'), ('от', 'O'), ('начала', 'O'), ('133', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('22', 'O'), ('от', 'O'), ('начала', 'O'), ('32', 'I-perDay'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('кукурузы', 'I-operation'), ('силос', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('78', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('349', 'B-operation'), ('внесение', 'I-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('422', 'O'), ('от', 'O'), ('начала', 'O'), ('342', 'O'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('319', 'O'), ('от', 'O'), ('начала', 'O'), ('943', 'O')]</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>рассвет
-посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359/83%
-культура. сахарная свёкла площадь за день 1014 площадь с начала операции 10241/91%
-2-подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924/99%
-герб. обработка озимая пшеницы площадь за день 643 площадь с начала операции 643/2%
-герб. почвен. сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
+          <t>дискование кукурузы силос под рапс
+по пу день 4321 от начала 420
+отделение 39 день 3232 от начала 324
+отделение 7 день 52 от начала 134
+отделение 43 день 343 от начала 133
+отделение 43 день 22 от начала 32
+внесение минеральные удобрений под кукурузы силос
+по пу день 342 от начала 78
+отделение 27 день 232 от начала 349
+внесение минеральные удобрений под озимая пшеница
+по пу день 422 от начала 342
+отделение 18 день 319 от начала 943</t>
         </is>
       </c>
     </row>
@@ -2763,22 +2781,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[('восход', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('кук-219га,', 'B-plant'), ('21%', 'O'), ('посев', 'I-operation'), ('кук-21га,', 'O'), ('2%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день-474га,', 'O'), ('всего-692,31,5%', 'O'), ('1-я', 'B-operation'), ('срадство', 'I-operation'), ('защиты', 'I-operation'), ('растений', 'I-operation'), ('по', 'I-operation'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('136га,', 'B-perDay'), ('6%', 'O'), ('предпосевное', 'B-operation'), ('внесение', 'I-operation'), ('под', 'O'), ('посев', 'I-operation'), ('кукурузный', 'B-plant'), ('ам', 'O'), ('селитра-114га', 'O'), (',86%.', 'O'), ('до', 'O'), ('всходовое', 'O'), ('боронование', 'O'), ('подсолн-105га,', 'O'), ('20%', 'O')]</t>
+          <t>[('дискование', 'B-operation'), ('сахарной', 'I-operation'), ('свеклы', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('41', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('442', 'B-perOperation'), ('отделение', 'O'), ('343', 'O'), ('день', 'O'), ('332', 'O'), ('от', 'O'), ('начала', 'O'), ('1562', 'O'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('584', 'O'), ('от', 'O'), ('начала', 'O'), ('98', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('242', 'O'), ('от', 'O'), ('начала', 'O'), ('385', 'B-operation'), ('посев', 'O'), ('под', 'O'), ('кукурузу', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('342', 'O'), ('от', 'O'), ('начала', 'O'), ('78', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('349', 'B-operation'), ('вторая', 'I-operation'), ('подкормка', 'I-operation'), ('озимой', 'I-operation'), ('пшеницы', 'B-plant'), ('под', 'O'), ('сахарная', 'I-plant'), ('свеклы', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('422', 'O'), ('от', 'O'), ('начала', 'O'), ('342', 'O'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('319', 'O'), ('от', 'O'), ('начала', 'O'), ('943', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('52', 'O'), ('от', 'O'), ('начала', 'O'), ('134', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('343', 'O'), ('от', 'O'), ('начала', 'O'), ('133', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('22', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('32', 'O')]</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>восход
-предпосевная культивация под
-кук-219га, 21%
-посев кук-21га, 2%
-вторая подкормка озимая пшеница день-474га, всего-692,31,5%
-1-я срадство защиты растений по озимая пшеница
-136га, 6%
-предпосевное внесение  под
-посев кукурузный ам селитра-114га
-,86%. до всходовое
-боронование подсолн-105га, 20%</t>
+          <t>дискование сахарной свеклы под подсолнечник
+по пу день 41 от начала 442
+отделение 343 день 332 от начала 1562
+внесение минеральные удобрений под сою
+по пу день 584 от начала 98
+отделение 27 день 242 от начала 385
+посев под кукурузу
+по пу день 342 от начала 78
+отделение 27 день 232 от начала 349
+вторая подкормка озимой пшеницы под сахарная свеклы
+по пу день 422 от начала 342
+отделение 18 день 319 от начала 943
+отделение 7 день 52 от начала 134
+отделение 43 день 343 от начала 133
+отделение 43 день 22 от начала 32</t>
         </is>
       </c>
     </row>
@@ -2788,17 +2810,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('29.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('279', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('7254', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('241', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1869', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('336', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1565', 'B-perOperation'), ('(73%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('576га', 'O')]</t>
+          <t>[('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('637', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('783', 'B-perOperation'), ('отделение', 'O'), ('3', 'I-perDay'), ('день', 'O'), ('830', 'O'), ('от', 'O'), ('начала', 'O'), ('8903', 'O'), ('посев', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('783', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('890', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('389', 'O'), ('от', 'O'), ('начала', 'O'), ('636', 'B-operation'), ('дискование', 'I-operation'), ('озимой', 'I-operation'), ('пшеницы', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклы', 'B-department'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('904', 'O'), ('от', 'O'), ('начала', 'O'), ('748', 'O'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('235', 'O'), ('от', 'O'), ('начала', 'O'), ('965', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('263', 'O'), ('от', 'O'), ('начала', 'O'), ('473', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('273', 'O'), ('от', 'O'), ('начала', 'O'), ('221', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('237', 'O'), ('от', 'O'), ('начала', 'O'), ('859', 'B-operation'), ('чизлование', 'B-plant'), ('под', 'O'), ('ячмень', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('3737', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('283', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('378', 'O'), ('от', 'O'), ('начала', 'O'), ('478', 'O')]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ао кропоткинское
-29.03.25
-2 подкормка озимой пшеницы - площадь за день 279 площадь с начала операции 7254
-предпосевная культивация под сах.свеклу - площадь за день 241 площадь с начала операции 1869
-посев сах.свеклы - площадь за день 336 площадь с начала операции 1565 (73%) 7ед.
-осталось 576га</t>
+          <t>предпосевная культивация под кукурузу
+по пу день 637 от начала 783
+отделение 3 день 830 от начала 8903
+посев под озимая пшеница
+по пу день 783 от начала 890
+отделение 12 день 389 от начала 636
+дискование озимой пшеницы под сахарная свеклы
+по пу день 904 от начала 748
+отделение 18 день 235 от начала 965
+отделение 7 день 263 от начала 473
+отделение 43 день 273 от начала 221
+отделение 43 день 237 от начала 859
+чизлование под ячмень
+по пу день 3737 от начала 283
+отделение 27 день 378 от начала 478</t>
         </is>
       </c>
     </row>
@@ -2808,44 +2839,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[('полевые', 'O'), ('работы', 'O'), ('аор,', 'B-department'), ('13.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'O'), ('зерно:', 'O'), ('день', 'O'), ('-', 'O'), ('86', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('3905', 'B-perOperation'), ('га', 'O'), ('(95%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('192', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('260', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('6509', 'B-perOperation'), ('га', 'O'), ('(75%)', 'O'), ('остаток-', 'O'), ('2169', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'O'), ('силос:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('156', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1657', 'B-perOperation'), ('га(54%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('1429', 'O'), ('га', 'O'), ('чизелевание', 'B-operation'), ('под', 'O'), ('сою:', 'I-plant'), ('день', 'O'), ('-54', 'O'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('768', 'B-perOperation'), ('га', 'O'), ('остаток', 'O'), ('от', 'O'), ('плана', 'O'), ('-', 'O'), ('38', 'O'), ('га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('312', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-7498', 'O'), ('га', 'O'), ('(67%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('3752', 'O'), ('га', 'O'), ('2', 'I-data'), ('след', 'B-operation'), ('выравнивания', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах.свеклу:', 'B-plant'), ('день-', 'O'), ('101', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('425', 'B-perOperation'), ('га', 'O'), ('(4%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('10825', 'O'), ('га', 'O'), ('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('мн.травам:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('88', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-965', 'O'), ('га', 'O'), ('(55%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('524', 'O'), ('га', 'O'), ('посев', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('(товарной):', 'O'), ('день', 'O'), ('-', 'O'), ('85', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('28416', 'B-perOperation'), ('га', 'O'), ('(100%)', 'O'), ('посев', 'I-operation'), ('озимых', 'O'), ('зерновых', 'O'), ('по', 'O'), ('аор', 'I-department'), ('завершен.', 'O')]</t>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('263', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('489', 'B-perOperation'), ('отделение', 'O'), ('15', 'O'), ('день', 'O'), ('637', 'O'), ('от', 'O'), ('начала', 'O'), ('562', 'O'), ('отделение', 'O'), ('35', 'O'), ('день', 'O'), ('382', 'O'), ('от', 'O'), ('начала', 'O'), ('226', 'O'), ('посев', 'B-operation'), ('кукурузы', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('783', 'O'), ('от', 'O'), ('начала', 'O'), ('890', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('389', 'O'), ('от', 'O'), ('начала', 'O'), ('636', 'B-operation'), ('дискование', 'I-operation'), ('озимой', 'I-operation'), ('пшеницы', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свеклы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('90343', 'O'), ('от', 'O'), ('начала', 'O'), ('74232', 'O'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('789', 'O'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('21', 'O'), ('от', 'O'), ('начала', 'O'), ('411', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('21', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('763', 'O'), ('от', 'O'), ('начала', 'O'), ('829', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'B-plant'), ('под', 'O'), ('кукурузы', 'I-operation'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('3737', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('283', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('378', 'O'), ('от', 'O'), ('начала', 'O'), ('478', 'O')]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>полевые работы аор, 13.11.2024.
-пахота под кукурузу на зерно:
-день - 86 га 
-от начала- 3905 га (95%)
-остаток - 192 га
-пахота под сою:
-день - 260 га 
-от начала - 6509 га (75%)
-остаток- 2169 га 
-пахота под кукурузу на силос:
-день - 156 га 
-от начала - 1657 га(54%)
-остаток - 1429 га 
-чизелевание под сою:
-день -54 га 
-от начала - 768 га
-остаток от плана - 38 га 
-выравнивание зяби под сахарную свеклу:
-день - 312 га 
-от начала-7498 га (67%)
-остаток - 3752 га
-2 след выравнивания зяби под сах.свеклу:
-день- 101 га 
-от начала- 425 га (4%)
-остаток - 10825 га 
-затравка мышевидных грызунов по мн.травам:
-день - 88 га 
-от начала -965 га (55%)
-остаток - 524 га
-посев озимой пшеницы (товарной):
-день - 85 га 
-от начала - 28416 га (100%)
-посев озимых зерновых по аор завершен.</t>
+          <t>выравнивание под сахарная свекла
+по пу день 263 от начала 489
+отделение 15 день 637 от начала 562
+отделение 35 день 382 от начала 226
+посев кукурузы под сахарная свекла
+по пу день 783 от начала 890
+отделение 12 день 389 от начала 636
+дискование озимой пшеницы под сахарная свеклы
+по пу день 90343 от начала 74232
+отделение 18 день 23 от начала 789
+отделение 54 день 21 от начала 411
+отделение 12 день 21 от начала 232
+отделение 11 день 763 от начала 829
+предпосевная культура под кукурузы силос
+по пу день 3737 от начала 283
+отделение 27 день 378 от начала 478</t>
         </is>
       </c>
     </row>
@@ -2855,17 +2869,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[('14.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('57', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('562', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('83%,', 'O'), ('110', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('60', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('799', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('70%,', 'O'), ('340', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('5', 'I-perDay'), ('агрегатов.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('130', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('874', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('92', 'O'), ('%,', 'O'), ('78', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат.', 'O')]</t>
+          <t>[('пахота', 'B-operation'), ('кукурузы', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('642', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('902', 'B-perOperation'), ('отделение', 'O'), ('1', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('322', 'O'), ('отделение', 'O'), ('21', 'O'), ('день', 'O'), ('748', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('211', 'O'), ('отделение', 'O'), ('19', 'O'), ('день', 'O'), ('133', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('21', 'O'), ('дискование', 'B-operation'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('212', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('122', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('31', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('137', 'B-operation'), ('пахота', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('48', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('233', 'O'), ('отделение', 'O'), ('21', 'O'), ('день', 'O'), ('345', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('33', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3232', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('14', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('535', 'O'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('343', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'O')]</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>14.11 мир
-пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
-пахота зяби под сою 60 га день, 799 га от начала, 70%, 340 га остаток.
-работало 5 агрегатов.
-выравнивание зяби под сахарную свёклу 130 га день, 874 га от начала, 92 %, 78 га остаток.
-работал 1 агрегат.</t>
+          <t>пахота кукурузы под ячмень
+по пу день 642 от начала 902
+отделение 1 день 32 от начала 322
+отделение 21 день 748 от начала 211
+отделение 19 день 133 от начала 21
+дискование озимая пшеница под сахарная свеклы
+по пу день 212 от начала 122
+отделение 16 день 31 от начала 137
+пахота культура под озимая пшеница
+по пу день 48 от начала 233
+отделение 21 день 345 от начала 232
+отделение 33 день 323 от начала 3232
+второе дискование под многолетние травы
+по пу день 14 от начала 535
+отделение 13 день 343 от начала 232</t>
         </is>
       </c>
     </row>
@@ -2875,22 +2898,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[('14.11.24.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('29га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('315га(100%)', 'B-perOperation'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('день', 'O'), ('20га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('125га(39%)', 'B-perOperation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('14га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('14га', 'I-perDay')]</t>
+          <t>[('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('65', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('223', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('213', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('123', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('323', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('212', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('144', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('кукурузный', 'I-plant'), ('силос', 'I-plant'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('233', 'O'), ('отделение', 'O'), ('2', 'I-perOperation'), ('день', 'O'), ('12', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('422', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('формирование', 'O'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('119', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('434', 'O'), ('отделение', 'O'), ('32', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'O')]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>14.11.24.
-сп коломейцево 
-пахота под сахарная свекла
-день 29га
-от начала 315га(100%)
-выравнивание под сахарную свёклу 
-день 20га
-от начала 125га(39%)
-выравнивание под подсолнечник
-день 14га
-от начала 14га</t>
+          <t>пахота зяби под сахарная свекла
+по пу день 65 от начала 223
+отделение 12 день 213 от начала 123
+выравнивание зяби под кукурузный силос
+по пу день 32 от начала 323
+отделение 11 день 212 от начала 144
+второе дискование кукурузный силос под сахарная свекла
+по пу день 232 от начала 233
+отделение 2 день 12 от начала 422
+второе дискование отцовские травы формирование под кукурузы силос
+по пу день 119 от начала 434
+отделение 32 день 323 от начала 232</t>
         </is>
       </c>
     </row>
@@ -2900,15 +2924,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[('тск', 'B-department'), ('вспашка', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('70', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('1377', 'B-perOperation'), ('га', 'O'), ('(100%)', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('155', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('334', 'B-perOperation'), ('га', 'O'), ('(5%)', 'O'), ('остаток', 'O'), ('5763', 'O'), ('га', 'O'), ('осадки', 'O'), ('2', 'O'), ('мм', 'O')]</t>
+          <t>[('11.2', 'B-data'), ('выкашивание', 'B-operation'), ('кукурузы', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('4643', 'B-perOperation'), ('отделение', 'O'), ('92', 'O'), ('день', 'O'), ('643', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('222', 'O'), ('отделение', 'O'), ('23', 'O'), ('день', 'O'), ('647', 'O'), ('от', 'O'), ('начала', 'O'), ('672', 'O'), ('выравнивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('травы', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('323', 'O'), ('отделение', 'O'), ('11', 'I-data'), ('день', 'O'), ('212', 'O'), ('от', 'O'), ('начала', 'O'), ('144', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('пшеница', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('233', 'O'), ('отделение', 'O'), ('2', 'I-data'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('422', 'B-operation'), ('выравнивание', 'I-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('формирование', 'O'), ('под', 'O'), ('кукурузы', 'I-operation'), ('силос', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('119', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('434', 'O'), ('отделение', 'O'), ('32', 'I-perDay'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>тск
-вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
-выравнивание зяби под сою 155 га/ с нарастающим 334 га (5%) остаток 5763 га
-осадки 2 мм</t>
+          <t>11.2 выкашивание кукурузы силос под сахарная свекла
+по пу день 325 от начала 4643
+отделение 92 день 643 от начала 222
+отделение 23 день 647 от начала 672
+выравнивание отцовские травы травы под кукурузный силос
+по пу день 32 от начала 323
+отделение 11 день 212 от начала 144
+второе дискование пшеница под сахарная свекла
+по пу день 232 от начала 233
+отделение 2 день 12 от начала 422
+выравнивание отцовские травы формирование под кукурузы силос
+по пу день 119 от начала 434
+отделение 32 день 323 от начала 232</t>
         </is>
       </c>
     </row>
@@ -2918,47 +2951,3205 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[('полевые', 'O'), ('работы', 'O'), ('аор,', 'B-department'), ('14.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'O'), ('зерно:', 'O'), ('день', 'O'), ('-', 'O'), ('26', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('3931', 'B-perOperation'), ('га', 'O'), ('(96%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('166', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('295', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('6804', 'B-perOperation'), ('га', 'O'), ('(79%)', 'O'), ('остаток-', 'O'), ('1774', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'O'), ('силос:', 'O'), ('день', 'O'), ('-', 'O'), ('128', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1881', 'B-perOperation'), ('га(61%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('1205', 'O'), ('га', 'O'), ('чизелевание', 'B-operation'), ('под', 'O'), ('сою:', 'I-plant'), ('день', 'O'), ('-73', 'O'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('841', 'B-perOperation'), ('га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('384', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-7882', 'O'), ('га', 'O'), ('(70%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('3368', 'O'), ('га', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('50', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1260', 'B-perOperation'), ('га', 'O'), ('(30%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('2923', 'O'), ('га', 'O'), ('2', 'I-data'), ('след', 'B-operation'), ('выравнивания', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах.свеклу:', 'B-plant'), ('день-', 'O'), ('44', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('469', 'B-perOperation'), ('га', 'O'), ('(4%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('10781', 'O'), ('га', 'O'), ('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('мн.травам:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('53', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-1018', 'O'), ('га', 'O'), ('(58%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('471', 'O'), ('га', 'O'), ('затравка', 'I-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('озимому', 'B-plant'), ('ячменю:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('186', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('186', 'I-perDay'), ('га', 'O'), ('остаток', 'O'), ('-', 'O'), ('2086', 'O'), ('га', 'O')]</t>
+          <t>[('11.3', 'B-data'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('травы', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('325', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('4643', 'B-perOperation'), ('отделение', 'O'), ('92', 'O'), ('день', 'O'), ('643', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('222', 'O'), ('отделение', 'O'), ('23', 'O'), ('день', 'O'), ('647', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('672', 'O'), ('выравнивание', 'B-operation'), ('кукурузы', 'I-operation'), ('силос', 'O'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('115', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('323', 'O'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('320', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('463', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('пшеница', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('620', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('463', 'I-operation'), ('отделение', 'O'), ('2', 'I-perDay'), ('день', 'O'), ('6379', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('748', 'B-operation'), ('выравнивание', 'I-operation'), ('отцовские', 'I-operation'), ('травы', 'I-operation'), ('формирование', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('189', 'B-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('748', 'I-operation'), ('отделение', 'O'), ('58', 'O'), ('день', 'O'), ('849', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('323', 'O')]</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>полевые работы аор, 14.11.2024.
-пахота под кукурузу на зерно:
-день - 26 га 
-от начала - 3931 га (96%)
-остаток - 166 га 
-пахота под сою:
-день - 295 га 
-от начала - 6804 га (79%)
-остаток- 1774 га 
-пахота под кукурузу на силос:
-день - 128 га 
-от начала - 1881 га(61%)
-остаток - 1205 га 
-чизелевание под сою:
-день -73 га 
-от начала - 841 га
-выравнивание зяби под сахарную свеклу:
-день - 384 га 
-от начала-7882 га (70%)
-остаток - 3368 га
-выравнивание зяби под подсолнечник:
-день - 50 га 
-от начала - 1260 га (30%)
-остаток - 2923 га 
-2 след выравнивания зяби под сах.свеклу:
-день- 44 га 
-от начала- 469 га (4%)
-остаток - 10781 га 
-затравка мышевидных грызунов по мн.травам:
-день - 53 га 
-от начала -1018 га (58%)
-остаток - 471 га
-затравка мышевидных грызунов по озимому ячменю:
-день - 186 га 
-от начала- 186 га 
-остаток - 2086 га</t>
+          <t>11.3 второе дискование отцовские травы травы под сахарная свекла
+по пу день 325 от начала 4643
+отделение 92 день 643 от начала 222
+отделение 23 день 647 от начала 672
+выравнивание кукурузы силос под кукурузный силос
+по пу день 115 от начала 323
+отделение 13 день 320 от начала 463
+второе дискование пшеница под сахарная свекла
+по пу день 620 от начала 463
+отделение 2 день 6379 от начала 748
+выравнивание отцовские травы формирование под сахарная свекла
+по пу день 189 от начала 748
+отделение 58 день 849 от начала 323</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('334', 'B-perOperation'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('14', 'O'), ('от', 'O'), ('начала', 'O'), ('544', 'O'), ('отделение', 'O'), ('15', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('121', 'O'), ('дискование', 'B-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('653', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('442', 'O'), ('отделение', 'O'), ('23', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>выравнивание под озимая пшеница
+по пу день 54 от начала 334
+отделение 13 день 14 от начала 544
+отделение 15 день 12 от начала 121
+дискование пшеница под сахарная свекла
+по пу день 653 от начала 232
+отделение 22 день 12 от начала 442
+отделение 23 день 43 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[('16.11', 'B-data'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('12', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('554', 'B-perOperation'), ('отделение', 'O'), ('14', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('443', 'O'), ('чизлование', 'I-operation'), ('под', 'O'), ('свекла', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('334', 'O'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('559', 'O'), ('отделение', 'O'), ('98', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('778', 'B-operation'), ('посев', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('56', 'O'), ('от', 'O'), ('начала', 'O'), ('334', 'O'), ('отделение', 'O'), ('25', 'O'), ('день', 'O'), ('53', 'O'), ('от', 'O'), ('начала', 'O'), ('665', 'O')]</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16.11 чизлование под озимая ячмень
+по пу день 12 от начала 554
+отделение 14 день 43 от начала 443
+чизлование под свекла
+по пу день 45 от начала 334
+отделение 34 день 32 от начала 559
+отделение 98 день 23 от начала 778
+посев под сахарная свекла
+по пу день 56 от начала 334
+отделение 25 день 53 от начала 665</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[('дискование', 'B-operation'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('323', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2432', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('211', 'O'), ('от', 'O'), ('начала', 'O'), ('214', 'O'), ('посев', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('433', 'O'), ('от', 'O'), ('начала', 'O'), ('434', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('223', 'O'), ('от', 'O'), ('начала', 'O'), ('998', 'O')]</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>дискование с свекла под кукурузы силос
+по пу день 323 от начала 2432
+отделение 12 день 211 от начала 214
+посев сахарная свекла под кукурузы силос
+по пу день 433 от начала 434
+отделение 45 день 223 от начала 998</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[('12.04.25', 'B-data'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('983', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('238', 'B-perOperation'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('211', 'O'), ('от', 'O'), ('начала', 'O'), ('414', 'O'), ('посев', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('844', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('243', 'O'), ('от', 'O'), ('начала', 'O'), ('348', 'O'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('131', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'B-operation'), ('посев', 'I-operation'), ('под', 'O'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('2322', 'O'), ('отделение', 'O'), ('32', 'O'), ('день', 'O'), ('213', 'O'), ('от', 'O'), ('начала', 'O'), ('3232', 'O'), ('отделение', 'O'), ('32', 'O'), ('день', 'O'), ('3232', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'B-plant'), ('под', 'O'), ('подсолнухи', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('12', 'I-data'), ('от', 'O'), ('начала', 'O'), ('322', 'O'), ('отделение', 'O'), ('65', 'O'), ('день', 'O'), ('322', 'O'), ('от', 'O'), ('начала', 'O'), ('2323', 'O')]</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>12.04.25 второе дискование с свекла под кукурузы силос
+по пу день 983 от начала 238
+отделение 13 день 211 от начала 414
+посев сахарная свекла под кукурузы силос
+по пу день 323 от начала 844
+отделение 45 день 243 от начала 348
+отделение 34 день 131 от начала 234
+посев под с свекла
+по пу день 323 от начала 2322
+отделение 32 день 213 от начала 3232
+отделение 32 день 3232 от начала 232
+выравнивание зяби под подсолнухи
+по пу день 12 от начала 322
+отделение 65 день 322 от начала 2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[('2.12', 'B-data'), ('выравнивание', 'B-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('21', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('764', 'B-perOperation'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('547', 'O'), ('от', 'O'), ('начала', 'O'), ('750', 'O'), ('дискование', 'B-operation'), ('кукурузы', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('рапс', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('324', 'O'), ('от', 'O'), ('начала', 'O'), ('424', 'O'), ('отделение', 'O'), ('42', 'O'), ('день', 'O'), ('5638', 'O'), ('от', 'O'), ('начала', 'O'), ('5445', 'B-operation'), ('чизлование', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('7509', 'O'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('322', 'O'), ('от', 'O'), ('начала', 'O'), ('323', 'O')]</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2.12 выравнивание под ячмень
+по пу день 21 от начала 764
+отделение 54 день 547 от начала 750
+дискование кукурузы силос под рапс
+по пу день 324 от начала 424
+отделение 42 день 5638 от начала 5445
+чизлование под озимая ячмень
+по пу день 32 от начала 7509
+отделение 34 день 322 от начала 323</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('под', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('323', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('323', 'I-perDay'), ('отделение', 'O'), ('76', 'O'), ('день', 'O'), ('644', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('453', 'O'), ('посев', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('320', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('32', 'I-perDay'), ('день', 'O'), ('323', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('435', 'O')]</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>подкормка под озимая пшеница
+по пу день 323 от начала 323
+отделение 76 день 644 от начала 343
+отделение 17 день 32 от начала 453
+посев сахарная свекла
+по пу день 320 от начала 242
+отделение 32 день 323 от начала 435</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('2221', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('142', 'B-perOperation'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('242', 'O'), ('от', 'O'), ('начала', 'O'), ('245', 'O'), ('отделение', 'O'), ('78', 'O'), ('день', 'O'), ('4224', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('подкормка', 'B-operation'), ('под', 'I-operation'), ('подсолнухи', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('9747', 'O'), ('от', 'O'), ('начала', 'O'), ('866', 'O'), ('отделение', 'O'), ('46', 'O'), ('день', 'O'), ('2323', 'O'), ('от', 'O'), ('начала', 'O'), ('3535', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('780', 'B-operation'), ('подкормка', 'I-operation'), ('под', 'I-operation'), ('кукурузы', 'B-plant'), ('зерно', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('7865', 'O'), ('от', 'O'), ('начала', 'O'), ('282', 'O'), ('отделение', 'O'), ('день', 'O'), ('563', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>посев сахарная свекла
+по пу день 2221 от начала 142
+отделение 18 день 242 от начала 245
+отделение 78 день 4224 от начала 4343
+подкормка под подсолнухи
+по пу день 9747 от начала 866
+отделение 46 день 2323 от начала 3535
+отделение 43 день 434 от начала 780
+подкормка под кукурузы зерно
+по пу день 7865 от начала 282
+отделение день 563 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('кукурузы', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('323', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('4343', 'B-perOperation'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('3232', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>выравнивание кукурузы под сою
+по пу день 323 от начала 4343
+отделение 7 день 3232 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'I-operation'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('2442', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('324', 'O'), ('от', 'O'), ('начала', 'O'), ('3232', 'O'), ('посев', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('234', 'O'), ('от', 'O'), ('начала', 'O'), ('2322', 'O'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('892', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'I-perOperation'), ('внесен', 'B-operation'), ('кас', 'B-plant'), ('под', 'I-operation'), ('озимая', 'I-plant'), ('пшеница', 'B-department'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('5932', 'O'), ('от', 'O'), ('начала', 'O'), ('6748', 'O'), ('отделение', 'O'), ('32', 'I-perOperation'), ('день', 'O'), ('89', 'O'), ('от', 'O'), ('начала', 'O'), ('765', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('35534', 'O'), ('от', 'O'), ('начала', 'O'), ('5457', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('235', 'O'), ('от', 'O'), ('начала', 'O'), ('2532', 'O'), ('отделение', 'O'), ('32', 'I-perOperation'), ('день', 'O'), ('324', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O')]</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>подкормка сахарная свекла под кукурузы зерно
+по пу день 2442 от начала 232
+отделение день 324 от начала 3232
+посев сахарная свекла
+по пу день 234 от начала 2322
+отделение 22 день 892 от начала 232
+внесен кас под озимая пшеница
+по пу день 5932 от начала 6748
+отделение 32 день 89 от начала 765
+предпосевная культура под сахарная свекла
+по пу день 35534 от начала 5457
+отделение 45 день 235 от начала 2532
+отделение 32 день 324 от начала 234</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2432', 'B-perOperation'), ('отделение', 'O'), ('323', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сою', 'B-department'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('242', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('2432', 'I-perOperation'), ('отделение', 'O'), ('32', 'I-perOperation'), ('день', 'O'), ('875', 'O'), ('от', 'O'), ('начала', 'O'), ('895', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('536', 'O'), ('от', 'O'), ('начала', 'O'), ('3433', 'O'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('56475', 'O'), ('от', 'O'), ('начала', 'O'), ('3322', 'O'), ('отделение', 'O'), ('84', 'O'), ('день', 'O'), ('2435', 'O'), ('от', 'O'), ('начала', 'O'), ('67543', 'O')]</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>предпосевная культура под кукурузы зерно
+по пу день 242 от начала 2432
+отделение 323 день 232 от начала 232
+предпосевная культура под сою
+по пу день 242 от начала 2432
+отделение 32 день 875 от начала 895
+выравнивание под кукурузный силос
+по пу день 536 от начала 3433
+отделение 45 день 56475 от начала 3322
+отделение 84 день 2435 от начала 67543</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[('внесен', 'B-operation'), ('кас', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('323', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2325', 'B-perOperation'), ('отделение', 'O'), ('32', 'I-perDay'), ('день', 'O'), ('6784', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('2234', 'O'), ('от', 'O'), ('начала', 'O'), ('7876', 'O'), ('внесен', 'I-operation'), ('кас', 'I-operation'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4564', 'O'), ('от', 'O'), ('начала', 'O'), ('4352', 'O'), ('отделение', 'O'), ('32', 'I-perDay'), ('день', 'O'), ('235', 'O'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-operation'), ('внесение', 'I-operation'), ('минеральные', 'I-operation'), ('удобрений', 'O'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('24354', 'O'), ('от', 'O'), ('начала', 'O'), ('3543', 'O'), ('отделение', 'O'), ('день', 'O'), ('425', 'O'), ('от', 'O'), ('начала', 'O'), ('753', 'O')]</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>внесен кас под кукурузы силос
+по пу день 323 от начала 2325
+отделение 32 день 6784 от начала 242
+отделение 43 день 2234 от начала 7876
+внесен кас под кукурузы силос
+по пу день 4564 от начала 4352
+отделение 32 день 235 от начала 3453
+внесение минеральные удобрений под озимая ячмень
+по пу день 24354 от начала 3543
+отделение день 425 от начала 753</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('силос', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('423564', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('9875', 'B-perOperation'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('343', 'O'), ('от', 'O'), ('начала', 'O'), ('563', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4354', 'O'), ('от', 'O'), ('начала', 'O'), ('35345', 'O'), ('отделение', 'O'), ('день', 'O'), ('4355', 'O'), ('от', 'O'), ('начала', 'O'), ('2426', 'B-operation'), ('внесен', 'I-operation'), ('кас', 'B-plant'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23223', 'O'), ('от', 'O'), ('начала', 'O'), ('25252', 'O'), ('отделение', 'O'), ('85', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под силос
+по пу день 423564 от начала 9875
+отделение 45 день 343 от начала 563
+пахота под сахарная свекла
+по пу день 4354 от начала 35345
+отделение день 4355 от начала 2426
+внесен кас под кукурузы силос
+по пу день 23223 от начала 25252
+отделение 85 день 25 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2452', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2422', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('2352', 'O'), ('от', 'O'), ('начала', 'O'), ('2424', 'O')]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под сахарная свекла
+по пу день 2452 от начала 2422
+отделение день 2352 от начала 2424</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[('чизлование', 'B-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2532', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2342', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('325', 'O'), ('от', 'O'), ('начала', 'O'), ('3465', 'O'), ('отделение', 'O'), ('день', 'O'), ('353', 'O'), ('от', 'O'), ('начала', 'O'), ('3433', 'O'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'B-department'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2423', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'I-perOperation'), ('отделение', 'O'), ('87', 'O'), ('день', 'O'), ('2523', 'O'), ('от', 'O'), ('начала', 'O'), ('25235', 'O'), ('отделение', 'O'), ('53', 'I-perDay'), ('день', 'O'), ('353', 'O'), ('от', 'O'), ('начала', 'O'), ('3533', 'O')]</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>чизлование под ячмень
+по пу день 2532 от начала 2342
+отделение день 325 от начала 3465
+отделение день 353 от начала 3433
+внесение минеральные удобрений под озимая рапс
+по пу день 2423 от начала 2342
+отделение 87 день 2523 от начала 25235
+отделение 53 день 353 от начала 3533</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2522', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('534654', 'B-perOperation'), ('отделение', 'O'), ('22', 'I-perDay'), ('день', 'O'), ('2423', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'O'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('56758', 'O'), ('от', 'O'), ('начала', 'O'), ('3666', 'O'), ('отделение', 'O'), ('23', 'O'), ('день', 'O'), ('325', 'O'), ('от', 'O'), ('начала', 'O'), ('2423', 'O'), ('отделение', 'O'), ('54', 'I-perOperation'), ('день', 'O'), ('2528', 'O'), ('от', 'O'), ('начала', 'O'), ('2532', 'O')]</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 2522 от начала 534654
+отделение 22 день 2423 от начала 2342
+пахота зяби под пшеница
+по пу день 56758 от начала 3666
+отделение 23 день 325 от начала 2423
+отделение 54 день 2528 от начала 2532</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[('второе', 'B-operation'), ('дискование', 'I-operation'), ('сои', 'I-operation'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('346', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-perOperation'), ('отделение', 'O'), ('94', 'O'), ('день', 'O'), ('345', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('633', 'O'), ('отделение', 'O'), ('32', 'O'), ('день', 'O'), ('252', 'O'), ('от', 'O'), ('начала', 'O'), ('6346', 'O')]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>второе дискование сои под пшеница
+по пу день 346 от начала 3453
+отделение 94 день 345 от начала 633
+отделение 32 день 252 от начала 6346</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2', 'O'), ('отделение', 'O'), ('32', 'I-perDay'), ('день', 'O'), ('453', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('423', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('отделение', 'O'), ('57', 'O'), ('день', 'O'), ('474', 'O'), ('от', 'O'), ('начала', 'O'), ('7434', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('43632', 'O'), ('от', 'O'), ('начала', 'O'), ('4734', 'O')]</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>предпосевная культура под сою
+по пу день 32 от начала 2
+отделение 32 день 453 от начала 23
+дискование сахарная свекла
+по пу день 423 от начала 343
+отделение 57 день 474 от начала 7434
+отделение 43 день 43632 от начала 4734</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[('12.8', 'B-data'), ('второе', 'B-operation'), ('дис', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('235', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('363', 'B-perOperation'), ('отделение', 'O'), ('56', 'O'), ('день', 'O'), ('253', 'O'), ('от', 'O'), ('начала', 'O'), ('6784', 'O'), ('дискование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('252', 'O'), ('от', 'O'), ('начала', 'O'), ('235235', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('23', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('4363', 'O')]</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12.8 второе дис сахарная свекла под пшеница
+по пу день 235 от начала 363
+отделение 56 день 253 от начала 6784
+дискование под озимая пшеница
+по пу день 252 от начала 235235
+отделение день 23 от начала 4363</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[('31.12.25', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('46', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('3453', 'B-perOperation'), ('отделение', 'O'), ('14', 'O'), ('день', 'O'), ('252', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('242', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('252', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('23523', 'O'), ('отделение', 'O'), ('56', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('2423', 'O')]</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>31.12.25 пахота зяби под многолетние травы
+по пу день 46 от начала 3453
+отделение 14 день 252 от начала 242
+второе дискование сахарная свекла под пшеница
+по пу день 252 от начала 23523
+отделение 56 день 323 от начала 2423</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4346', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('4363', 'B-perOperation'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('3252', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('32523', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('пшеница', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('3453', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4344', 'O'), ('отделение', 'O'), ('день', 'O'), ('3563', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>пахота сои под ячмень
+по пу день 4346 от начала 4363
+отделение 22 день 3252 от начала 32523
+второе дискование сахарная свекла под пшеница
+по пу день 3453 от начала 4344
+отделение день 3563 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[('7.2', 'B-data'), ('выравнивание', 'B-operation'), ('яч', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('232', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2523', 'B-perOperation'), ('отделение', 'O'), ('34', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('2347', 'O'), ('пахота', 'B-operation'), ('ячмень', 'I-operation'), ('под', 'O'), ('ячмень', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2342', 'O'), ('от', 'O'), ('начала', 'O'), ('32423', 'O'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('3124', 'O'), ('от', 'O'), ('начала', 'O'), ('232342', 'O')]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7.2 выравнивание яч под сою
+по пу день 232 от начала 2523
+отделение 34 день 45 от начала 2347
+пахота ячмень под ячмень
+по пу день 2342 от начала 32423
+отделение 22 день 3124 от начала 232342</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[('8.3', 'B-data'), ('посев', 'B-operation'), ('ячмень', 'I-operation'), ('под', 'O'), ('озимый', 'B-plant'), ('ячмень', 'I-operation'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3435', 'B-perOperation'), ('отделение', 'O'), ('81', 'O'), ('день', 'O'), ('243', 'O'), ('от', 'O'), ('начала', 'O'), ('2323', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('3242', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4242', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('3244', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('31', 'O'), ('день', 'O'), ('195', 'O'), ('от', 'O'), ('начала', 'O'), ('542', 'O')]</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>8.3 посев ячмень под озимый ячмень
+по пу день 4353 от начала 3435
+отделение 81 день 243 от начала 2323
+отделение 27 день 3242 от начала 232
+внесение гербицидов под озимая пшеница
+по пу день 4242 от начала 2342
+отделение 4 день 3244 от начала 3434
+отделение 31 день 195 от начала 542</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[('23.03', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'B-plant'), ('сою', 'I-plant'), ('по', 'I-plant'), ('пу', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('2323', 'B-perOperation'), ('отделение', 'O'), ('23', 'I-data'), ('день', 'O'), ('323', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'I-perOperation'), ('отделение', 'O'), ('24', 'I-perDay'), ('день', 'O'), ('232', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('3232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+по пу день 242 от начала 2323
+отделение 23 день 323 от начала 232
+отделение 24 день 232 от начала 3232</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[('4.3.25', 'B-data'), ('посев', 'B-operation'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('3435', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3433', 'B-perOperation'), ('отделение', 'O'), ('33', 'O'), ('день', 'O'), ('344', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perDay'), ('пахота', 'B-operation'), ('ячмень', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4774', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('433', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('33', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perDay'), ('внесение', 'B-operation'), ('гербицидоа', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('433', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perOperation'), ('отделение', 'O'), ('78', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('252', 'O'), ('отделение', 'O'), ('4', 'I-data'), ('день', 'O'), ('4334', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.3.25
+посев с свекла под озимая пшеница
+по пу день 3435 от начала 3433
+отделение 33 день 344 от начала 343
+пахота ячмень под кукурузы силос
+по пу день 4774 от начала 4343
+отделение 43 день 433 от начала 4343
+отделение 7 день 33 от начала 343
+внесение гербицидоа под озимая пшеница
+по пу день 433 от начала 433
+отделение 78 день 323 от начала 252
+отделение 4 день 4334 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[('7.2.24', 'B-data'), ('пахота', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('4343', 'B-perOperation'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('5454', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('5454', 'O'), ('отделение', 'O'), ('33', 'O'), ('день', 'O'), ('242', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3433', 'O'), ('выравнивание', 'B-operation'), ('яч', 'O'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4343', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('343', 'I-perOperation'), ('отделение', 'O'), ('день', 'O'), ('2442', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('223', 'O')]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>7.2.24
+пахота сои под сахарная свекла
+по пу день 4353 от начала 4343
+отделение 54 день 5454 от начала 5454
+отделение 33 день 242 от начала 3433
+выравнивание яч под сою
+по пу день 4343 от начала 343
+отделение день 2442 от начала 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[('2.5.25', 'B-data'), ('выравнивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('433', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'B-perOperation'), ('отделение', 'O'), ('2', 'I-data'), ('день', 'O'), ('4242', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('23', 'I-perOperation'), ('день', 'O'), ('322', 'O'), ('от', 'O'), ('начала', 'O'), ('4242', 'O'), ('посев', 'B-operation'), ('ячмень', 'O'), ('под', 'O'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('24422', 'O'), ('от', 'O'), ('начала', 'O'), ('23232', 'O'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('786', 'O'), ('от', 'O'), ('начала', 'O'), ('565', 'O'), ('отделение', 'O'), ('56', 'O'), ('день', 'O'), ('4533', 'O'), ('от', 'O'), ('начала', 'O'), ('3436', 'B-operation'), ('пахота', 'O'), ('сои', 'B-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('34534', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('43435', 'O'), ('от', 'O'), ('начала', 'O'), ('3452', 'O')]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2.5.25
+выравнивание сахарная свекла под кукурузы силос
+по пу день 433 от начала 232
+отделение 2 день 4242 от начала 242
+отделение 23 день 322 от начала 4242
+посев ячмень под сахарная свекла
+по пу день 24422 от начала 23232
+отделение 8 день 786 от начала 565
+отделение 56 день 4533 от начала 3436
+пахота сои под озимая пшеница
+по пу день 4353 от начала 3434
+отделение 4 день 4343 от начала 34534
+отделение 4 день 43435 от начала 3452</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[('5.3.25', 'B-data'), ('выкашивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4355', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3433', 'B-perOperation'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('435', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('353', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('34334', 'O'), ('чизед', 'O'), ('под', 'O'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('424', 'O'), ('от', 'O'), ('начала', 'O'), ('3433', 'I-perOperation'), ('отделение', 'O'), ('5', 'I-data'), ('день', 'O'), ('2422', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>5.3.25
+выкашивание сахарная свекла под озимая пшеница
+по пу день 4355 от начала 3433
+отделение 8 день 435 от начала 353
+отделение 43 день 23 от начала 34334
+чизед под сахарная свекла
+по пу день 424 от начала 3433
+отделение 5 день 2422 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[('6.4.33', 'B-data'), ('выкашивание', 'B-operation'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('422', 'B-perDay'), ('от', 'I-plant'), ('начала', 'O'), ('223', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('322', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('223', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6.4.33 выкашивание с свекла под отцовские травы травы
+по пу день 422 от начала 223
+отделение день 322 от начала 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[('дискование', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('силос', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4222', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'B-perOperation'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('22', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'I-perOperation'), ('пахота', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4242', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('3', 'I-perOperation'), ('день', 'O'), ('232', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('2424', 'O')]</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>дискование сои под силос
+по пу день 4222 от начала 232
+отделение 4 день 22 от начала 232
+пахота сои под озимая пшеница
+по пу день 4242 от начала 242
+отделение 3 день 232 от начала 2424</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('434', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('4343', 'B-perOperation'), ('отделение', 'O'), ('2', 'O'), ('день', 'O'), ('3222', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'I-perOperation'), ('отделение', 'O'), ('3', 'I-perDay'), ('день', 'O'), ('2322', 'O'), ('от', 'O'), ('начала', 'O'), ('353', 'O'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23222', 'O'), ('от', 'O'), ('начала', 'O'), ('2323', 'O'), ('отделение', 'O'), ('24', 'O'), ('день', 'O'), ('43433', 'O'), ('от', 'O'), ('начала', 'O'), ('34353', 'O')]</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под подсолнечник
+по пу день 434 от начала 4343
+отделение 2 день 3222 от начала 4343
+отделение 3 день 2322 от начала 353
+пахота зяби под кукурузу
+по пу день 23222 от начала 2323
+отделение 24 день 43433 от начала 34353</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('кукурузная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'B-perOperation'), ('отделение', 'O'), ('3', 'I-perOperation'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('223', 'O'), ('посев', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('2324', 'O'), ('от', 'O'), ('начала', 'O'), ('3539', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('487', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('выравнивание', 'B-operation'), ('под', 'B-plant'), ('кукурузы', 'I-plant'), ('силос', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('отделение', 'O'), ('32', 'I-perOperation'), ('день', 'O'), ('2323', 'O'), ('от', 'O'), ('начала', 'O'), ('4334', 'O')]</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>посев кукурузная свекла
+по пу день 242 от начала 232
+отделение 3 день 4343 от начала 223
+посев сахарная свекла
+по пу день 2324 от начала 3539
+отделение 7 день 487 от начала 343
+выравнивание под кукурузы силос
+по пу день 434 от начала 343
+отделение 32 день 2323 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('224', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('4343', 'B-perOperation'), ('отделение', 'O'), ('9', 'O'), ('день', 'O'), ('3224', 'O'), ('от', 'O'), ('начала', 'O'), ('2443', 'O'), ('пахотя', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('сою', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('437', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('43', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('587', 'O')]</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>вторая подкормка озимая пшеница
+по пу день 224 от начала 4343
+отделение 9 день 3224 от начала 2443
+пахотя зяби под сою
+по пу день 437 от начала 3434
+отделение 8 день 43 от начала 587</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[('6.2', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('434', 'B-perOperation'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('43', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('3554', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4873', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'O'), ('отделение', 'O'), ('8', 'O'), ('22', 'O')]</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>6.2 выравнивание зяби под сою
+по пу день 78 от начала 434
+отделение 8 день 43 от начала 3554
+выравнивание под сахарная свекла
+по пу день 4873 от начала 433
+отделение 8 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('85', 'B-perOperation'), ('отделение', 'O'), ('8', 'I-perOperation'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'B-operation'), ('под', 'O'), ('кукурузный', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('424', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('43', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('4334', 'O')]</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>выравнивание под кукурузный силос
+по пу день 23 от начала 85
+отделение 8 день 43 от начала 343
+выравнивание зяби под кукурузный силос
+по пу день 424 от начала 3434
+отделение 43 день 4343 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('424', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('434', 'B-perOperation'), ('отделение', 'O'), ('44', 'O'), ('день', 'O'), ('3443', 'O'), ('от', 'O'), ('начала', 'O'), ('434', 'I-perOperation'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеница', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'O'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('545', 'O'), ('от', 'O'), ('начала', 'O'), ('545', 'O')]</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>сплошная культивация озимая пшеница под кукурузу
+по пу день 424 от начала 434
+отделение 44 день 3443 от начала 434
+вторая подкормка озимой пшеница
+по пу день 23 от начала 2342
+отделение 54 день 545 от начала 545</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('5353', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3535', 'B-perOperation'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('57', 'O'), ('от', 'O'), ('начала', 'O'), ('43433', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'O'), ('начала', 'O'), ('5343', 'O'), ('отделение', 'O'), ('42', 'O'), ('день', 'O'), ('2443', 'O'), ('от', 'O'), ('начала', 'O'), ('4333', 'O')]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под озимая пшеница
+по пу день 5353 от начала 3535
+отделение 54 день 57 от начала 43433
+второе дискование сахарная свекла
+по пу день 4353 от начала 5343
+отделение 42 день 2443 от начала 4333</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('546', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('454', 'B-perOperation'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('76', 'O'), ('от', 'O'), ('начала', 'O'), ('668', 'O'), ('культивация', 'B-operation'), ('сахарная', 'I-plant'), ('свеклы', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('8686', 'O'), ('отделение', 'O'), ('9', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('7676', 'O')]</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>посев сахарная свеклы
+по пу день 546 от начала 454
+отделение 7 день 76 от начала 668
+культивация сахарная свеклы
+по пу день 43 от начала 8686
+отделение 9 день 434 от начала 7676</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('433', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perDay'), ('отделение', 'O'), ('3', 'I-perDay'), ('день', 'O'), ('3434', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('3453', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('545', 'O'), ('от', 'O'), ('начала', 'O'), ('422', 'O')]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 433 от начала 433
+отделение 3 день 3434 от начала 343
+прокатывание посевов овса
+по пу день 4343 от начала 3453
+отделение 4 день 545 от начала 422</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2523', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('23423', 'B-perOperation'), ('отделение', 'O'), ('4', 'I-perOperation'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('252', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('5325', 'O'), ('посев', 'B-operation'), ('кукурузного', 'B-plant'), ('силоса', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'O'), ('начала', 'O'), ('35435', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('346', 'O'), ('от', 'O'), ('начала', 'O'), ('3453', 'O'), ('отделение', 'O'), ('34', 'I-perOperation'), ('день', 'O'), ('3453', 'O'), ('от', 'O'), ('начала', 'O'), ('4353', 'O')]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>выравнивание под кукурузы силос
+по пу день 2523 от начала 23423
+отделение 4 день 434 от начала 4343
+отделение 22 день 252 от начала 5325
+посев кукурузного силоса
+по пу день 4353 от начала 35435
+отделение 7 день 346 от начала 3453
+отделение 34 день 3453 от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[('7.4.63', 'B-data'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4344', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('4343', 'B-perOperation'), ('отделение', 'O'), ('76', 'O'), ('день', 'O'), ('545', 'O'), ('от', 'O'), ('начала', 'O'), ('545', 'O'), ('отделение', 'O'), ('546', 'O'), ('день', 'O'), ('545', 'O'), ('от', 'O'), ('начала', 'O'), ('554', 'O'), ('внесение', 'B-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('533', 'O'), ('от', 'O'), ('начала', 'O'), ('55353', 'O'), ('отделение', 'O'), ('65', 'O'), ('день', 'O'), ('54', 'O'), ('от', 'O'), ('начала', 'O'), ('546', 'O'), ('отделение', 'O'), ('6', 'I-data'), ('день', 'O'), ('546', 'O'), ('от', 'O'), ('начала', 'O'), ('4645', 'B-operation'), ('дискование', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('533', 'O'), ('от', 'O'), ('начала', 'O'), ('25235', 'O'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('434', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('353', 'O'), ('отделение', 'O'), ('25', 'O'), ('день', 'O'), ('5435', 'O'), ('от', 'O'), ('начала', 'O'), ('333', 'O')]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>7.4.63
+выравнивание под кукурузы силос
+по пу день 4344 от начала 4343
+отделение 76 день 545 от начала 545
+отделение 546 день 545 от начала 554
+внесение удобрений под сахарная свекла
+по пу день 533 от начала 55353
+отделение 65 день 54 от начала 546
+отделение 6 день 546 от начала 4645
+дискование сахарная свекла 
+по пу день 533 от начала 25235
+отделение 8 день 434 от начала 353
+отделение 25 день 5435 от начала 333</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[('5.4.21', 'B-data'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('43443', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('353', 'B-perOperation'), ('отделение', 'O'), ('5', 'I-data'), ('день', 'O'), ('434', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('434', 'I-perDay'), ('отделение', 'O'), ('4', 'I-data'), ('день', 'O'), ('433', 'O'), ('от', 'O'), ('начала', 'O'), ('4534', 'O'), ('чизлевание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2342', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O'), ('отделение', 'O'), ('78', 'O'), ('день', 'O'), ('433', 'O'), ('от', 'O'), ('начала', 'O'), ('3534', 'O')]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>5.4.21
+выравнивание под кукурузы силос
+по пу день 43443 от начала 353
+отделение 5 день 434 от начала 434
+отделение 4 день 433 от начала 4534
+чизлевание под сахарная свекла
+по пу день 2342 от начала 234
+отделение 78 день 433 от начала 3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('силос', 'B-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('43535', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('345', 'B-perOperation'), ('отделение', 'O'), ('5', 'I-perDay'), ('день', 'O'), ('42324', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('2432', 'O'), ('от', 'O'), ('начала', 'O'), ('324', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('43543', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('353', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>выравнивание силос
+по пу день 43535 от начала 345
+отделение 5 день 42324 от начала 23
+выкашивание отцовские травы формирование
+по пу день 2432 от начала 324
+отделение 4 день 43543 от начала 3434
+отделение 4 день 353 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('кас', 'I-operation'), ('под', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('35345', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-perOperation'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('63', 'O'), ('от', 'O'), ('начала', 'O'), ('345', 'I-perDay'), ('отделение', 'O'), ('1', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>подкормка кас под озимая пшеница
+по пу день 35345 от начала 3453
+отделение 8 день 63 от начала 345
+отделение 1 день 23 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('436', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('5464', 'B-perOperation'), ('отделение', 'O'), ('6', 'O'), ('день', 'O'), ('322', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O'), ('подкормка', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4335', 'O'), ('от', 'O'), ('начала', 'O'), ('4353', 'O'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('2523', 'O'), ('от', 'O'), ('начала', 'O'), ('2352', 'O')]</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>подкормка озимая пшеница
+по пу день 436 от начала 5464
+отделение 6 день 322 от начала 234
+подкормка сахарная свекла
+по пу день 4335 от начала 4353
+отделение 8 день 2523 от начала 2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[('5.4.24', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('53', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('4', 'I-data'), ('день', 'O'), ('4353', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('4', 'I-data'), ('день', 'O'), ('33', 'O'), ('от', 'O'), ('начала', 'O'), ('3443', 'O')]</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5.4.24
+выравнивание зяби под сахарная свекла
+по пу день 53 от начала 343
+отделение 4 день 4353 от начала 232
+отделение 4 день 33 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4343', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('435', 'O'), ('отделение', 'O'), ('6', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3443', 'O')]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>пахота под сою
+по пу день 45 от начала 343
+отделение день 23 от начала 4343
+предпосевная культура под сахарная свекла
+по пу день 435 от начала 435
+отделение 6 день 4343 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[('14.05', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4343', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('435', 'O'), ('отделение', 'O'), ('6', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3443', 'O')]</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>14.05 пахота под сою
+по пу день 45 от начала 343
+отделение день 23 от начала 4343
+предпосевная культура под сахарная свекла
+по пу день 435 от начала 435
+отделение 6 день 4343 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[('5.6', 'B-data'), ('внесен', 'B-operation'), ('кас', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('32', 'O'), ('от', 'O'), ('начала', 'O'), ('235', 'O'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('43', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('434', 'O'), ('отделение', 'O'), ('4', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('34', 'O')]</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>5.6
+внесен кас под озимая пшеница
+по пу день 43 от начала 435
+отделение день 32 от начала 235
+посев сахарная свекла
+по пу 43 день 434 от начала 434
+отделение 4 день 434 от начала 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4242', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2432', 'B-perOperation'), ('отделение', 'O'), ('32', 'I-perOperation'), ('день', 'O'), ('2342', 'O'), ('от', 'O'), ('начала', 'O'), ('234', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('43', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 4242 от начала 2432
+отделение 32 день 2342 от начала 234
+предпосевная культура под кукурузное зерно
+по пу день 435 от начала 435
+отделение 7 день 434 от начала 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[('пахотя', 'B-operation'), ('зяби', 'B-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('34345', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('343', 'I-perDay'), ('отделение', 'O'), ('5', 'O'), ('день', 'O'), ('3567', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('434', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>пахотя зяби
+по пу день 34345 от начала 343
+отделение 5 день 3567 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('84.11.26', 'B-data'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('день', 'O'), ('325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('222', 'B-perOperation'), ('65', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('433', 'O'), ('45', 'O'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'O'), ('5', 'O')]</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">восход
+84.11.26
+чизлование под озимая ячмень день 325 от начала 222 65 
+выравнивание под многолетние травы день 4353 от начала 433 45 
+внесение минеральные удобрений под сахарная свекла день 232 от начала 2342 5 </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('пропоткинское', 'I-department'), ('17.11.24', 'B-data'), ('предпос', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('день', 'O'), ('2323', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('532435', 'B-perOperation'), ('78', 'O'), ('выкашивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('день', 'O'), ('235', 'O'), ('от', 'I-department'), ('начала', 'O'), ('5435', 'B-perOperation'), ('78', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('день', 'O'), ('535', 'O'), ('от', 'I-department'), ('начала', 'O'), ('5487', 'O'), ('72', 'O')]</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ао пропоткинское
+17.11.24
+предпос культивация под кукурузный силос день 2323 от начала 532435 78 
+выкашивание сахарная свекла под кукурузы силос день 235 от начала 5435 78 
+второе дискование пшеница под сахарная свекла день 535 от начала 5487 72 </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('18.04.24', 'B-data'), ('культивация', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('121', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('434', 'B-perOperation'), ('98', 'O'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('75', 'O')]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">рассвет
+18.04.24
+культивация сахарная свекла день 121 от начала 434 98 
+предпосевная культивация под сахарная свекла день 23 от начала 232 75 </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('324758', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3433', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('4363', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>рассвет
+посев сахарная свекла день 324758 от начала 3433
+отделение день 4363 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[('19.04', 'B-data'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('23523', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('23523', 'I-perDay'), ('отделение', 'O'), ('23', 'I-perDay'), ('день', 'O'), ('23', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>19.04
+предпосевная культивация под кукурузу
+по пу день 23523 от начала 23523
+отделение 23 день 23 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('23523', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2342', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('3252', 'O'), ('от', 'O'), ('начала', 'O'), ('32523', 'O'), ('отделение', 'O'), ('754', 'O'), ('день', 'O'), ('4654', 'O'), ('от', 'O'), ('начала', 'O'), ('5464', 'O'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('пу', 'O'), ('север', 'B-department'), ('день', 'O'), ('4254', 'O'), ('от', 'O'), ('начала', 'O'), ('43534', 'B-perOperation'), ('отделение', 'O'), ('19', 'O'), ('день', 'O'), ('325', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'O'), ('отделение', 'O'), ('24', 'O'), ('день', 'O'), ('235', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('3433', 'O')]</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>второе дискование под сахарная свекла пу юг день 23523 от начала 2342
+отделение 17 день 3252 от начала 32523
+отделение 754 день 4654 от начала 5464
+сплошная культивация под сою пу север день 4254 от начала 43534
+отделение 19 день 325 от начала 433
+отделение 24 день 235 от начала 3433</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('коропоткинское', 'I-department'), ('дискование', 'B-operation'), ('кукурузный', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('23532', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('23523', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ао коропоткинское
+дискование кукурузный силос под сахарная свекла
+день 23532
+от начала 23523</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('коропоткинское', 'I-department'), ('16.11.25', 'B-data'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'B-plant'), ('день', 'O'), ('23234', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('325323', 'B-perOperation'), ('посев', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('день', 'O'), ('25345', 'O'), ('от', 'I-department'), ('начала', 'O'), ('3252332', 'O')]</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ао коропоткинское
+16.11.25
+прокатывание посевов овса
+день 23234
+от начала 325323
+посев кукурузный силос
+день 25345
+от начала 3252332</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[('сп', 'B-department'), ('коломейцево', 'I-department'), ('17.5', 'B-data'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('25235', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('32523', 'B-perOperation'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день', 'O'), ('2523', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('25322', 'B-operation'), ('предпосевная', 'I-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('43534', 'O'), ('от', 'O'), ('начала', 'O'), ('2524', 'O')]</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+17.5
+посев сахарная свекла
+день 25235
+от начала 32523
+вторая подкормка озимая пшеница
+день 2523
+от начала 25322
+предпосевная культивация под сахарная свекла
+день 43534
+от начала 2524</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[('сп', 'B-department'), ('коломейцево', 'I-department'), ('18.09', 'B-data'), ('варванивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('245', 'O'), ('от', 'O'), ('начала', 'O'), ('25325', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+18.09
+варванивание зяби под сахарная свеклу
+день 245
+от начала 25325</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[('06.08.25', 'B-data'), ('дискование', 'B-operation'), ('кукурузный', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('пу', 'O'), ('кавказ', 'B-department'), ('день', 'O'), ('325325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('436346', 'B-perOperation'), ('внесен', 'B-operation'), ('кас', 'O'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('пу', 'O'), ('центр', 'B-department'), ('день', 'O'), ('25325', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('32523', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('235', 'O'), ('от', 'O'), ('начала', 'O'), ('2323', 'O')]</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>06.08.25
+дискование кукурузный силос под ячмень пу кавказ день 325325 от начала 436346
+внесен кас под озимая пшеница пу центр день 25325 от начала 32523
+отделение день 235 от начала 2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[('8.5.25', 'B-data'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('кукурузное', 'I-operation'), ('зерно', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('пу', 'O'), ('центр', 'B-department'), ('день', 'O'), ('2352', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('23523', 'B-perOperation'), ('дискование', 'I-operation'), ('ячмень', 'B-operation'), ('под', 'O'), ('сою', 'O'), ('пу', 'O'), ('центр', 'I-department'), ('день', 'O'), ('2532', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('43634', 'B-perOperation'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('325', 'O'), ('от', 'O'), ('начала', 'O'), ('43623', 'O')]</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>8.5.25
+второе дискование кукурузное зерно под кукурузный силос пу центр день 2352 от начала 23523
+дискование ячмень под сою пу центр день 2532 от начала 43634
+отделение 13 день 325 от начала 43623</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('пу', 'O'), ('север', 'B-department'), ('день', 'O'), ('325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('6433', 'B-perOperation'), ('отделение', 'O'), ('775', 'O'), ('день', 'O'), ('454', 'O'), ('от', 'O'), ('начала', 'O'), ('456', 'O')]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою пу север день 325 от начала 6433
+отделение 775 день 454 от начала 456</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[('15.8', 'B-data'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('пу', 'O'), ('север', 'B-department'), ('день', 'O'), ('25345', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-perOperation'), ('отделение', 'O'), ('2', 'I-perDay'), ('день', 'O'), ('3252', 'O'), ('от', 'O'), ('начала', 'O'), ('235', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'O'), ('пу', 'O'), ('центр', 'B-department'), ('день', 'O'), ('252235', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2354', 'B-perOperation'), ('отделение', 'O'), ('8', 'I-data'), ('день', 'O'), ('2342', 'O'), ('от', 'O'), ('начала', 'O'), ('4334', 'O'), ('посев', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('пу', 'O'), ('рассвет', 'B-department'), ('день', 'O'), ('325235', 'O'), ('от', 'O'), ('начала', 'O'), ('43623', 'O'), ('отделение', 'O'), ('98', 'O'), ('день', 'O'), ('25345', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('3456', 'O')]</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>15.8 предпосевная культура пу север день 25345 от начала 3453
+отделение 2 день 3252 от начала 235
+выравнивание под сою пу центр день 252235 от начала 2354
+отделение 8 день 2342 от начала 4334
+посев сахарная свекла пу рассвет день 325235 от начала 43623
+отделение 98 день 25345 от начала 3456</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[('17.9', 'B-data'), ('посев', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('3223', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2532', 'B-perOperation'), ('отделение', 'O'), ('42', 'O'), ('день', 'O'), ('254', 'O'), ('от', 'O'), ('начала', 'O'), ('235', 'O')]</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>17.9 посев озимая пшеницы пу юг день 3223 от начала 2532
+отделение 42 день 254 от начала 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[('16.02', 'B-data'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('132', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2423', 'B-perOperation'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'O')]</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>16.02 выравнивание под кукурузный силос пу юг день 132 от начала 2423
+отделение 18 день 4343 от начала 435</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[('19.08', 'B-data'), ('выравнивание', 'B-operation'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2534', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('5856', 'B-perOperation'), ('отделение', 'O'), ('4', 'O'), ('день', 'O'), ('277', 'O'), ('от', 'O'), ('начала', 'O'), ('833', 'O')]</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>19.08
+выравнивание кукурузы силос
+по пу день 2534 от начала 5856
+отделение 4 день 277 от начала 833</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('58445', 'B-perOperation'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'O'), ('начала', 'O'), ('57567', 'O'), ('довосходовое', 'B-operation'), ('боронование', 'I-operation'), ('подсолнечника', 'B-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('436', 'O'), ('от', 'O'), ('начала', 'O'), ('6474', 'O'), ('отделение', 'O'), ('8', 'I-perOperation'), ('день', 'O'), ('24324', 'O'), ('от', 'O'), ('начала', 'O'), ('4646', 'O')]</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>выравнивание кукурузы силос
+по пу день 35 от начала 58445
+отделение 7 день 435 от начала 57567
+довосходовое боронование подсолнечника
+по пу день 436 от начала 6474
+отделение 8 день 24324 от начала 4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[('довосходовое', 'B-operation'), ('бронирование', 'I-operation'), ('подсолнечника', 'B-plant'), ('по', 'I-plant'), ('пу', 'O'), ('день', 'O'), ('53453', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('34343', 'B-perOperation'), ('отделение', 'O'), ('день', 'O'), ('3623', 'O'), ('от', 'O'), ('начала', 'O'), ('23495', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'I-plant'), ('пу', 'O'), ('день', 'O'), ('257', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'I-perOperation'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('3286', 'O'), ('от', 'O'), ('начала', 'O'), ('23423', 'O'), ('отделение', 'O'), ('83', 'O'), ('день', 'O'), ('245', 'O'), ('от', 'O'), ('начала', 'O'), ('23923', 'O')]</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>довосходовое бронирование подсолнечника
+по пу день 53453 от начала 34343
+отделение день 3623 от начала 23495
+второе дискование под сахарная свекла
+по пу день 257 от начала 4343
+отделение 7 день 3286 от начала 23423
+отделение 83 день 245 от начала 23923</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[('14.8.25', 'B-data'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('кукурозного', 'B-plant'), ('зерна', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('32534', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3434', 'B-perOperation'), ('отделение', 'O'), ('83', 'O'), ('день', 'O'), ('43576', 'O'), ('от', 'O'), ('начала', 'O'), ('4542', 'O'), ('посев', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('24767', 'O'), ('от', 'O'), ('начала', 'O'), ('357665', 'O'), ('отделение', 'O'), ('74', 'O'), ('день', 'O'), ('6885', 'O'), ('от', 'O'), ('начала', 'O'), ('5675', 'O')]</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>14.8.25
+прокатывание посевов кукурозного зерна
+по пу день 32534 от начала 3434
+отделение 83 день 43576 от начала 4542
+посев кукурузный силос
+по пу день 24767 от начала 357665
+отделение 74 день 6885 от начала 5675</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('435', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('34', 'I-perOperation'), ('день', 'O'), ('43', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perOperation'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'O'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('3223', 'O'), ('от', 'O'), ('начала', 'O'), ('3232', 'O'), ('отделение', 'O'), ('24', 'O'), ('день', 'O'), ('43535', 'O'), ('от', 'O'), ('начала', 'O'), ('676243', 'O')]</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>посев кукурузный силос
+по пу день 435 от начала 343
+отделение 34 день 43 от начала 343
+прокатывание посевов овса
+по пу день 3223 от начала 3232
+отделение 24 день 43535 от начала 676243</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('24.9', 'B-data'), ('пахота', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('день', 'O'), ('26342', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('36343', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+24.9
+пахота сои под ячмень
+день 26342
+от начала 36343</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('12.8.76', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('день', 'O'), ('23523', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('235232', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>мир
+12.8.76
+пахота зяби под многолетние травы
+день 23523
+от начала 235232</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('5.06.23', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('день', 'O'), ('46765', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('567655', 'B-perOperation'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('день', 'O'), ('325325', 'O'), ('от', 'O'), ('начала', 'O'), ('25543', 'O')]</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>мир
+5.06.23
+внесение минеральные удобрений под кукурузный силос
+день 46765
+от начала 567655
+выравнивание под сахарная свекла
+день 325325
+от начала 25543</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('6.6.21', 'B-data'), ('посев', 'B-operation'), ('кукурузного', 'B-plant'), ('силоса', 'I-plant'), ('день', 'O'), ('6533', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('5685', 'O'), ('выравнивание', 'B-operation'), ('под', 'B-plant'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('день', 'O'), ('56865', 'O'), ('от', 'I-department'), ('начала', 'O'), ('5865', 'O')]</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.6.21
+посев кукурузного силоса
+день 6533
+от начала 5685
+выравнивание под кукурузы силос
+день 56865
+от начала 5865</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('15.7.27', 'B-data'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день', 'O'), ('456543', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('45654', 'I-perDay'), ('выравг', 'O'), ('под', 'I-plant'), ('кукурузы', 'B-plant'), ('силос', 'O'), ('день', 'O'), ('4666', 'O'), ('от', 'O'), ('начала', 'O'), ('454486', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'I-plant'), ('кукурузы', 'I-plant'), ('силос', 'O'), ('день', 'O'), ('5755', 'O'), ('от', 'O'), ('начала', 'O'), ('464647', 'O')]</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>мир
+15.7.27
+посев подсолнечника 
+день 456543
+от начала 45654
+выравг под кукурузы силос
+день 4666
+от начала 454486
+выравнивание под кукурузы силос
+день 5755
+от начала 464647</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[('сп', 'B-department'), ('коломейцево', 'I-department'), ('23.4.26', 'B-data'), ('дискование', 'B-operation'), ('кукукурузный', 'I-operation'), ('силос', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день', 'O'), ('457', 'O'), ('от', 'O'), ('начала', 'O'), ('5786', 'O'), ('посев', 'B-plant'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('день', 'O'), ('4774', 'O'), ('от', 'O'), ('начала', 'O'), ('68965', 'O')]</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+23.4.26
+дискование кукукурузный силос под озимая пшеница
+день 457
+от начала 5786
+посев сахарная свекла
+день 4774
+от начала 68965</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('28.7.24', 'B-data'), ('прокатывание', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('24223', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2422', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>восход
+28.7.24
+прокатывание сахарная свекла
+день 24223
+от начала 2422</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[('сп', 'B-department'), ('коломейцево', 'I-department'), ('6.4.23', 'B-data'), ('дискование', 'B-operation'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('235235', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('5322', 'O')]</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+6.4.23
+дискование озимая пшеница под сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('выравнивание', 'B-operation'), ('яч', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('23532', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2325', 'B-perOperation'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('23532', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('2523', 'O')]</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание яч под сою
+день 23532
+от начала 2325
+дискование сахарная свекла
+день 23532
+от начала 2523</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('дискование', 'B-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('день', 'O'), ('32523', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('43532', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>мир
+дискование под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день', 'O'), ('25325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('25894', 'B-perOperation'), ('уборка', 'B-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('12', 'O')]</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+день 25325
+от начала 25894
+уборка пшеница под отцовские травы травы
+день 43
+от начала 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('18.9.24', 'B-data'), ('выравнивание', 'B-operation'), ('силос', 'B-plant'), ('день', 'O'), ('425346', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3633', 'O'), ('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'B-plant'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('324', 'O'), ('от', 'O'), ('начала', 'O'), ('2523', 'B-operation'), ('выкашивание', 'I-operation'), ('с', 'I-plant'), ('свекла', 'O'), ('под', 'I-plant'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('43633', 'O'), ('от', 'O'), ('начала', 'O'), ('45636', 'O')]</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>мир
+18.9.24
+выравнивание силос
+день 425346
+от начала 3633
+уборка пшеница под отцовские травы травы
+день 324
+от начала 2523
+выкашивание с свекла под отцовские травы травы
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[('11.3', 'B-data'), ('мир', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>11.3
+мир
+выравнивание зяби под сахарная свеклу
+день 130
+от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[('16.2', 'B-data'), ('восход', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('4243', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('4243', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>16.2
+восход
+пахота зяби под сою
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[('21.9', 'B-data'), ('восход', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('день', 'O'), ('423', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4353', 'O')]</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>21.9
+восход
+пахота под кукурузное зерно
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[('11.3', 'B-data'), ('восход', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('43875', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('46384', 'B-perOperation'), ('пахота', 'O'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('42434', 'O'), ('от', 'O'), ('начала', 'O'), ('42434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>11.3
+восход
+выравнивание зяби под сахарная свеклу
+день 43875
+от начала 46384
+пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[('18.03', 'B-data'), ('колхоз', 'B-department'), ('прогресс', 'I-department'), ('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'I-operation'), ('начада', 'O'), ('4224', 'O')]</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>18.03
+колхоз прогресс
+пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('6.8.23', 'B-data'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('235235', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('5322', 'O')]</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.8.23
+дискование сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('6.8.23', 'B-data'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('235235', 'B-perDay'), ('от', 'I-department'), ('начала', 'O'), ('5322', 'O')]</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.8.23
+дискование сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('дискование', 'B-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('день', 'O'), ('32523', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('43532', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>восход
+дискование под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день', 'O'), ('25325', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('25894', 'B-perOperation'), ('уборка', 'B-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('12', 'O')]</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>восход
+чизлование под озимая пшеница
+день 25325
+от начала 25894
+уборка пшеница под отцовские травы травы
+день 43
+от начала 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('12.9.44', 'B-data'), ('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('425346', 'B-perDay'), ('от', 'I-plant'), ('начала', 'O'), ('3633', 'O'), ('выравнивание', 'B-operation'), ('силос', 'O'), ('день', 'O'), ('324', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('2523', 'B-operation'), ('выкашивание', 'I-operation'), ('с', 'I-department'), ('свекла', 'O'), ('под', 'O'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('день', 'O'), ('43633', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('45636', 'O')]</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+день 425346
+от начала 3633
+выравнивание силос
+день 324
+от начала 2523
+выкашивание с свекла под отцовские травы травы
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[('аор', 'B-department'), ('54.2.24', 'B-operation'), ('чизлевание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('32423', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('25323', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>аор
+54.2.24
+чизлевание под сахарная свекла
+день 32423
+от начала 25323</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>[('13.3', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('выравнивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>13.3
+сп коломейцево
+выравнивание сахарная свекла под сою
+день 130
+от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>[('1.2', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('день', 'O'), ('4243', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('4243', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1.2
+мир
+пахота зяби под ячмень
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[('21.10', 'B-data'), ('восход', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('день', 'O'), ('423', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4353', 'O')]</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[('16.6', 'B-data'), ('восход', 'B-department'), ('чизлевание', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('43875', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('46384', 'B-perOperation'), ('пахота', 'O'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('42434', 'O'), ('от', 'O'), ('начала', 'O'), ('42434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>16.6
+восход
+чизлевание сои под сахарная свеклу
+день 43875
+от начала 46384
+пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[('24.07', 'B-data'), ('тск', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'I-operation'), ('начада', 'O'), ('4224', 'O')]</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>24.07
+тск
+пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[('6.8.23', 'B-data'), ('тск', 'B-department'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('9648', 'O'), ('день', 'B-perDay'), ('2768', 'O'), ('от', 'B-perOperation'), ('начала', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>6.8.23
+тск
+дискование сахарная свекла
+9648 день
+2768 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('выравнивание', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('23532', 'B-perDay'), ('день', 'O'), ('2325', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('дискование', 'B-operation'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('23532', 'I-perDay'), ('день', 'O'), ('2523', 'O'), ('от', 'O'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание сои под ячмень
+23532 день
+2325 от начала
+дискование озимая пшеница под сахарная свекла
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('дискование', 'B-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('435', 'B-perDay'), ('день', 'O'), ('43532', 'B-perOperation'), ('от', 'I-department'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+дискование под рапс
+435 день
+43532 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('25325', 'B-perDay'), ('день', 'O'), ('23463', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('уборка', 'B-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('345', 'O'), ('день', 'O'), ('1342', 'O'), ('от', 'O'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+25325 день
+23463 от начала
+уборка пшеница под отцовские травы травы
+345 день
+1342 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('12.9.44', 'B-data'), ('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('425346', 'B-perDay'), ('день', 'O'), ('3633', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('выравнивание', 'B-operation'), ('силос', 'B-perDay'), ('324', 'O'), ('день', 'O'), ('2523', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('выкашивание', 'B-operation'), ('с', 'I-department'), ('свекла', 'O'), ('под', 'O'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('43633', 'B-perOperation'), ('день', 'O'), ('45636', 'O'), ('от', 'I-plant'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+425346 день
+3633 от начала
+выравнивание силос
+324 день
+2523 от начала
+выкашивание с свекла под отцовские травы травы
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[('54.2.24', 'B-data'), ('аор', 'B-department'), ('чизлевание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('32423', 'B-perDay'), ('день', 'O'), ('25323', 'B-perOperation'), ('от', 'O'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>54.2.24
+аор
+чизлевание под сахарная свекла
+32423 день
+25323 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>[('13.3', 'B-data'), ('восход', 'B-department'), ('выравнивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('130', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('выкашивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('130', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>13.3
+восход
+выравнивание сахарная свекла под сою
+130 день
+232 от начала
+выкашивание сахарная свекла под отцовские травы травы
+130 день
+232 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('1.2', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('4243', 'B-perDay'), ('день', 'O'), ('4243', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>мир
+1.2
+пахота зяби под ячмень
+4243 день
+4243 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[('21.10', 'B-data'), ('восход', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('423', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'I-operation'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+423 день
+4353 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[('6.8.23', 'B-data'), ('тск', 'B-department'), ('дискование', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('9648', 'B-perDay'), ('день', 'O'), ('2768', 'O'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('313', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>6.8.23
+тск
+дискование сахарная свекла
+9648 день
+2768 от начала
+валовый день 313 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('выравнивание', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('23532', 'B-perDay'), ('день', 'O'), ('2325', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('242', 'O'), ('от', 'O'), ('начала', 'O'), ('4242', 'O'), ('дискование', 'B-operation'), ('озимая', 'I-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('23532', 'I-perDay'), ('день', 'O'), ('2523', 'O'), ('от', 'O'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание сои под ячмень
+23532 день
+2325 от начала
+валовый день 242 от начала 4242
+дискование озимая пшеница под сахарная свекла
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('дискование', 'B-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('435', 'B-perDay'), ('день', 'O'), ('43532', 'B-perOperation'), ('от', 'I-department'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('43443', 'B-grosPerDay'), ('от', 'I-department'), ('начала', 'O'), ('4334', 'O')]</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+дискование под рапс
+435 день
+43532 от начала
+валовый день 43443 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('25325', 'B-perDay'), ('день', 'O'), ('23463', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('4243', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('уборка', 'B-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('345', 'O'), ('день', 'O'), ('1342', 'O'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('3535', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+25325 день
+23463 от начала
+валовый день 4243 от начала 343
+уборка пшеница под отцовские травы травы
+345 день
+1342 от начала
+валовый день 3535 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс', 'I-department'), ('12.9.44', 'B-data'), ('уборка', 'B-operation'), ('пшеница', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('425346', 'B-perDay'), ('день', 'O'), ('3633', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('433', 'B-operation'), ('выравнивание', 'I-operation'), ('силос', 'B-perDay'), ('324', 'O'), ('день', 'O'), ('2523', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('53546', 'O'), ('от', 'I-plant'), ('начала', 'O'), ('3434', 'B-operation'), ('выкашивание', 'I-operation'), ('с', 'I-department'), ('свекла', 'B-plant'), ('под', 'O'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('43633', 'B-perOperation'), ('день', 'O'), ('45636', 'O'), ('от', 'I-plant'), ('начала', 'O')]</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+425346 день
+3633 от начала
+валовый день 435 от начала 433
+выравнивание силос
+324 день
+2523 от начала
+валовый день 53546 от начала 3434
+выкашивание с свекла под отцовские травы травы
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[('54.2.24', 'B-data'), ('аор', 'B-department'), ('чизлевание', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('32423', 'B-perDay'), ('день', 'O'), ('25323', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('53535', 'O'), ('от', 'O'), ('начала', 'O'), ('3534', 'O')]</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>54.2.24
+аор
+чизлевание под сахарная свекла
+32423 день
+25323 от начала
+валовый день 53535 от начала 3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[('13.3', 'B-data'), ('восход', 'B-department'), ('выравнивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('130', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('выкашивание', 'B-operation'), ('сахарная', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('травы', 'I-plant'), ('130', 'O'), ('день', 'O'), ('232', 'O'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('54656', 'O'), ('от', 'O'), ('начала', 'O'), ('334', 'O')]</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>13.3
+восход
+выравнивание сахарная свекла под сою
+130 день
+232 от начала
+выкашивание сахарная свекла под отцовские травы травы
+130 день
+232 от начала
+валовый день 54656 от начала 334</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[('мир', 'B-department'), ('1.2', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('ячмень', 'B-plant'), ('4243', 'B-perDay'), ('день', 'O'), ('4243', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('валовый', 'O'), ('435333', 'B-grosPerDay')]</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>мир
+1.2
+пахота зяби под ячмень
+4243 день
+4243 от начала
+валовый 435333</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[('21.10', 'B-data'), ('восход', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('423', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('435345', 'B-grosPerDay'), ('от', 'I-operation'), ('начала', 'O'), ('5353434', 'B-grosPerOperation')]</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+423 день
+4353 от начала
+валовый день 435345 от начала 5353434</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[('16.6', 'B-data'), ('восход', 'B-department'), ('чизлевание', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('43875', 'B-perDay'), ('день', 'O'), ('46384', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('43535', 'O'), ('от', 'O'), ('начала', 'O'), ('23234', 'O'), ('пахота', 'O'), ('под', 'O'), ('сою', 'B-perDay'), ('42434', 'O'), ('день', 'O'), ('42434', 'O'), ('от', 'O'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('53545', 'O'), ('от', 'O'), ('начала', 'O'), ('4342', 'O')]</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>16.6
+восход
+чизлевание сои под сахарная свеклу
+43875 день
+46384 от начала
+валовый день 43535 от начала 23234
+пахота под сою
+42434 день
+42434 от начала
+валовый день 53545 от начала 4342</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[('24.09', 'B-data'), ('тск', 'B-department'), ('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('4353', 'B-perDay'), ('день', 'O'), ('4224', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('валовый', 'O'), ('день', 'O'), ('4354', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>24.09
+тск
+пахота под сою
+4353 день
+4224 от начала
+валовый день 4354 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('435', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'B-perOperation'), ('отделение', 'O'), ('34', 'I-perOperation'), ('день', 'O'), ('43', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perOperation'), ('валовый', 'O'), ('день', 'O'), ('43534', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('34534', 'B-grosPerOperation'), ('прокатывание', 'B-operation'), ('посевов', 'B-plant'), ('овса', 'B-department'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('3223', 'O'), ('от', 'O'), ('начала', 'O'), ('3232', 'O'), ('отделение', 'O'), ('24', 'O'), ('день', 'O'), ('43535', 'O'), ('от', 'O'), ('начала', 'O'), ('676243', 'O'), ('валовый', 'O'), ('день', 'O'), ('4363', 'O'), ('от', 'O'), ('начала', 'O'), ('35344', 'O')]</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>посев кукурузный силос
+по пу день 435 от начала 343
+отделение 34 день 43 от начала 343
+валовый день 43534 от начала 34534
+прокатывание посевов овса
+по пу день 3223 от начала 3232
+отделение 24 день 43535 от начала 676243
+валовый день 4363 от начала 35344</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>[('сп', 'B-department'), ('коломейцево', 'I-department'), ('18.09', 'B-data'), ('варванивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('245', 'O'), ('от', 'O'), ('начала', 'O'), ('25325', 'B-perOperation'), ('валовый', 'O'), ('день', 'O'), ('34534', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'O')]</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+18.09
+варванивание зяби под сахарная свеклу
+день 245
+от начала 25325
+валовый день 34534 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('18.04.24', 'B-data'), ('культивация', 'B-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('121', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('434', 'B-perOperation'), ('98', 'O'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('75', 'O'), ('валовый', 'O'), ('день', 'O'), ('4334', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>рассвет
+18.04.24
+культивация сахарная свекла день 121 от начала 434 98 
+предпосевная культивация под сахарная свекла день 23 от начала 232 75 
+валовый день 4334 от начала 4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('силос', 'B-plant'), ('по', 'B-department'), ('пу', 'O'), ('день', 'O'), ('43535', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('345', 'B-perOperation'), ('отделение', 'O'), ('5', 'I-perDay'), ('день', 'O'), ('42324', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('валовый', 'O'), ('день', 'O'), ('543', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'I-perDay'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'I-plant'), ('по', 'I-department'), ('пу', 'O'), ('день', 'O'), ('2432', 'O'), ('от', 'O'), ('начала', 'O'), ('324', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('43543', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('353', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('валовый', 'O'), ('день', 'O'), ('34543', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O')]</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>выравнивание силос
+по пу день 43535 от начала 345
+отделение 5 день 42324 от начала 23
+валовый день 543 от начала 435
+выкашивание отцовские травы формирование
+по пу день 2432 от начала 324
+отделение 4 день 43543 от начала 3434
+отделение 4 день 353 от начала 343
+валовый день 34543 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('5353', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3535', 'B-perOperation'), ('отделение', 'O'), ('54', 'O'), ('день', 'O'), ('57', 'O'), ('от', 'O'), ('начала', 'O'), ('43433', 'O'), ('валовый', 'O'), ('день', 'O'), ('4534', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-grosPerOperation'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4353', 'O'), ('от', 'O'), ('начала', 'O'), ('5343', 'O'), ('отделение', 'O'), ('42', 'O'), ('день', 'O'), ('2443', 'O'), ('от', 'O'), ('начала', 'O'), ('4333', 'O'), ('валовый', 'O'), ('день', 'O'), ('43534', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под озимая пшеница
+по пу день 5353 от начала 3535
+отделение 54 день 57 от начала 43433
+валовый день 4534 от начала 3453
+второе дискование сахарная свекла
+по пу день 4353 от начала 5343
+отделение 42 день 2443 от начала 4333
+валовый день 43534 от начала 4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('546', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('454', 'B-perOperation'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('76', 'O'), ('от', 'O'), ('начала', 'O'), ('668', 'O'), ('валовый', 'O'), ('день', 'O'), ('4543', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('3434', 'B-grosPerOperation'), ('культивация', 'B-operation'), ('сахарная', 'I-plant'), ('свеклы', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('8686', 'O'), ('отделение', 'O'), ('9', 'O'), ('день', 'O'), ('434', 'O'), ('от', 'O'), ('начала', 'O'), ('7676', 'O'), ('валовый', 'O'), ('день', 'O'), ('435354', 'O'), ('от', 'O'), ('начала', 'O'), ('43534', 'O')]</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>посев сахарная свеклы
+по пу день 546 от начала 454
+отделение 7 день 76 от начала 668
+валовый день 4543 от начала 3434
+культивация сахарная свеклы
+по пу день 43 от начала 8686
+отделение 9 день 434 от начала 7676
+валовый день 435354 от начала 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>[('посев', 'B-operation'), ('подсолнкчника', 'B-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('678', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('544', 'B-perOperation'), ('отделение', 'O'), ('8', 'O'), ('день', 'O'), ('535', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('отделение', 'O'), ('9', 'O'), ('день', 'O'), ('443', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('валовый', 'O'), ('день', 'O'), ('435', 'O'), ('от', 'O'), ('начала', 'O'), ('3453', 'O')]</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>посев подсолнкчника
+по пу день 678 от начала 544
+отделение 8 день 535 от начала 343
+отделение 9 день 443 от начала 4343
+валовый день 435 от начала 3453</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[('дискование', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('силос', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4222', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'B-perOperation'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('22', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('232', 'I-perOperation'), ('пахота', 'B-operation'), ('сои', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4242', 'O'), ('от', 'O'), ('начала', 'O'), ('242', 'O'), ('отделение', 'O'), ('3', 'I-perOperation'), ('день', 'O'), ('232', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('2424', 'O'), ('валовый', 'O'), ('день', 'O'), ('4534', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>дискование сои под силос
+по пу день 4222 от начала 232
+отделение 4 день 22 от начала 232
+пахота сои под озимая пшеница
+по пу день 4242 от начала 242
+отделение 3 день 232 от начала 2424
+валовый день 4534 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[('8.3', 'B-data'), ('посев', 'B-operation'), ('ячмень', 'I-operation'), ('под', 'O'), ('озимый', 'B-plant'), ('ячмень', 'I-operation'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4353', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3435', 'B-perOperation'), ('отделение', 'O'), ('81', 'O'), ('день', 'O'), ('243', 'O'), ('от', 'O'), ('начала', 'O'), ('2323', 'O'), ('отделение', 'O'), ('27', 'O'), ('день', 'O'), ('3242', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4242', 'O'), ('от', 'O'), ('начала', 'O'), ('2342', 'O'), ('отделение', 'O'), ('4', 'I-perDay'), ('день', 'O'), ('3244', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('отделение', 'O'), ('31', 'O'), ('день', 'O'), ('195', 'O'), ('от', 'O'), ('начала', 'O'), ('542', 'O'), ('валовый', 'O'), ('день', 'O'), ('34543', 'O'), ('от', 'O'), ('начала', 'O'), ('3434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>8.3 посев ячмень под озимый ячмень
+по пу день 4353 от начала 3435
+отделение 81 день 243 от начала 2323
+отделение 27 день 3242 от начала 232
+внесение гербицидов под озимая пшеница
+по пу день 4242 от начала 2342
+отделение 4 день 3244 от начала 3434
+отделение 31 день 195 от начала 542
+валовый день 34543 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[('23.03', 'B-data'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('242', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('2323', 'B-perOperation'), ('отделение', 'O'), ('23', 'I-data'), ('день', 'O'), ('323', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('232', 'I-perOperation'), ('отделение', 'O'), ('24', 'I-perDay'), ('день', 'O'), ('232', 'I-perOperation'), ('от', 'I-operation'), ('начала', 'O'), ('3232', 'O'), ('валовый', 'O'), ('43534', 'B-grosPerDay')]</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+по пу день 242 от начала 2323
+отделение 23 день 323 от начала 232
+отделение 24 день 232 от начала 3232
+валовый 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>[('4.3', 'B-data'), ('посев', 'B-operation'), ('с', 'I-operation'), ('свекла', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('3435', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('3433', 'B-perOperation'), ('отделение', 'O'), ('33', 'O'), ('день', 'O'), ('344', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perDay'), ('валовый', 'O'), ('435343', 'B-grosPerDay'), ('пахота', 'B-operation'), ('ячмень', 'O'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'B-perDay'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('4774', 'O'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('отделение', 'O'), ('43', 'I-perDay'), ('день', 'O'), ('433', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('4343', 'O'), ('отделение', 'O'), ('7', 'O'), ('день', 'O'), ('33', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'I-perDay'), ('валовый', 'O'), ('3543', 'B-operation'), ('внесение', 'I-operation'), ('гербицидоа', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('по', 'I-operation'), ('пу', 'O'), ('день', 'O'), ('433', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perOperation'), ('отделение', 'O'), ('78', 'O'), ('день', 'O'), ('323', 'O'), ('от', 'O'), ('начала', 'O'), ('252', 'O'), ('отделение', 'O'), ('4', 'I-data'), ('день', 'O'), ('4334', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'I-perOperation'), ('валовый', 'O'), ('43543', 'O')]</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>4.3
+посев с свекла под озимая пшеница
+по пу день 3435 от начала 3433
+отделение 33 день 344 от начала 343
+валовый 435343
+пахота ячмень под кукурузы силос
+по пу день 4774 от начала 4343
+отделение 43 день 433 от начала 4343
+отделение 7 день 33 от начала 343
+валовый 3543
+внесение гербицидоа под озимая пшеница
+по пу день 433 от начала 433
+отделение 78 день 323 от начала 252
+отделение 4 день 4334 от начала 433
+валовый 43543</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('силос', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('423564', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('9875', 'B-perOperation'), ('отделение', 'O'), ('45', 'O'), ('день', 'O'), ('343', 'O'), ('от', 'O'), ('начала', 'O'), ('563', 'O'), ('валовый', 'O'), ('день', 'O'), ('34534', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('4354', 'O'), ('от', 'O'), ('начала', 'O'), ('35345', 'O'), ('отделение', 'O'), ('день', 'O'), ('4355', 'O'), ('от', 'O'), ('начала', 'O'), ('2426', 'O'), ('валовый', 'O'), ('день', 'O'), ('4534', 'I-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'I-grosPerDay'), ('внесен', 'I-operation'), ('кас', 'B-plant'), ('под', 'O'), ('кукурузы', 'I-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('23223', 'O'), ('от', 'O'), ('начала', 'O'), ('25252', 'O'), ('отделение', 'O'), ('85', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('валовый', 'O'), ('день', 'O'), ('43534', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O')]</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под силос
+по пу день 423564 от начала 9875
+отделение 45 день 343 от начала 563
+валовый день 34534 от начала 343
+пахота под сахарная свекла
+по пу день 4354 от начала 35345
+отделение день 4355 от начала 2426
+валовый день 4534 от начала 3453
+внесен кас под кукурузы силос
+по пу день 23223 от начала 25252
+отделение 85 день 25 от начала 232
+валовый день 43534 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('334', 'B-perOperation'), ('отделение', 'O'), ('13', 'O'), ('день', 'O'), ('14', 'O'), ('от', 'O'), ('начала', 'O'), ('544', 'O'), ('отделение', 'O'), ('15', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('121', 'O'), ('валовый', 'O'), ('день', 'O'), ('54378', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('565', 'B-operation'), ('дискование', 'I-operation'), ('пшеница', 'I-plant'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('653', 'O'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('22', 'O'), ('день', 'O'), ('12', 'O'), ('от', 'O'), ('начала', 'O'), ('442', 'O'), ('отделение', 'O'), ('23', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('434', 'O')]</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>выравнивание под озимая пшеница
+по пу день 54 от начала 334
+отделение 13 день 14 от начала 544
+отделение 15 день 12 от начала 121
+валовый день 54378 от начала 565
+дискование пшеница под сахарная свекла
+по пу день 653 от начала 232
+отделение 22 день 12 от начала 442
+отделение 23 день 43 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[('17.9', 'B-data'), ('посев', 'B-operation'), ('озимая', 'I-operation'), ('пшеницы', 'I-operation'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('3223', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2532', 'B-perOperation'), ('отделение', 'O'), ('42', 'O'), ('день', 'O'), ('254', 'O'), ('от', 'O'), ('начала', 'O'), ('235', 'O'), ('валовый', 'O'), ('день', 'O'), ('43', 'O'), ('от', 'O'), ('начала', 'O'), ('23523', 'B-grosPerOperation')]</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>17.9 посев озимая пшеницы пу юг день 3223 от начала 2532
+отделение 42 день 254 от начала 235
+валовый день 43 от начала 23523</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[('16.02', 'B-data'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('пу', 'O'), ('юг', 'B-department'), ('день', 'O'), ('132', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('2423', 'B-perOperation'), ('отделение', 'O'), ('18', 'O'), ('день', 'O'), ('4343', 'O'), ('от', 'O'), ('начала', 'O'), ('435', 'O'), ('валовый', 'O'), ('день', 'O'), ('43543', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('43534', 'B-grosPerOperation')]</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>16.02 выравнивание под кукурузный силос пу юг день 132 от начала 2423
+отделение 18 день 4343 от начала 435
+валовый день 43543 от начала 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[('19.08', 'B-data'), ('выравнивание', 'B-operation'), ('кукурузы', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('2534', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('5856', 'B-perOperation'), ('отделение', 'O'), ('4', 'O'), ('день', 'O'), ('277', 'O'), ('от', 'O'), ('начала', 'O'), ('833', 'O'), ('валовый', 'O'), ('день', 'O'), ('3436', 'O'), ('от', 'O'), ('начала', 'O'), ('786', 'O')]</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>19.08
+выравнивание кукурузы силос
+по пу день 2534 от начала 5856
+отделение 4 день 277 от начала 833
+валовый день 3436 от начала 786</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('379', 'B-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('36', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('240', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('14', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('79', 'I-perOperation'), ('валовый', 'O'), ('день', 'O'), ('34436', 'B-grosPerDay'), ('от', 'I-operation'), ('начала', 'O'), ('3434', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('588', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('190', 'O'), ('валовый', 'O'), ('34534', 'B-operation'), ('второе', 'I-operation'), ('дискование', 'O'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('130', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1393', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('130', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('130', 'O'), ('валовый', 'O'), ('346346', 'B-operation'), ('дискование', 'O'), ('кукурузы', 'B-department'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('207', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('857', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('66', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('199', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('141', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('289', 'B-grosPerDay'), ('валовый', 'O'), ('день', 'O'), ('34634', 'I-operation'), ('от', 'I-operation'), ('начала', 'O'), ('3463', 'I-operation'), ('дискование', 'O'), ('озимая', 'I-plant'), ('пшеницы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('57', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('8743', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('57', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1999', 'O'), ('валовый', 'O'), ('день', 'O'), ('43435', 'B-operation'), ('от', 'I-operation'), ('начала', 'O'), ('3534', 'B-plant'), ('выкашивание', 'I-plant'), ('отцовские', 'I-plant'), ('травы', 'I-plant'), ('формирование', 'I-plant'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('2', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('24', 'O'), ('валовый', 'O'), ('день', 'O'), ('3453', 'I-operation'), ('от', 'I-operation'), ('начала', 'O'), ('34534', 'I-operation'), ('прикат', 'O'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('458', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('60', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('60', 'O'), ('валовый', 'O'), ('день', 'O'), ('353', 'I-plant'), ('от', 'I-operation'), ('начала', 'O'), ('4334', 'O')]</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу день 50 от начала 379
+отделение 12 день 36 от начала 240
+отделение 16 день 14 от начала 79
+валовый день 34436 от начала 3434
+чизлование под озимая ячмень
+по пу день 60 от начала 588
+отделение 11 день 60 от начала 190
+валовый 34534
+второе дискование под сахарная свекла
+по пу день 130 от начала 1393
+отделение 17 день 130 от начала 130
+валовый 346346
+дискование кукурузы силос
+по пу день 207 от начала 857
+отделение 11 день 66 от начала 199
+отделение 12 день 141 от начала 289
+валовый день 34634 от начала 3463
+дискование озимая пшеницы 
+по пу день 57 от начала 8743
+отделение 17 день 57 от начала 1999
+валовый день 43435 от начала 3534
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 день 2 от начала 24
+валовый день 3453 от начала 34534
+прикат под озимая ячмень
+по пу день 60 от начала 458
+отделение 11 день 60 от начала 60
+валовый день 353 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[('пу', 'B-department'), ('юг', 'I-department'), ('2.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('105', 'O'), ('от', 'O'), ('начала', 'O'), ('2527', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('674', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('75', 'O'), ('от', 'O'), ('начала', 'O'), ('588', 'O'), ('валовый', 'O'), ('день', 'O'), ('34345', 'O'), ('от', 'O'), ('начала', 'O'), ('34534', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'B-department'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('571', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('412', 'O'), ('валовый', 'O'), ('день', 'O'), ('436436', 'O'), ('от', 'O'), ('начала', 'O'), ('987', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('62', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('39', 'O'), ('валовый', 'O'), ('день', 'O'), ('3443', 'B-grosPerOperation'), ('от', 'O'), ('начала', 'O'), ('3434', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('354', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('289', 'B-operation'), ('валовый', 'O'), ('34534', 'O'), ('посев', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('валовый', 'O'), ('3563623', 'B-plant'), ('прокатывание', 'O'), ('посевов', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('валовый', 'O'), ('36268', 'O')]</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>пу юг 2.03
+выравнивание зяби под сахарная свекла
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
+валовый день 34345 от начала 34534
+выравнивание зяби под кукурузное зерно 
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
+валовый день 436436 от начала 987
+выравнивание зяби по кукурузный силос
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
+валовый день 3443 от начала 3434
+выравнивание зяби под сою 
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
+валовый 34534
+посев овса 
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
+валовый 3563623
+прокатывание посевов овса 
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+валовый 36268</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1481', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('712', 'O'), ('валовый', 'O'), ('день', 'O'), ('435435', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('3453', 'B-grosPerOperation'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('369', 'O'), ('от', 'O'), ('начала', 'O'), ('2656', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('156', 'O'), ('от', 'O'), ('начала', 'O'), ('639', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('48', 'I-perOperation'), ('от', 'O'), ('начала', 'O'), ('795', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('163', 'O'), ('от', 'O'), ('начала', 'O'), ('751', 'O'), ('валовый', 'O'), ('день', 'O'), ('34646', 'O'), ('от', 'O'), ('начала', 'O'), ('343', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('355', 'O'), ('от', 'O'), ('начала', 'O'), ('2287', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('80', 'O'), ('от', 'O'), ('начала', 'O'), ('481', 'I-perOperation'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('133', 'O'), ('от', 'O'), ('начала', 'O'), ('659', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('142', 'O'), ('от', 'O'), ('начала', 'O'), ('678', 'O'), ('валовый', 'O'), ('день', 'O'), ('43634', 'O'), ('от', 'O'), ('начала', 'O'), ('33', 'O')]</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 24 от начала 1481
+отделение 11 день 24 от начала 712
+валовый день 435435 от начала 3453
+предпосевная культура под сахарная свекла
+по пу день 369 от начала 2656
+отделение 11 день 156 от начала 639
+отделение 12 день 48 от начала 795
+отделение 17 день 163 от начала 751
+валовый день 34646 от начала 343
+посев сахарная свекла
+по пу день 355 от начала 2287
+отделение 11 день 80 от начала 481
+отделение 12 день 133 от начала 659
+отделение 17 день 142 от начала 678
+валовый день 43634 от начала 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('18', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1515', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('18', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('746', 'O'), ('валовый', 'O'), ('день', 'O'), ('3463', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('8865', 'B-grosPerOperation'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('175', 'B-perOperation'), ('2881', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('45', 'O'), ('от', 'O'), ('начала', 'O'), ('734', 'O'), ('отделение', 'O'), ('17', 'I-perOperation'), ('день', 'O'), ('130', 'O'), ('от', 'O'), ('начала', 'O'), ('881', 'O'), ('валовый', 'O'), ('день', 'O'), ('3864', 'O'), ('от', 'O'), ('начала', 'O'), ('65645', 'B-operation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('333', 'O'), ('от', 'O'), ('начала', 'O'), ('2711', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('113', 'O'), ('от', 'O'), ('начала', 'O'), ('615', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('91', 'O'), ('от', 'O'), ('начала', 'O'), ('795', 'O'), ('отделение', 'O'), ('17', 'I-perOperation'), ('день', 'O'), ('129', 'O'), ('от', 'O'), ('начала', 'O'), ('832', 'O'), ('валовый', 'O'), ('день', 'O'), ('63497', 'O'), ('от', 'O'), ('начала', 'O'), ('9766', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('подсо', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('90', 'O'), ('от', 'O'), ('начала', 'O'), ('90', 'O'), ('валовый', 'O'), ('день', 'O'), ('346989', 'B-grosPerOperation'), ('от', 'O'), ('начала', 'O'), ('3453', 'O')]</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 18 от начала 1515
+отделение 11 день 18 от начала 746
+валовый день 3463 от начала 8865
+предпосевная культура под сахарная свекла
+по пу 175 2881
+отделение 11 день 45 от начала 734
+отделение 17 день 130 от начала 881
+валовый день 3864 от начала 65645
+посев сахарная свекла
+по пу день 333 от начала 2711
+отделение 11 день 113 от начала 615
+отделение 12 день 91 от начала 795
+отделение 17 день 129 от начала 832
+валовый день 63497 от начала 9766
+предпосевная культура под подсо
+отделение 16 день 90 от начала 90
+валовый день 346989 от начала 3453</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1441', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('672', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('251', 'O'), ('валовый', 'O'), ('день', 'O'), ('436', 'O'), ('от', 'O'), ('начала', 'O'), ('6334', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'O'), ('начала', 'O'), ('871', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('6', 'O'), ('от', 'O'), ('начала', 'O'), ('401', 'O'), ('валовый', 'O'), ('день', 'O'), ('4534', 'O'), ('от', 'O'), ('начала', 'O'), ('433', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('22', 'O'), ('от', 'O'), ('начала', 'O'), ('406', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('20', 'O'), ('от', 'O'), ('начала', 'O'), ('67', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('2', 'O'), ('от', 'O'), ('начала', 'O'), ('106', 'O'), ('валовый', 'O'), ('день', 'O'), ('543', 'O'), ('от', 'O'), ('начала', 'O'), ('3433', 'B-plant'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('15', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('122', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('от', 'O'), ('начала', 'O'), ('5', 'I-perDay'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('10', 'O'), ('от', 'O'), ('начала', 'O'), ('88', 'O')]</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 53 от начала 1441
+отделение 11 день 23 от начала 672
+отделение 12 день 30 от начала 251
+валовый день 436 от начала 6334
+выравнивание под кукурузы силос
+по пу день 6 от начала 871
+отделение 11 день 6 от начала 401
+валовый день 4534 от начала 433
+предпосевная культура под сахарная свекла
+по пу день 22 от начала 406
+отделение 11 день 20 от начала 67
+отделение 12 день 2 от начала 106
+валовый день 543 от начала 3433
+посев сахарная свекла
+по пу день 15 от начала 122
+отделение 11 день 5 от начала 5
+отделение 16 день 10 от начала 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1388', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('51', 'O'), ('от', 'O'), ('начала', 'O'), ('649', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('67', 'O'), ('от', 'O'), ('начала', 'O'), ('221', 'O'), ('валовый', 'O'), ('день', 'O'), ('34534', 'B-grosPerDay'), ('от', 'O'), ('начала', 'O'), ('767', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузы', 'B-plant'), ('зерно', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('906', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('25', 'O'), ('от', 'O'), ('начала', 'O'), ('437', 'O'), ('валовый', 'O'), ('день', 'O'), ('34634', 'O'), ('от', 'O'), ('начала', 'O'), ('34534', 'I-grosPerDay'), ('предпосевная', 'B-operation'), ('культура', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('265', 'O'), ('от', 'O'), ('начала', 'O'), ('384', 'O'), ('отделение', 'O'), ('11', 'I-perDay'), ('день', 'O'), ('47', 'O'), ('от', 'O'), ('начала', 'O'), ('47', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('65', 'O'), ('от', 'O'), ('начала', 'O'), ('104', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('103', 'O'), ('от', 'O'), ('начала', 'O'), ('183', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('50', 'O'), ('валовый', 'O'), ('день', 'O'), ('4363', 'B-grosPerOperation'), ('от', 'O'), ('начала', 'O'), ('34534', 'I-grosPerDay'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свеклы', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('107', 'O'), ('от', 'O'), ('начала', 'O'), ('107', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('29', 'O'), ('от', 'O'), ('начала', 'O'), ('29', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('78', 'O'), ('от', 'O'), ('начала', 'O'), ('78', 'O'), ('валовый', 'O'), ('день', 'O'), ('36', 'I-grosPerOperation'), ('от', 'O'), ('начала', 'O'), ('8778', 'O')]</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 118 от начала 1388
+отделение 11 день 51 от начала 649
+отделение 12 день 67 от начала 221
+валовый день 34534 от начала 767
+выравнивание под кукурузы зерно
+по пу день 25 от начала 906
+отделение 12 день 25 от начала 437
+валовый день 34634 от начала 34534
+предпосевная культура под сахарная свекла
+по пу день 265 от начала 384
+отделение 11 день 47 от начала 47
+отделение 12 день 65 от начала 104
+отделение 16 день 103 от начала 183
+отделение 17 день 50 от начала 50
+валовый день 4363 от начала 34534
+посев сахарная свеклы
+по пу день 107 от начала 107
+отделение 12 день 29 от начала 29
+отделение 16 день 78 от начала 78
+валовый день 36 от начала 8778</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('14', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1664', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('14', 'I-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('897', 'O'), ('валовый', 'O'), ('день', 'O'), ('36', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('3453', 'B-grosPerOperation'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('164', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('1270', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('95', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('598', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('35', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('154', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('34', 'I-grosPerOperation'), ('от', 'I-operation'), ('начала', 'O'), ('117', 'O'), ('валовый', 'O'), ('день', 'O'), ('3643', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('2324', 'B-operation'), ('предпосевная', 'I-operation'), ('культура', 'O'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'O'), ('по', 'O'), ('пу', 'O'), ('день', 'O'), ('119', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('119', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('39', 'O'), ('отделение', 'O'), ('16', 'I-perOperation'), ('день', 'O'), ('80', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('80', 'O'), ('валовый', 'O'), ('день', 'O'), ('435634', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('4364', 'O')]</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>пахота под сою
+по пу день 14 от начала 1664
+отделение 11 день 14 от начала 897
+валовый день 36 от начала 3453
+выравнивание под сою
+по пу день 164 от начала 1270
+отделение 11 день 95 от начала 598
+отделение 12 день 35 от начала 154
+отделение 17 день 34 от начала 117
+валовый день 3643 от начала 2324
+предпосевная культура под сахарная свекла
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80
+валовый день 435634 от начала 4364</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[('пу', 'B-department'), ('юг', 'I-department'), ('2.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('105', 'O'), ('от', 'O'), ('начала', 'O'), ('2527', 'B-perOperation'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('30', 'O'), ('от', 'O'), ('начала', 'O'), ('674', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('75', 'O'), ('от', 'O'), ('начала', 'O'), ('588', 'O'), ('валовый', 'O'), ('день', 'O'), ('34636', 'O'), ('от', 'O'), ('начала', 'O'), ('433434', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'B-department'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('571', 'O'), ('отделение', 'O'), ('12', 'O'), ('день', 'O'), ('40', 'O'), ('от', 'O'), ('начала', 'O'), ('412', 'O'), ('валовый', 'O'), ('день', 'O'), ('43634', 'O'), ('от', 'O'), ('начала', 'O'), ('34534', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('62', 'B-perOperation'), ('от', 'O'), ('начала', 'O'), ('232', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('23', 'O'), ('от', 'O'), ('начала', 'O'), ('23', 'O'), ('отделение', 'O'), ('17', 'O'), ('день', 'O'), ('39', 'O'), ('от', 'O'), ('начала', 'O'), ('39', 'O'), ('валовый', 'O'), ('4353453', 'B-operation'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('354', 'O'), ('отделение', 'O'), ('16', 'O'), ('день', 'O'), ('72', 'O'), ('от', 'O'), ('начала', 'O'), ('289', 'B-operation'), ('валовый', 'O'), ('43534', 'I-operation'), ('посев', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('11', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('валовый', 'O'), ('34634653', 'B-operation'), ('прокатывание', 'O'), ('посевов', 'O'), ('овса', 'O'), ('по', 'O'), ('пу', 'I-department'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('отделение', 'O'), ('день', 'O'), ('5', 'O'), ('от', 'O'), ('начала', 'O'), ('5', 'O'), ('валовый', 'O'), ('43534', 'I-operation')]</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>пу юг 2.03
+выравнивание зяби под сахарная свекла
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
+валовый день 34636 от начала 433434
+выравнивание зяби под кукурузное зерно 
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
+валовый день 43634 от начала 34534
+выравнивание зяби по кукурузный силос
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
+валовый 4353453
+выравнивание зяби под сою 
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
+валовый 43534
+посев овса 
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
+валовый 34634653
+прокатывание посевов овса 
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+валовый 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[('полевые', 'B-department'), ('работы', 'I-department'), ('аор,', 'I-department'), ('14.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'I-plant'), ('зерно', 'I-plant'), ('день', 'O'), ('26', 'O'), ('от', 'I-department'), ('начала', 'O'), ('3931', 'B-perOperation'), ('96', 'O'), ('остаток', 'O'), ('166', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('295', 'O'), ('от', 'I-department'), ('начала', 'O'), ('6804', 'O'), ('79', 'O'), ('остаток', 'O'), ('1774', 'O')]</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно 
+день 26 
+от начала 3931 96 
+остаток 166 
+пахота под сою 
+день 295 
+от начала 6804 79 
+остаток 1774 </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'I-plant'), ('силос', 'I-plant'), ('день', 'O'), ('128', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('1881', 'B-perOperation'), ('61', 'O'), ('остаток', 'O'), ('1205', 'O'), ('чизелевание', 'B-operation'), ('под', 'O'), ('сою', 'O'), ('день', 'O'), ('73', 'O'), ('от', 'I-operation'), ('начала', 'O'), ('841', 'O')]</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">пахота под кукурузу на силос 
+день 128 
+от начала 1881 61 
+остаток 1205 
+чизелевание под сою 
+день 73 
+от начала 841 </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('день', 'O'), ('384', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('7882', 'B-perOperation'), ('70', 'O'), ('остаток', 'O'), ('3368', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('50', 'O'), ('от', 'O'), ('начала', 'O'), ('1260', 'O'), ('30', 'O'), ('остаток', 'O'), ('2923', 'O')]</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">выравнивание зяби под сахарную свеклу 
+день 384 
+от начала 7882 70 
+остаток 3368 
+выравнивание зяби под подсолнечник 
+день 50 
+от начала 1260 30 
+остаток 2923 </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[('2', 'B-operation'), ('следующий', 'I-operation'), ('выравнивания', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах.свеклу', 'B-plant'), ('день', 'O'), ('44', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('469', 'B-perOperation'), ('4', 'I-perDay'), ('остаток', 'O'), ('10781', 'O'), ('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('мн.травам', 'B-plant'), ('день', 'O'), ('53', 'O'), ('от', 'O'), ('начала', 'O'), ('1018', 'O'), ('58', 'O'), ('остаток', 'O'), ('471', 'O')]</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 следующий выравнивания зяби под сах.свеклу 
+день 44 
+от начала 469 4 
+остаток 10781 
+затравка мышевидных грызунов по мн.травам 
+день 53 
+от начала 1018 58 
+остаток 471 </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('озимому', 'B-plant'), ('ячменю', 'I-plant'), ('день', 'O'), ('186', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('186', 'I-perDay'), ('остаток', 'O'), ('2086', 'O')]</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">затравка мышевидных грызунов по озимому ячменю 
+день 186 
+от начала 186 
+остаток 2086 </t>
         </is>
       </c>
     </row>
